--- a/VT_IE_AGR.xlsx
+++ b/VT_IE_AGR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1843DCB8-590E-447A-89F4-54E8FDC914E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F778F39-FED5-4975-8266-B082F5A5981C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="30" r:id="rId1"/>
@@ -25,15 +25,6 @@
     <sheet name="Demands" sheetId="13" r:id="rId15"/>
     <sheet name="RES" sheetId="22" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
-    <externalReference r:id="rId23"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="6" hidden="1">#REF!</definedName>
@@ -50,96 +41,12 @@
     <definedName name="_Regression_Y" localSheetId="15" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="All_TP">#REF!,#REF!,#REF!</definedName>
-    <definedName name="All_US">#REF!,#REF!,#REF!</definedName>
-    <definedName name="Annual_Fuel_Consumption">#REF!</definedName>
-    <definedName name="Beta">#REF!</definedName>
-    <definedName name="body1ea">#REF!</definedName>
-    <definedName name="body1eb">#REF!</definedName>
-    <definedName name="body1fa">#REF!</definedName>
-    <definedName name="body1fb">#REF!</definedName>
-    <definedName name="body1ga">#REF!</definedName>
-    <definedName name="body1gb">#REF!</definedName>
-    <definedName name="body2ea">#REF!</definedName>
-    <definedName name="body2eb">#REF!</definedName>
-    <definedName name="body2f">#REF!</definedName>
-    <definedName name="body2fa">#REF!</definedName>
-    <definedName name="body2fb">#REF!</definedName>
-    <definedName name="body2ga">#REF!</definedName>
-    <definedName name="body2gb">#REF!</definedName>
-    <definedName name="body3ea">#REF!</definedName>
-    <definedName name="body3eb">#REF!</definedName>
-    <definedName name="body3fa">#REF!</definedName>
-    <definedName name="body3fb">#REF!</definedName>
-    <definedName name="body3ga">#REF!</definedName>
-    <definedName name="body3gb">#REF!</definedName>
-    <definedName name="body4ea">#REF!</definedName>
-    <definedName name="body4eb">#REF!</definedName>
-    <definedName name="body4f">#REF!</definedName>
-    <definedName name="body4fa">#REF!</definedName>
-    <definedName name="body4fb">#REF!</definedName>
-    <definedName name="body4ga">#REF!</definedName>
-    <definedName name="body4gb">#REF!</definedName>
-    <definedName name="Cadmium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="ChosenYear">[1]Cover!$G$117</definedName>
-    <definedName name="Chromium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Copper_Content_ppm_wt">#REF!</definedName>
-    <definedName name="countrye">#REF!</definedName>
-    <definedName name="countryf">#REF!</definedName>
-    <definedName name="countryg">#REF!</definedName>
-    <definedName name="CRF_CountryName">[2]Sheet1!$C$4</definedName>
-    <definedName name="data_range">'[3]CSO data'!#REF!</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="EnergyService">[4]Tertiary!#REF!</definedName>
-    <definedName name="Eng">[1]Cover!$G$111</definedName>
-    <definedName name="Etiket">#REF!</definedName>
-    <definedName name="Evap_Control_perc">#REF!</definedName>
-    <definedName name="Evap_H_Share_perc">#REF!</definedName>
-    <definedName name="Evap_R_Share_perc">#REF!</definedName>
-    <definedName name="Evap_U_Share_perc">#REF!</definedName>
-    <definedName name="FID_1">[5]AGR_Fuels!$A$2</definedName>
-    <definedName name="Fuel_Injection_perc">#REF!</definedName>
-    <definedName name="Fuel_Specifications">#REF!</definedName>
-    <definedName name="H_C_Ratio">#REF!</definedName>
-    <definedName name="H_Share_perc">#REF!</definedName>
-    <definedName name="H_Speed_km_per_h">#REF!</definedName>
-    <definedName name="Improved_Fuel_Specs">#REF!</definedName>
-    <definedName name="Lead_Content_g_per_l">#REF!</definedName>
-    <definedName name="Max_Temperature_oC">#REF!</definedName>
-    <definedName name="Mean_Fleet_Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km">#REF!</definedName>
-    <definedName name="Mileage_km_per_year">#REF!</definedName>
-    <definedName name="Min_Temperature_oC">#REF!</definedName>
-    <definedName name="Nikel_Content_ppm_wt">#REF!</definedName>
-    <definedName name="O_C_Ratio">#REF!</definedName>
-    <definedName name="Population">#REF!</definedName>
-    <definedName name="qr_Profili_insmart_T20_quartieri">#REF!</definedName>
-    <definedName name="R_Share_perc">#REF!</definedName>
-    <definedName name="R_Speed_km_per_h">#REF!</definedName>
-    <definedName name="RetBE">[6]Macro1!#REF!</definedName>
-    <definedName name="RVP_and_beta">#REF!</definedName>
-    <definedName name="RVP_kPa">[7]RVP_kPa!$A$1:$B$13</definedName>
-    <definedName name="Selenium_Content_ppm_wt">#REF!</definedName>
-    <definedName name="Sulphur_Content_perc_wt">#REF!</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="Temperatures">#REF!</definedName>
-    <definedName name="tiket">#REF!</definedName>
-    <definedName name="TP.Electricity_and_RES">#REF!</definedName>
-    <definedName name="TP.Petroleum">#REF!</definedName>
-    <definedName name="TP.Solids_and_Gases">#REF!</definedName>
-    <definedName name="U_Share_perc">#REF!</definedName>
-    <definedName name="U_Speed_km_per_h">#REF!</definedName>
-    <definedName name="US.Electricity_and_RES">#REF!</definedName>
-    <definedName name="US.Petroleum">#REF!</definedName>
-    <definedName name="US.Solids_and_Gases">#REF!</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="yeare">#REF!</definedName>
-    <definedName name="yearf">#REF!</definedName>
-    <definedName name="yearg">#REF!</definedName>
-    <definedName name="Zinc_Content_ppm_wt">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4889,17 +4796,10 @@
     <numFmt numFmtId="170" formatCode="0E+00"/>
     <numFmt numFmtId="171" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5506,25 +5406,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="590">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5539,10 +5438,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -5550,8 +5449,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5560,7 +5459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5611,139 +5510,139 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5752,220 +5651,220 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5974,7 +5873,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -6001,13 +5900,13 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -6055,70 +5954,70 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6136,71 +6035,71 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6212,28 +6111,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6242,633 +6141,633 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="27" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6877,264 +6776,164 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7142,15 +6941,118 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7159,64 +7061,60 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="31" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="32" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{0AAA2A3D-7779-46BF-B35E-58E62F3D6DF1}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7319,7 +7217,7 @@
         <xdr:cNvPr id="2" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7397,7 +7295,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7450,7 +7348,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7503,7 +7401,7 @@
         <xdr:cNvPr id="9" name="TextBox 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7568,7 +7466,7 @@
         <xdr:cNvPr id="10" name="TextBox 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7638,7 +7536,7 @@
         <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7689,7 +7587,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7758,7 +7656,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7809,7 +7707,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7860,7 +7758,7 @@
         <xdr:cNvPr id="6" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7939,7 +7837,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7995,7 +7893,7 @@
         <xdr:cNvPr id="8" name="TextBox 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8064,7 +7962,7 @@
         <xdr:cNvPr id="9" name="TextBox 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8133,7 +8031,7 @@
         <xdr:cNvPr id="10" name="TextBox 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8198,7 +8096,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8249,7 +8147,7 @@
         <xdr:cNvPr id="12" name="TextBox 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8332,7 +8230,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8385,7 +8283,7 @@
         <xdr:cNvPr id="14" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8470,7 +8368,7 @@
         <xdr:cNvPr id="15" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8555,7 +8453,7 @@
         <xdr:cNvPr id="16" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8640,7 +8538,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8693,7 +8591,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8746,7 +8644,7 @@
         <xdr:cNvPr id="19" name="TextBox 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8815,7 +8713,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8870,7 +8768,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8923,7 +8821,7 @@
         <xdr:cNvPr id="22" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8972,7 +8870,7 @@
         <xdr:cNvPr id="23" name="TextBox 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9083,7 +8981,7 @@
         <xdr:cNvPr id="24" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9130,7 +9028,7 @@
         <xdr:cNvPr id="25" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9210,7 +9108,7 @@
         <xdr:cNvPr id="26" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9295,7 +9193,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9350,7 +9248,7 @@
         <xdr:cNvPr id="28" name="TextBox 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9427,7 +9325,7 @@
         <xdr:cNvPr id="29" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9476,7 +9374,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9529,7 +9427,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9584,7 +9482,7 @@
         <xdr:cNvPr id="32" name="Rounded Rectangle 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9636,7 +9534,7 @@
         <xdr:cNvPr id="33" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9715,7 +9613,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9771,7 +9669,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9824,7 +9722,7 @@
         <xdr:cNvPr id="36" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9875,7 +9773,7 @@
         <xdr:cNvPr id="37" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9944,7 +9842,7 @@
         <xdr:cNvPr id="38" name="96 Conector angular">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10004,7 +9902,7 @@
         <xdr:cNvPr id="39" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10078,7 +9976,7 @@
         <xdr:cNvPr id="40" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10163,7 +10061,7 @@
         <xdr:cNvPr id="41" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10218,7 +10116,7 @@
         <xdr:cNvPr id="42" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10303,7 +10201,7 @@
         <xdr:cNvPr id="43" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10358,7 +10256,7 @@
         <xdr:cNvPr id="44" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10443,7 +10341,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10498,7 +10396,7 @@
         <xdr:cNvPr id="46" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10551,7 +10449,7 @@
         <xdr:cNvPr id="47" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10604,7 +10502,7 @@
         <xdr:cNvPr id="48" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10658,7 +10556,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10711,7 +10609,7 @@
         <xdr:cNvPr id="50" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10764,7 +10662,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10817,7 +10715,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10870,7 +10768,7 @@
         <xdr:cNvPr id="53" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10927,7 +10825,7 @@
         <xdr:cNvPr id="54" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11005,7 +10903,7 @@
         <xdr:cNvPr id="55" name="Rounded Rectangle 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11070,7 +10968,7 @@
         <xdr:cNvPr id="56" name="TextBox 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11139,7 +11037,7 @@
         <xdr:cNvPr id="57" name="TextBox 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11204,7 +11102,7 @@
         <xdr:cNvPr id="58" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11289,7 +11187,7 @@
         <xdr:cNvPr id="59" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11374,7 +11272,7 @@
         <xdr:cNvPr id="60" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11459,7 +11357,7 @@
         <xdr:cNvPr id="61" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11544,7 +11442,7 @@
         <xdr:cNvPr id="62" name="TextBox 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11613,7 +11511,7 @@
         <xdr:cNvPr id="63" name="TextBox 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11682,7 +11580,7 @@
         <xdr:cNvPr id="64" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11737,7 +11635,7 @@
         <xdr:cNvPr id="65" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11792,7 +11690,7 @@
         <xdr:cNvPr id="66" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11847,7 +11745,7 @@
         <xdr:cNvPr id="67" name="Rounded Rectangle 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11912,7 +11810,7 @@
         <xdr:cNvPr id="68" name="TextBox 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11977,7 +11875,7 @@
         <xdr:cNvPr id="69" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12056,7 +11954,7 @@
         <xdr:cNvPr id="70" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12135,7 +12033,7 @@
         <xdr:cNvPr id="71" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12214,7 +12112,7 @@
         <xdr:cNvPr id="72" name="Straight Arrow Connector 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12268,7 +12166,7 @@
         <xdr:cNvPr id="73" name="Straight Arrow Connector 142">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12322,7 +12220,7 @@
         <xdr:cNvPr id="74" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12395,7 +12293,7 @@
         <xdr:cNvPr id="75" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12482,7 +12380,7 @@
         <xdr:cNvPr id="76" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12538,7 +12436,7 @@
         <xdr:cNvPr id="77" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12594,7 +12492,7 @@
         <xdr:cNvPr id="78" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12663,7 +12561,7 @@
         <xdr:cNvPr id="79" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12732,7 +12630,7 @@
         <xdr:cNvPr id="80" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12788,7 +12686,7 @@
         <xdr:cNvPr id="81" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12867,7 +12765,7 @@
         <xdr:cNvPr id="82" name="237 Flecha derecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12924,7 +12822,7 @@
         <xdr:cNvPr id="83" name="TextBox 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000053000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13014,7 +12912,7 @@
         <xdr:cNvPr id="84" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13118,7 +13016,7 @@
         <xdr:cNvPr id="85" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13167,7 +13065,7 @@
         <xdr:cNvPr id="86" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000056000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13237,7 +13135,7 @@
         <xdr:cNvPr id="87" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000057000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13322,7 +13220,7 @@
         <xdr:cNvPr id="88" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13407,7 +13305,7 @@
         <xdr:cNvPr id="89" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13460,7 +13358,7 @@
         <xdr:cNvPr id="90" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13515,7 +13413,7 @@
         <xdr:cNvPr id="91" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13570,7 +13468,7 @@
         <xdr:cNvPr id="92" name="Straight Arrow Connector 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13627,7 +13525,7 @@
         <xdr:cNvPr id="93" name="96 Conector angular">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13687,7 +13585,7 @@
         <xdr:cNvPr id="94" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13761,7 +13659,7 @@
         <xdr:cNvPr id="95" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13815,7 +13713,7 @@
         <xdr:cNvPr id="96" name="Straight Arrow Connector 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13872,7 +13770,7 @@
         <xdr:cNvPr id="97" name="96 Conector angular">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13932,7 +13830,7 @@
         <xdr:cNvPr id="98" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14010,7 +13908,7 @@
         <xdr:cNvPr id="99" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14067,7 +13965,7 @@
         <xdr:cNvPr id="100" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14121,7 +14019,7 @@
         <xdr:cNvPr id="101" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14199,7 +14097,7 @@
         <xdr:cNvPr id="102" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14256,7 +14154,7 @@
         <xdr:cNvPr id="103" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14310,7 +14208,7 @@
         <xdr:cNvPr id="104" name="Rounded Rectangle 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14362,7 +14260,7 @@
         <xdr:cNvPr id="105" name="Straight Arrow Connector 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14416,7 +14314,7 @@
         <xdr:cNvPr id="106" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14509,7 +14407,7 @@
         <xdr:cNvPr id="107" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14602,7 +14500,7 @@
         <xdr:cNvPr id="108" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14659,7 +14557,7 @@
         <xdr:cNvPr id="109" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14738,7 +14636,7 @@
         <xdr:cNvPr id="110" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14807,7 +14705,7 @@
         <xdr:cNvPr id="111" name="TextBox 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14916,7 +14814,7 @@
         <xdr:cNvPr id="112" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14965,7 +14863,7 @@
         <xdr:cNvPr id="113" name="TextBox 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15041,7 +14939,7 @@
         <xdr:cNvPr id="114" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15129,7 +15027,7 @@
         <xdr:cNvPr id="115" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15208,7 +15106,7 @@
         <xdr:cNvPr id="116" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15264,7 +15162,7 @@
         <xdr:cNvPr id="117" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15343,7 +15241,7 @@
         <xdr:cNvPr id="118" name="237 Flecha derecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15400,7 +15298,7 @@
         <xdr:cNvPr id="119" name="TextBox 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15469,7 +15367,7 @@
         <xdr:cNvPr id="120" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15526,7 +15424,7 @@
         <xdr:cNvPr id="121" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15604,7 +15502,7 @@
         <xdr:cNvPr id="122" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15661,7 +15559,7 @@
         <xdr:cNvPr id="123" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15715,7 +15613,7 @@
         <xdr:cNvPr id="124" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00007C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15772,7 +15670,7 @@
         <xdr:cNvPr id="125" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15850,7 +15748,7 @@
         <xdr:cNvPr id="126" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15907,7 +15805,7 @@
         <xdr:cNvPr id="127" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00007F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15961,7 +15859,7 @@
         <xdr:cNvPr id="128" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16045,7 +15943,7 @@
         <xdr:cNvPr id="129" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16144,7 +16042,7 @@
         <xdr:cNvPr id="130" name="Straight Arrow Connector 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16197,7 +16095,7 @@
         <xdr:cNvPr id="131" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16253,7 +16151,7 @@
         <xdr:cNvPr id="132" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16304,7 +16202,7 @@
         <xdr:cNvPr id="133" name="TextBox 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16458,7 +16356,7 @@
         <xdr:cNvPr id="134" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16507,7 +16405,7 @@
         <xdr:cNvPr id="135" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000087000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000087000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16587,7 +16485,7 @@
         <xdr:cNvPr id="136" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16688,7 +16586,7 @@
         <xdr:cNvPr id="137" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000089000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000089000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16737,7 +16635,7 @@
         <xdr:cNvPr id="138" name="Straight Arrow Connector 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16792,7 +16690,7 @@
         <xdr:cNvPr id="139" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00008B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00008B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16861,7 +16759,7 @@
         <xdr:cNvPr id="140" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00008C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16938,7 +16836,7 @@
         <xdr:cNvPr id="141" name="Elbow Connector 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16989,7 +16887,7 @@
         <xdr:cNvPr id="142" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00008E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00008E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17067,7 +16965,7 @@
         <xdr:cNvPr id="143" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00008F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17160,7 +17058,7 @@
         <xdr:cNvPr id="144" name="Straight Arrow Connector 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000090000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17215,7 +17113,7 @@
         <xdr:cNvPr id="145" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17292,7 +17190,7 @@
         <xdr:cNvPr id="146" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000092000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17369,7 +17267,7 @@
         <xdr:cNvPr id="147" name="Elbow Connector 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17420,7 +17318,7 @@
         <xdr:cNvPr id="148" name="Straight Arrow Connector 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000094000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17473,7 +17371,7 @@
         <xdr:cNvPr id="149" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17526,7 +17424,7 @@
         <xdr:cNvPr id="150" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17576,7 +17474,7 @@
         <xdr:cNvPr id="151" name="TextBox 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17730,7 +17628,7 @@
         <xdr:cNvPr id="152" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17780,7 +17678,7 @@
         <xdr:cNvPr id="153" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000099000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17860,7 +17758,7 @@
         <xdr:cNvPr id="154" name="TextBox 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00009A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17996,7 +17894,7 @@
         <xdr:cNvPr id="155" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18045,7 +17943,7 @@
         <xdr:cNvPr id="156" name="TextBox 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18114,7 +18012,7 @@
         <xdr:cNvPr id="157" name="TextBox 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18183,7 +18081,7 @@
         <xdr:cNvPr id="158" name="TextBox 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18252,7 +18150,7 @@
         <xdr:cNvPr id="159" name="TextBox 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00009F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18321,7 +18219,7 @@
         <xdr:cNvPr id="160" name="Rounded Rectangle 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18373,7 +18271,7 @@
         <xdr:cNvPr id="161" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18473,7 +18371,7 @@
         <xdr:cNvPr id="162" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18581,7 +18479,7 @@
         <xdr:cNvPr id="163" name="Straight Arrow Connector 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18634,7 +18532,7 @@
         <xdr:cNvPr id="164" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18715,7 +18613,7 @@
         <xdr:cNvPr id="165" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18765,7 +18663,7 @@
         <xdr:cNvPr id="166" name="TextBox 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18841,7 +18739,7 @@
         <xdr:cNvPr id="167" name="Elbow Connector 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18897,7 +18795,7 @@
         <xdr:cNvPr id="168" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18967,7 +18865,7 @@
         <xdr:cNvPr id="169" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000A9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19022,7 +18920,7 @@
         <xdr:cNvPr id="170" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19075,7 +18973,7 @@
         <xdr:cNvPr id="171" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000AB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19128,7 +19026,7 @@
         <xdr:cNvPr id="172" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000AC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19181,7 +19079,7 @@
         <xdr:cNvPr id="173" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000AD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19236,7 +19134,7 @@
         <xdr:cNvPr id="174" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19291,7 +19189,7 @@
         <xdr:cNvPr id="175" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000AF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19345,7 +19243,7 @@
         <xdr:cNvPr id="176" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19399,7 +19297,7 @@
         <xdr:cNvPr id="177" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19453,7 +19351,7 @@
         <xdr:cNvPr id="178" name="Straight Arrow Connector 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19507,7 +19405,7 @@
         <xdr:cNvPr id="179" name="Straight Connector 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19562,7 +19460,7 @@
         <xdr:cNvPr id="180" name="TextBox 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19632,7 +19530,7 @@
         <xdr:cNvPr id="181" name="TextBox 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19697,7 +19595,7 @@
         <xdr:cNvPr id="182" name="241 Flecha derecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19754,7 +19652,7 @@
         <xdr:cNvPr id="183" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19811,7 +19709,7 @@
         <xdr:cNvPr id="184" name="Rounded Rectangle 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19863,7 +19761,7 @@
         <xdr:cNvPr id="185" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000B9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000B9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19941,7 +19839,7 @@
         <xdr:cNvPr id="186" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20019,7 +19917,7 @@
         <xdr:cNvPr id="187" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000BB000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20097,7 +19995,7 @@
         <xdr:cNvPr id="188" name="AutoShape 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000BC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20175,7 +20073,7 @@
         <xdr:cNvPr id="189" name="TextBox 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20244,7 +20142,7 @@
         <xdr:cNvPr id="190" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000BE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20304,7 +20202,7 @@
         <xdr:cNvPr id="191" name="Straight Arrow Connector 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000BF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20361,7 +20259,7 @@
         <xdr:cNvPr id="192" name="TextBox 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000C0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20430,7 +20328,7 @@
         <xdr:cNvPr id="193" name="TextBox 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000C1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20499,7 +20397,7 @@
         <xdr:cNvPr id="194" name="237 Flecha derecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000C2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20556,7 +20454,7 @@
         <xdr:cNvPr id="195" name="Elbow Connector 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000C3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20606,7 +20504,7 @@
         <xdr:cNvPr id="196" name="TextBox 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-0000C4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20665,574 +20563,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Start"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Menu"/>
-      <sheetName val="Table1"/>
-      <sheetName val="Table2"/>
-      <sheetName val="Table3"/>
-      <sheetName val="Table4"/>
-      <sheetName val="Table5"/>
-      <sheetName val="Table6a"/>
-      <sheetName val="Table6b"/>
-      <sheetName val="Table6c"/>
-      <sheetName val="Table6d"/>
-      <sheetName val="Table7a"/>
-      <sheetName val="Table7b"/>
-      <sheetName val="Table8"/>
-      <sheetName val="TableEU-1"/>
-      <sheetName val="TableEU-2"/>
-      <sheetName val="GELE"/>
-      <sheetName val="GHEAT"/>
-      <sheetName val="NELE"/>
-      <sheetName val="NHEAT"/>
-      <sheetName val="ELET34"/>
-      <sheetName val="HEAT34"/>
-      <sheetName val="TAB5ELE"/>
-      <sheetName val="TAB5CHP"/>
-      <sheetName val="TAB5TOT"/>
-      <sheetName val="TAB5HEAT"/>
-      <sheetName val="TAB5CHPH"/>
-      <sheetName val="TAB5TOTH"/>
-      <sheetName val="TAB6ANTONS"/>
-      <sheetName val="TAB6CCTONS"/>
-      <sheetName val="TAB6OBCTONS"/>
-      <sheetName val="TAB6SCTONS"/>
-      <sheetName val="TAB6LIGTONS"/>
-      <sheetName val="TAB6PEATONS"/>
-      <sheetName val="TAB6PFUELTONS"/>
-      <sheetName val="TAB6COKEOCTONS"/>
-      <sheetName val="TAB6GASCOKETONS"/>
-      <sheetName val="TAB6COALTARTONS"/>
-      <sheetName val="TAB6BKBTONS"/>
-      <sheetName val="TAB6GWGASTJ"/>
-      <sheetName val="TAB6COGTJ"/>
-      <sheetName val="TAB6BFGTJ"/>
-      <sheetName val="TAB6OSGASTJ"/>
-      <sheetName val="TAB6CRUDOILTONS"/>
-      <sheetName val="TAB6NGLTONS"/>
-      <sheetName val="TAB6REFGASTONS"/>
-      <sheetName val="TAB6LPGTONS"/>
-      <sheetName val="TAB6NAPHTHATONS"/>
-      <sheetName val="TAB6KERJETONS"/>
-      <sheetName val="TAB6OTHKEROTONS"/>
-      <sheetName val="TAB6GASDIESTONS"/>
-      <sheetName val="TAB6HFUELTONS"/>
-      <sheetName val="TAB6BITUTONS"/>
-      <sheetName val="TAB6PETCOKETONS"/>
-      <sheetName val="TAB6OTHOILTONS"/>
-      <sheetName val="TAB6NGASTJ"/>
-      <sheetName val="TAB6INDWTJ"/>
-      <sheetName val="TAB6MSWRTJ"/>
-      <sheetName val="TAB6MSWNRTJ"/>
-      <sheetName val="TAB6WOODTJ"/>
-      <sheetName val="TAB6LANDGASTJ"/>
-      <sheetName val="TAB6SEWAGETJ"/>
-      <sheetName val="TAB6OTHBIOTJ"/>
-      <sheetName val="TAB6LIQBIOTONS"/>
-      <sheetName val="TAB6TOTAL"/>
-      <sheetName val="TAB7MAIN"/>
-      <sheetName val="TAB7AUTO"/>
-      <sheetName val="TAB8IMPE"/>
-      <sheetName val="TAB8IMPHC"/>
-      <sheetName val="TAB8EXPE"/>
-      <sheetName val="TAB8EXPHC"/>
-      <sheetName val="Remarks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="105">
-          <cell r="D105">
-            <v>2010</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="G111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="G117">
-            <v>2010</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="42">
-          <cell r="AE42" t="str">
-            <v>Menu</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>European Community</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Intro"/>
-      <sheetName val="EB2012"/>
-      <sheetName val="COM_Balance"/>
-      <sheetName val="COM_Commodities"/>
-      <sheetName val="COM_Processes"/>
-      <sheetName val="COM_FuelTechs"/>
-      <sheetName val="COM_EmiCoeffs"/>
-      <sheetName val="COM_CH"/>
-      <sheetName val="COM_CW"/>
-      <sheetName val="COM_CC"/>
-      <sheetName val="COM_COth"/>
-      <sheetName val="COM_PV"/>
-      <sheetName val="Commercial SEAI"/>
-      <sheetName val="Public SEAI"/>
-      <sheetName val="CSO data"/>
-      <sheetName val="Public BOC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="7_Buildings managed by municipa"/>
-      <sheetName val="Tertiary"/>
-      <sheetName val="7_Buildings managed by muni (2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Macro1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Population"/>
-      <sheetName val="Mileage_km"/>
-      <sheetName val="Mean_Fleet_Mileage_km"/>
-      <sheetName val="Fuel_Injection_perc"/>
-      <sheetName val="Evap_Control_perc"/>
-      <sheetName val="U_Speed_km_per_h"/>
-      <sheetName val="R_Speed_km_per_h"/>
-      <sheetName val="H_Speed_km_per_h"/>
-      <sheetName val="U_Share_perc"/>
-      <sheetName val="R_Share_perc"/>
-      <sheetName val="H_Share_perc"/>
-      <sheetName val="Evap_U_Share_perc"/>
-      <sheetName val="Evap_R_Share_perc"/>
-      <sheetName val="Evap_H_Share_perc"/>
-      <sheetName val="Min_Temperature_oC"/>
-      <sheetName val="Max_Temperature_oC"/>
-      <sheetName val="Temperatures"/>
-      <sheetName val="RVP_kPa"/>
-      <sheetName val="Beta"/>
-      <sheetName val="Fuel_Specifications"/>
-      <sheetName val="Improved_Fuel_Specs"/>
-      <sheetName val="Annual_Fuel_Consumption"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Month_</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>2005</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>January</v>
-          </cell>
-          <cell r="B2">
-            <v>88.7</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>February</v>
-          </cell>
-          <cell r="B3">
-            <v>87.9</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>March</v>
-          </cell>
-          <cell r="B4">
-            <v>85.7</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="B5">
-            <v>72.900000000000006</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="B6">
-            <v>62.8</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="B7">
-            <v>59.6</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>July</v>
-          </cell>
-          <cell r="B8">
-            <v>59.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>August</v>
-          </cell>
-          <cell r="B9">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>September</v>
-          </cell>
-          <cell r="B10">
-            <v>57.9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>October</v>
-          </cell>
-          <cell r="B11">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>November</v>
-          </cell>
-          <cell r="B12">
-            <v>81.099999999999994</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>December</v>
-          </cell>
-          <cell r="B13">
-            <v>86.9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21556,13 +20886,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C243A1-1BF6-4888-8F8C-4D2BCB94A8C4}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1328125" style="582" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="582" customWidth="1"/>
@@ -21595,127 +20926,127 @@
     <col min="31" max="16384" width="9.06640625" style="582"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="C3" s="589" t="str" cm="1">
+    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
+      <c r="C3" s="588" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
       </c>
-      <c r="D3" s="589" t="str" cm="1">
+      <c r="D3" s="588" t="str" cm="1">
         <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
         <v>National</v>
       </c>
-      <c r="E3" s="589" t="str" cm="1">
+      <c r="E3" s="588" t="str" cm="1">
         <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
         <v>IE-CW</v>
       </c>
-      <c r="F3" s="589" t="str" cm="1">
+      <c r="F3" s="588" t="str" cm="1">
         <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
         <v>IE-D</v>
       </c>
-      <c r="G3" s="589" t="str" cm="1">
+      <c r="G3" s="588" t="str" cm="1">
         <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
         <v>IE-KE</v>
       </c>
-      <c r="H3" s="589" t="str" cm="1">
+      <c r="H3" s="588" t="str" cm="1">
         <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
         <v>IE-KK</v>
       </c>
-      <c r="I3" s="589" t="str" cm="1">
+      <c r="I3" s="588" t="str" cm="1">
         <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
         <v>IE-LS</v>
       </c>
-      <c r="J3" s="589" t="str" cm="1">
+      <c r="J3" s="588" t="str" cm="1">
         <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
         <v>IE-LD</v>
       </c>
-      <c r="K3" s="589" t="str" cm="1">
+      <c r="K3" s="588" t="str" cm="1">
         <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
         <v>IE-LH</v>
       </c>
-      <c r="L3" s="589" t="str" cm="1">
+      <c r="L3" s="588" t="str" cm="1">
         <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
         <v>IE-MH</v>
       </c>
-      <c r="M3" s="589" t="str" cm="1">
+      <c r="M3" s="588" t="str" cm="1">
         <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
         <v>IE-OY</v>
       </c>
-      <c r="N3" s="589" t="str" cm="1">
+      <c r="N3" s="588" t="str" cm="1">
         <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
         <v>IE-WH</v>
       </c>
-      <c r="O3" s="589" t="str" cm="1">
+      <c r="O3" s="588" t="str" cm="1">
         <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
         <v>IE-WX</v>
       </c>
-      <c r="P3" s="589" t="str" cm="1">
+      <c r="P3" s="588" t="str" cm="1">
         <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q3" s="589" t="str" cm="1">
+      <c r="Q3" s="588" t="str" cm="1">
         <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
         <v>IE-CE</v>
       </c>
-      <c r="R3" s="589" t="str" cm="1">
+      <c r="R3" s="588" t="str" cm="1">
         <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
         <v>IE-CO</v>
       </c>
-      <c r="S3" s="589" t="str" cm="1">
+      <c r="S3" s="588" t="str" cm="1">
         <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
         <v>IE-KY</v>
       </c>
-      <c r="T3" s="589" t="str" cm="1">
+      <c r="T3" s="588" t="str" cm="1">
         <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
         <v>IE-LK</v>
       </c>
-      <c r="U3" s="589" t="str" cm="1">
+      <c r="U3" s="588" t="str" cm="1">
         <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
         <v>IE-TA</v>
       </c>
-      <c r="V3" s="589" t="str" cm="1">
+      <c r="V3" s="588" t="str" cm="1">
         <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
         <v>IE-WD</v>
       </c>
-      <c r="W3" s="589" t="str" cm="1">
+      <c r="W3" s="588" t="str" cm="1">
         <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
         <v>IE-G</v>
       </c>
-      <c r="X3" s="589" t="str" cm="1">
+      <c r="X3" s="588" t="str" cm="1">
         <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y3" s="589" t="str" cm="1">
+      <c r="Y3" s="588" t="str" cm="1">
         <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z3" s="589" t="str" cm="1">
+      <c r="Z3" s="588" t="str" cm="1">
         <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA3" s="589" t="str" cm="1">
+      <c r="AA3" s="588" t="str" cm="1">
         <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB3" s="589" t="str" cm="1">
+      <c r="AB3" s="588" t="str" cm="1">
         <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC3" s="589" t="str" cm="1">
+      <c r="AC3" s="588" t="str" cm="1">
         <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD3" s="589" t="str" cm="1">
+      <c r="AD3" s="588" t="str" cm="1">
         <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="582">
         <v>1</v>
       </c>
       <c r="B4" s="582"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A5" s="582" t="s">
         <v>693</v>
       </c>
@@ -21725,341 +21056,341 @@
       <c r="D5" s="583" t="s">
         <v>637</v>
       </c>
-      <c r="E5" s="589" t="str">
+      <c r="E5" s="588" t="str">
         <f>A11</f>
         <v>IE-CW</v>
       </c>
-      <c r="F5" s="589" t="str">
+      <c r="F5" s="588" t="str">
         <f>A16</f>
         <v>IE-D</v>
       </c>
-      <c r="G5" s="589" t="str">
+      <c r="G5" s="588" t="str">
         <f>A19</f>
         <v>IE-KE</v>
       </c>
-      <c r="H5" s="589" t="str">
+      <c r="H5" s="588" t="str">
         <f>A20</f>
         <v>IE-KK</v>
       </c>
-      <c r="I5" s="589" t="str">
+      <c r="I5" s="588" t="str">
         <f>A21</f>
         <v>IE-LS</v>
       </c>
-      <c r="J5" s="589" t="str">
+      <c r="J5" s="588" t="str">
         <f>A24</f>
         <v>IE-LD</v>
       </c>
-      <c r="K5" s="589" t="str">
+      <c r="K5" s="588" t="str">
         <f>A25</f>
         <v>IE-LH</v>
       </c>
-      <c r="L5" s="589" t="str">
+      <c r="L5" s="588" t="str">
         <f>A27</f>
         <v>IE-MH</v>
       </c>
-      <c r="M5" s="589" t="str">
+      <c r="M5" s="588" t="str">
         <f>A29</f>
         <v>IE-OY</v>
       </c>
-      <c r="N5" s="589" t="str">
+      <c r="N5" s="588" t="str">
         <f>A34</f>
         <v>IE-WH</v>
       </c>
-      <c r="O5" s="589" t="str">
+      <c r="O5" s="588" t="str">
         <f>A35</f>
         <v>IE-WX</v>
       </c>
-      <c r="P5" s="589" t="str">
+      <c r="P5" s="588" t="str">
         <f>A36</f>
         <v>IE-WW</v>
       </c>
-      <c r="Q5" s="589" t="str">
+      <c r="Q5" s="588" t="str">
         <f>A13</f>
         <v>IE-CE</v>
       </c>
-      <c r="R5" s="589" t="str">
+      <c r="R5" s="588" t="str">
         <f>A14</f>
         <v>IE-CO</v>
       </c>
-      <c r="S5" s="589" t="str">
+      <c r="S5" s="588" t="str">
         <f>A18</f>
         <v>IE-KY</v>
       </c>
-      <c r="T5" s="589" t="str">
+      <c r="T5" s="588" t="str">
         <f>A23</f>
         <v>IE-LK</v>
       </c>
-      <c r="U5" s="589" t="str">
+      <c r="U5" s="588" t="str">
         <f>A32</f>
         <v>IE-TA</v>
       </c>
-      <c r="V5" s="589" t="str">
+      <c r="V5" s="588" t="str">
         <f>A33</f>
         <v>IE-WD</v>
       </c>
-      <c r="W5" s="589" t="str">
+      <c r="W5" s="588" t="str">
         <f>A17</f>
         <v>IE-G</v>
       </c>
-      <c r="X5" s="589" t="str">
+      <c r="X5" s="588" t="str">
         <f>A22</f>
         <v>IE-LM</v>
       </c>
-      <c r="Y5" s="589" t="str">
+      <c r="Y5" s="588" t="str">
         <f>A26</f>
         <v>IE-MO</v>
       </c>
-      <c r="Z5" s="589" t="str">
+      <c r="Z5" s="588" t="str">
         <f>A30</f>
         <v>IE-RN</v>
       </c>
-      <c r="AA5" s="589" t="str">
+      <c r="AA5" s="588" t="str">
         <f>A31</f>
         <v>IE-SO</v>
       </c>
-      <c r="AB5" s="589" t="str">
+      <c r="AB5" s="588" t="str">
         <f>A12</f>
         <v>IE-CN</v>
       </c>
-      <c r="AC5" s="589" t="str">
+      <c r="AC5" s="588" t="str">
         <f>A15</f>
         <v>IE-DL</v>
       </c>
-      <c r="AD5" s="589" t="str">
+      <c r="AD5" s="588" t="str">
         <f>A28</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A6" s="582" t="s">
         <v>636</v>
       </c>
-      <c r="C6" s="589" t="str">
+      <c r="C6" s="588" t="str">
         <f>C5</f>
         <v>IE</v>
       </c>
-      <c r="D6" s="589" t="str">
+      <c r="D6" s="588" t="str">
         <f>"*"&amp;D5</f>
         <v>*National</v>
       </c>
-      <c r="E6" s="589" t="str">
+      <c r="E6" s="588" t="str">
         <f>"*"&amp;E5</f>
         <v>*IE-CW</v>
       </c>
-      <c r="F6" s="589" t="str">
+      <c r="F6" s="588" t="str">
         <f t="shared" ref="F6:AD6" si="0">"*"&amp;F5</f>
         <v>*IE-D</v>
       </c>
-      <c r="G6" s="589" t="str">
+      <c r="G6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KE</v>
       </c>
-      <c r="H6" s="589" t="str">
+      <c r="H6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KK</v>
       </c>
-      <c r="I6" s="589" t="str">
+      <c r="I6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LS</v>
       </c>
-      <c r="J6" s="589" t="str">
+      <c r="J6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LD</v>
       </c>
-      <c r="K6" s="589" t="str">
+      <c r="K6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LH</v>
       </c>
-      <c r="L6" s="589" t="str">
+      <c r="L6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MH</v>
       </c>
-      <c r="M6" s="589" t="str">
+      <c r="M6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-OY</v>
       </c>
-      <c r="N6" s="589" t="str">
+      <c r="N6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WH</v>
       </c>
-      <c r="O6" s="589" t="str">
+      <c r="O6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WX</v>
       </c>
-      <c r="P6" s="589" t="str">
+      <c r="P6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WW</v>
       </c>
-      <c r="Q6" s="589" t="str">
+      <c r="Q6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CE</v>
       </c>
-      <c r="R6" s="589" t="str">
+      <c r="R6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CO</v>
       </c>
-      <c r="S6" s="589" t="str">
+      <c r="S6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-KY</v>
       </c>
-      <c r="T6" s="589" t="str">
+      <c r="T6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LK</v>
       </c>
-      <c r="U6" s="589" t="str">
+      <c r="U6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-TA</v>
       </c>
-      <c r="V6" s="589" t="str">
+      <c r="V6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-WD</v>
       </c>
-      <c r="W6" s="589" t="str">
+      <c r="W6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-G</v>
       </c>
-      <c r="X6" s="589" t="str">
+      <c r="X6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-LM</v>
       </c>
-      <c r="Y6" s="589" t="str">
+      <c r="Y6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MO</v>
       </c>
-      <c r="Z6" s="589" t="str">
+      <c r="Z6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-RN</v>
       </c>
-      <c r="AA6" s="589" t="str">
+      <c r="AA6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-SO</v>
       </c>
-      <c r="AB6" s="589" t="str">
+      <c r="AB6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-CN</v>
       </c>
-      <c r="AC6" s="589" t="str">
+      <c r="AC6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-DL</v>
       </c>
-      <c r="AD6" s="589" t="str">
+      <c r="AD6" s="588" t="str">
         <f t="shared" si="0"/>
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A7" s="582" t="s">
         <v>635</v>
       </c>
-      <c r="C7" s="589" t="str">
+      <c r="C7" s="588" t="str">
         <f>"*"&amp;C5</f>
         <v>*IE</v>
       </c>
-      <c r="D7" s="589" t="str">
+      <c r="D7" s="588" t="str">
         <f>D5</f>
         <v>National</v>
       </c>
-      <c r="E7" s="589" t="str">
+      <c r="E7" s="588" t="str">
         <f t="shared" ref="E7:AD7" si="1">E5</f>
         <v>IE-CW</v>
       </c>
-      <c r="F7" s="589" t="str">
+      <c r="F7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-D</v>
       </c>
-      <c r="G7" s="589" t="str">
+      <c r="G7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-KE</v>
       </c>
-      <c r="H7" s="589" t="str">
+      <c r="H7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-KK</v>
       </c>
-      <c r="I7" s="589" t="str">
+      <c r="I7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-LS</v>
       </c>
-      <c r="J7" s="589" t="str">
+      <c r="J7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-LD</v>
       </c>
-      <c r="K7" s="589" t="str">
+      <c r="K7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-LH</v>
       </c>
-      <c r="L7" s="589" t="str">
+      <c r="L7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-MH</v>
       </c>
-      <c r="M7" s="589" t="str">
+      <c r="M7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-OY</v>
       </c>
-      <c r="N7" s="589" t="str">
+      <c r="N7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-WH</v>
       </c>
-      <c r="O7" s="589" t="str">
+      <c r="O7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-WX</v>
       </c>
-      <c r="P7" s="589" t="str">
+      <c r="P7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-WW</v>
       </c>
-      <c r="Q7" s="589" t="str">
+      <c r="Q7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-CE</v>
       </c>
-      <c r="R7" s="589" t="str">
+      <c r="R7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-CO</v>
       </c>
-      <c r="S7" s="589" t="str">
+      <c r="S7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-KY</v>
       </c>
-      <c r="T7" s="589" t="str">
+      <c r="T7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-LK</v>
       </c>
-      <c r="U7" s="589" t="str">
+      <c r="U7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-TA</v>
       </c>
-      <c r="V7" s="589" t="str">
+      <c r="V7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-WD</v>
       </c>
-      <c r="W7" s="589" t="str">
+      <c r="W7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-G</v>
       </c>
-      <c r="X7" s="589" t="str">
+      <c r="X7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-LM</v>
       </c>
-      <c r="Y7" s="589" t="str">
+      <c r="Y7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-MO</v>
       </c>
-      <c r="Z7" s="589" t="str">
+      <c r="Z7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-RN</v>
       </c>
-      <c r="AA7" s="589" t="str">
+      <c r="AA7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-SO</v>
       </c>
-      <c r="AB7" s="589" t="str">
+      <c r="AB7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-CN</v>
       </c>
-      <c r="AC7" s="589" t="str">
+      <c r="AC7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-DL</v>
       </c>
-      <c r="AD7" s="589" t="str">
+      <c r="AD7" s="588" t="str">
         <f t="shared" si="1"/>
         <v>IE-MN</v>
       </c>
@@ -22072,7 +21403,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="585" t="s">
         <v>640</v>
       </c>
@@ -22080,7 +21411,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="586" t="s">
         <v>642</v>
       </c>
@@ -22088,7 +21419,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="586" t="s">
         <v>644</v>
       </c>
@@ -22096,7 +21427,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="586" t="s">
         <v>646</v>
       </c>
@@ -22104,7 +21435,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="586" t="s">
         <v>648</v>
       </c>
@@ -22112,7 +21443,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="586" t="s">
         <v>650</v>
       </c>
@@ -22120,7 +21451,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="586" t="s">
         <v>652</v>
       </c>
@@ -22128,7 +21459,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="586" t="s">
         <v>654</v>
       </c>
@@ -22136,7 +21467,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="586" t="s">
         <v>656</v>
       </c>
@@ -22144,7 +21475,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="586" t="s">
         <v>658</v>
       </c>
@@ -22152,7 +21483,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="586" t="s">
         <v>660</v>
       </c>
@@ -22160,7 +21491,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="586" t="s">
         <v>662</v>
       </c>
@@ -22168,7 +21499,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="586" t="s">
         <v>664</v>
       </c>
@@ -22176,7 +21507,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="586" t="s">
         <v>666</v>
       </c>
@@ -22184,7 +21515,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="586" t="s">
         <v>668</v>
       </c>
@@ -22192,7 +21523,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="586" t="s">
         <v>670</v>
       </c>
@@ -22200,7 +21531,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="586" t="s">
         <v>672</v>
       </c>
@@ -22208,7 +21539,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="586" t="s">
         <v>674</v>
       </c>
@@ -22216,7 +21547,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="586" t="s">
         <v>676</v>
       </c>
@@ -22224,7 +21555,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="586" t="s">
         <v>678</v>
       </c>
@@ -22232,7 +21563,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="586" t="s">
         <v>680</v>
       </c>
@@ -22240,7 +21571,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="586" t="s">
         <v>682</v>
       </c>
@@ -22248,7 +21579,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="586" t="s">
         <v>684</v>
       </c>
@@ -22256,7 +21587,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="586" t="s">
         <v>686</v>
       </c>
@@ -22264,7 +21595,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="586" t="s">
         <v>688</v>
       </c>
@@ -22272,7 +21603,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="586" t="s">
         <v>690</v>
       </c>
@@ -22280,7 +21611,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="587" t="s">
         <v>692</v>
       </c>
@@ -26227,10 +25558,10 @@
       <c r="E1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="588" t="s">
+      <c r="F1" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="588" t="s">
+      <c r="G1" s="589" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="42" t="s">
@@ -26311,8 +25642,8 @@
       <c r="C2" s="40"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
-      <c r="F2" s="588"/>
-      <c r="G2" s="588"/>
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
       <c r="H2" s="190" t="s">
         <v>578</v>
       </c>
@@ -33606,28 +32937,28 @@
       <c r="E1" s="403" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="588" t="s">
+      <c r="F1" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="588" t="s">
+      <c r="G1" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="588" t="s">
+      <c r="H1" s="589" t="s">
         <v>599</v>
       </c>
-      <c r="I1" s="588" t="s">
+      <c r="I1" s="589" t="s">
         <v>600</v>
       </c>
-      <c r="J1" s="588" t="s">
+      <c r="J1" s="589" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="588" t="s">
+      <c r="K1" s="589" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="588" t="s">
+      <c r="L1" s="589" t="s">
         <v>430</v>
       </c>
-      <c r="M1" s="588" t="s">
+      <c r="M1" s="589" t="s">
         <v>431</v>
       </c>
       <c r="N1" s="404" t="s">
@@ -33689,14 +33020,14 @@
       <c r="C2" s="402"/>
       <c r="D2" s="403"/>
       <c r="E2" s="403"/>
-      <c r="F2" s="588"/>
-      <c r="G2" s="588"/>
-      <c r="H2" s="588"/>
-      <c r="I2" s="588"/>
-      <c r="J2" s="588"/>
-      <c r="K2" s="588"/>
-      <c r="L2" s="588"/>
-      <c r="M2" s="588"/>
+      <c r="F2" s="589"/>
+      <c r="G2" s="589"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="589"/>
+      <c r="J2" s="589"/>
+      <c r="K2" s="589"/>
+      <c r="L2" s="589"/>
+      <c r="M2" s="589"/>
       <c r="N2" s="409" t="s">
         <v>578</v>
       </c>
@@ -51769,8 +51100,8 @@
   </sheetPr>
   <dimension ref="B3:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>

--- a/VT_IE_AGR.xlsx
+++ b/VT_IE_AGR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044FBACC-3398-4311-B971-49315BB4D4F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CCC98-F7FD-4987-A69A-B16BBC7A6AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="30" r:id="rId1"/>
@@ -51346,8 +51346,8 @@
   </sheetPr>
   <dimension ref="B3:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52575,8 +52575,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="C5" s="554" t="str">
         <f>M5</f>
-        <v>AGRBGS_INF</v>
+        <v>FT-AGRBGS</v>
       </c>
       <c r="D5" s="559" t="s">
         <v>560</v>
@@ -52700,8 +52700,8 @@
         <v>IE,National</v>
       </c>
       <c r="M5" s="554" t="str">
-        <f>Commodities!D40&amp;"_INF"</f>
-        <v>AGRBGS_INF</v>
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D40)</f>
+        <v>FT-AGRBGS</v>
       </c>
       <c r="N5" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E40</f>
@@ -52729,9 +52729,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M6" s="554" t="str">
-        <f>Commodities!D41&amp;"_INF"</f>
-        <v>AGRBDL_INF</v>
+      <c r="M6" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D41)</f>
+        <v>FT-AGRBDL</v>
       </c>
       <c r="N6" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E41</f>
@@ -52751,7 +52751,7 @@
       </c>
       <c r="C7" s="554" t="str">
         <f>M6</f>
-        <v>AGRBDL_INF</v>
+        <v>FT-AGRBDL</v>
       </c>
       <c r="D7" s="554" t="s">
         <v>550</v>
@@ -52772,9 +52772,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M7" s="554" t="str">
-        <f>Commodities!D42&amp;"_INF"</f>
-        <v>AGRBIO_INF</v>
+      <c r="M7" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D42)</f>
+        <v>FT-AGRBIO</v>
       </c>
       <c r="N7" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E42</f>
@@ -52795,9 +52795,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M8" s="554" t="str">
-        <f>Commodities!D43&amp;"_INF"</f>
-        <v>AGRDST_INF</v>
+      <c r="M8" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D43)</f>
+        <v>FT-AGRDST</v>
       </c>
       <c r="N8" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E43</f>
@@ -52817,7 +52817,7 @@
       </c>
       <c r="C9" s="554" t="str">
         <f>M7</f>
-        <v>AGRBIO_INF</v>
+        <v>FT-AGRBIO</v>
       </c>
       <c r="D9" s="561" t="s">
         <v>566</v>
@@ -52838,9 +52838,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M9" s="554" t="str">
-        <f>Commodities!D44&amp;"_INF"</f>
-        <v>AGRELC_INF</v>
+      <c r="M9" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D44)</f>
+        <v>FT-AGRELC</v>
       </c>
       <c r="N9" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E44</f>
@@ -52868,9 +52868,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M10" s="554" t="str">
-        <f>Commodities!D45&amp;"_INF"</f>
-        <v>AGRGAS_INF</v>
+      <c r="M10" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D45)</f>
+        <v>FT-AGRGAS</v>
       </c>
       <c r="N10" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E45</f>
@@ -52893,7 +52893,7 @@
       </c>
       <c r="C11" s="554" t="str">
         <f t="shared" si="0"/>
-        <v>AGRDST_INF</v>
+        <v>FT-AGRDST</v>
       </c>
       <c r="D11" s="559" t="s">
         <v>549</v>
@@ -52914,9 +52914,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M11" s="554" t="str">
-        <f>Commodities!D46&amp;"_INF"</f>
-        <v>AGRGEO_INF</v>
+      <c r="M11" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D46)</f>
+        <v>FT-AGRGEO</v>
       </c>
       <c r="N11" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E46</f>
@@ -52936,7 +52936,7 @@
       </c>
       <c r="C12" s="554" t="str">
         <f t="shared" si="0"/>
-        <v>AGRELC_INF</v>
+        <v>FT-AGRELC</v>
       </c>
       <c r="D12" s="562" t="s">
         <v>552</v>
@@ -52957,9 +52957,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M12" s="554" t="str">
-        <f>Commodities!D47&amp;"_INF"</f>
-        <v>AGRHET_INF</v>
+      <c r="M12" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D47)</f>
+        <v>FT-AGRHET</v>
       </c>
       <c r="N12" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E47</f>
@@ -52979,7 +52979,7 @@
       </c>
       <c r="C13" s="554" t="str">
         <f t="shared" si="0"/>
-        <v>AGRGAS_INF</v>
+        <v>FT-AGRGAS</v>
       </c>
       <c r="D13" s="559" t="s">
         <v>553</v>
@@ -53000,9 +53000,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M13" s="554" t="str">
-        <f>Commodities!D48&amp;"_INF"</f>
-        <v>AGRLPG_INF</v>
+      <c r="M13" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D48)</f>
+        <v>FT-AGRLPG</v>
       </c>
       <c r="N13" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E48</f>
@@ -53022,7 +53022,7 @@
       </c>
       <c r="C14" s="554" t="str">
         <f t="shared" si="0"/>
-        <v>AGRGEO_INF</v>
+        <v>FT-AGRGEO</v>
       </c>
       <c r="D14" s="563" t="s">
         <v>554</v>
@@ -53043,9 +53043,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M14" s="554" t="str">
-        <f>Commodities!D49&amp;"_INF"</f>
-        <v>AGRSOL_INF</v>
+      <c r="M14" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D49)</f>
+        <v>FT-AGRSOL</v>
       </c>
       <c r="N14" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E49</f>
@@ -53065,7 +53065,7 @@
       </c>
       <c r="C15" s="554" t="str">
         <f t="shared" si="1"/>
-        <v>AGRHET_INF</v>
+        <v>FT-AGRHET</v>
       </c>
       <c r="D15" s="554" t="s">
         <v>605</v>
@@ -53086,9 +53086,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M15" s="554" t="str">
-        <f>Commodities!D50&amp;"_INF"</f>
-        <v>AGRH2G_INF</v>
+      <c r="M15" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D50)</f>
+        <v>FT-AGRH2G</v>
       </c>
       <c r="N15" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E50</f>
@@ -53111,7 +53111,7 @@
       </c>
       <c r="C16" s="554" t="str">
         <f t="shared" si="1"/>
-        <v>AGRLPG_INF</v>
+        <v>FT-AGRLPG</v>
       </c>
       <c r="D16" s="559" t="s">
         <v>555</v>
@@ -53132,9 +53132,9 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="M16" s="554" t="str">
-        <f>Commodities!D51&amp;"_INF"</f>
-        <v>AGRH2L_INF</v>
+      <c r="M16" s="559" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,"FT",Commodities!D51)</f>
+        <v>FT-AGRH2L</v>
       </c>
       <c r="N16" s="554" t="str">
         <f>"Fuel tech - "&amp;Commodities!E51</f>
@@ -53157,7 +53157,7 @@
       </c>
       <c r="C17" s="554" t="str">
         <f t="shared" si="1"/>
-        <v>AGRSOL_INF</v>
+        <v>FT-AGRSOL</v>
       </c>
       <c r="D17" s="559" t="s">
         <v>556</v>
@@ -53180,7 +53180,7 @@
       </c>
       <c r="C18" s="554" t="str">
         <f t="shared" si="1"/>
-        <v>AGRH2G_INF</v>
+        <v>FT-AGRH2G</v>
       </c>
       <c r="D18" s="565" t="s">
         <v>611</v>
@@ -53203,7 +53203,7 @@
       </c>
       <c r="C19" s="554" t="str">
         <f t="shared" si="1"/>
-        <v>AGRH2L_INF</v>
+        <v>FT-AGRH2L</v>
       </c>
       <c r="D19" s="565" t="s">
         <v>612</v>

--- a/VT_IE_AGR.xlsx
+++ b/VT_IE_AGR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CCC98-F7FD-4987-A69A-B16BBC7A6AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53928973-F1CC-489B-8F8F-B1CFF5F08B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="30" r:id="rId1"/>
@@ -3727,9 +3727,6 @@
     <t>*ATILSUG100</t>
   </si>
   <si>
-    <t>ELCH</t>
-  </si>
-  <si>
     <t>AGRH2G</t>
   </si>
   <si>
@@ -3984,6 +3981,9 @@
   <si>
     <t>*Region Name</t>
   </si>
+  <si>
+    <t>HETD</t>
+  </si>
 </sst>
 </file>
 
@@ -3999,10 +3999,17 @@
     <numFmt numFmtId="170" formatCode="0E+00"/>
     <numFmt numFmtId="171" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4611,22 +4618,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="579">
+  <cellXfs count="580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4641,10 +4648,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -4652,8 +4659,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4662,7 +4669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4710,139 +4717,139 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4851,226 +4858,226 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5094,13 +5101,13 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5148,70 +5155,70 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5229,71 +5236,71 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5302,660 +5309,660 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="27" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="26" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5964,152 +5971,237 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6117,102 +6209,14 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6221,67 +6225,73 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="31" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="32" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -20219,13 +20229,13 @@
     </row>
     <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="567" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C5" s="568" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D5" s="568" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E5" s="573" t="str">
         <f>A11</f>
@@ -20334,7 +20344,7 @@
     </row>
     <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="567" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C6" s="573" t="str">
         <f>C5</f>
@@ -20451,7 +20461,7 @@
     </row>
     <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="567" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C7" s="573" t="str">
         <f>"*"&amp;C5</f>
@@ -20568,223 +20578,223 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="569" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" s="569" t="s">
         <v>625</v>
-      </c>
-      <c r="B10" s="569" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="570" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11" s="570" t="s">
         <v>627</v>
-      </c>
-      <c r="B11" s="570" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="571" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="571" t="s">
         <v>629</v>
-      </c>
-      <c r="B12" s="571" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="571" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="571" t="s">
         <v>631</v>
-      </c>
-      <c r="B13" s="571" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="571" t="s">
+        <v>632</v>
+      </c>
+      <c r="B14" s="571" t="s">
         <v>633</v>
-      </c>
-      <c r="B14" s="571" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="571" t="s">
+        <v>634</v>
+      </c>
+      <c r="B15" s="571" t="s">
         <v>635</v>
-      </c>
-      <c r="B15" s="571" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="571" t="s">
+        <v>636</v>
+      </c>
+      <c r="B16" s="571" t="s">
         <v>637</v>
-      </c>
-      <c r="B16" s="571" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="571" t="s">
+        <v>638</v>
+      </c>
+      <c r="B17" s="571" t="s">
         <v>639</v>
-      </c>
-      <c r="B17" s="571" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="571" t="s">
+        <v>640</v>
+      </c>
+      <c r="B18" s="571" t="s">
         <v>641</v>
-      </c>
-      <c r="B18" s="571" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="571" t="s">
+        <v>642</v>
+      </c>
+      <c r="B19" s="571" t="s">
         <v>643</v>
-      </c>
-      <c r="B19" s="571" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="571" t="s">
+        <v>644</v>
+      </c>
+      <c r="B20" s="571" t="s">
         <v>645</v>
-      </c>
-      <c r="B20" s="571" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="571" t="s">
+        <v>646</v>
+      </c>
+      <c r="B21" s="571" t="s">
         <v>647</v>
-      </c>
-      <c r="B21" s="571" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="571" t="s">
+        <v>648</v>
+      </c>
+      <c r="B22" s="571" t="s">
         <v>649</v>
-      </c>
-      <c r="B22" s="571" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="571" t="s">
+        <v>650</v>
+      </c>
+      <c r="B23" s="571" t="s">
         <v>651</v>
-      </c>
-      <c r="B23" s="571" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="571" t="s">
+        <v>652</v>
+      </c>
+      <c r="B24" s="571" t="s">
         <v>653</v>
-      </c>
-      <c r="B24" s="571" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="571" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25" s="571" t="s">
         <v>655</v>
-      </c>
-      <c r="B25" s="571" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="571" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" s="571" t="s">
         <v>657</v>
-      </c>
-      <c r="B26" s="571" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="571" t="s">
+        <v>658</v>
+      </c>
+      <c r="B27" s="571" t="s">
         <v>659</v>
-      </c>
-      <c r="B27" s="571" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="571" t="s">
+        <v>660</v>
+      </c>
+      <c r="B28" s="571" t="s">
         <v>661</v>
-      </c>
-      <c r="B28" s="571" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="571" t="s">
+        <v>662</v>
+      </c>
+      <c r="B29" s="571" t="s">
         <v>663</v>
-      </c>
-      <c r="B29" s="571" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="571" t="s">
+        <v>664</v>
+      </c>
+      <c r="B30" s="571" t="s">
         <v>665</v>
-      </c>
-      <c r="B30" s="571" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="571" t="s">
+        <v>666</v>
+      </c>
+      <c r="B31" s="571" t="s">
         <v>667</v>
-      </c>
-      <c r="B31" s="571" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="571" t="s">
+        <v>668</v>
+      </c>
+      <c r="B32" s="571" t="s">
         <v>669</v>
-      </c>
-      <c r="B32" s="571" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="571" t="s">
+        <v>670</v>
+      </c>
+      <c r="B33" s="571" t="s">
         <v>671</v>
-      </c>
-      <c r="B33" s="571" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="571" t="s">
+        <v>672</v>
+      </c>
+      <c r="B34" s="571" t="s">
         <v>673</v>
-      </c>
-      <c r="B34" s="571" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="571" t="s">
+        <v>674</v>
+      </c>
+      <c r="B35" s="571" t="s">
         <v>675</v>
-      </c>
-      <c r="B35" s="571" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="571" t="s">
+        <v>676</v>
+      </c>
+      <c r="B36" s="571" t="s">
         <v>677</v>
-      </c>
-      <c r="B36" s="571" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="572" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -20870,7 +20880,7 @@
     </row>
     <row r="3" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B3" s="135" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>1</v>
@@ -20918,10 +20928,10 @@
         <v>292</v>
       </c>
       <c r="R3" s="136" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>293</v>
@@ -20929,7 +20939,7 @@
     </row>
     <row r="4" spans="2:20" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>31</v>
@@ -20961,7 +20971,7 @@
         <v>37</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>37</v>
@@ -25209,7 +25219,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="455" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -49088,7 +49098,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="267" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D4" s="267" t="s">
         <v>1</v>
@@ -51377,7 +51387,7 @@
         <v>118</v>
       </c>
       <c r="C4" s="267" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D4" s="267" t="s">
         <v>19</v>
@@ -52289,7 +52299,7 @@
         <v>IE,National</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E47" s="368" t="s">
         <v>519</v>
@@ -52342,10 +52352,10 @@
         <v>IE,National</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E50" s="368" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F50" s="357" t="s">
         <v>16</v>
@@ -52361,10 +52371,10 @@
         <v>IE,National</v>
       </c>
       <c r="D51" s="373" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E51" s="371" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F51" s="372" t="s">
         <v>16</v>
@@ -52576,7 +52586,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52624,7 +52634,7 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="348" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C4" s="557" t="s">
         <v>1</v>
@@ -52647,7 +52657,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="348" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M4" s="557" t="s">
         <v>1</v>
@@ -53067,8 +53077,8 @@
         <f t="shared" si="1"/>
         <v>FT-AGRHET</v>
       </c>
-      <c r="D15" s="554" t="s">
-        <v>605</v>
+      <c r="D15" s="579" t="s">
+        <v>684</v>
       </c>
       <c r="E15" s="554" t="str">
         <f>Commodities!D47</f>
@@ -53183,7 +53193,7 @@
         <v>FT-AGRH2G</v>
       </c>
       <c r="D18" s="565" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E18" s="554" t="str">
         <f>Commodities!D50</f>
@@ -53206,7 +53216,7 @@
         <v>FT-AGRH2L</v>
       </c>
       <c r="D19" s="565" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E19" s="554" t="str">
         <f>Commodities!D51</f>
@@ -53305,7 +53315,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="348" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B4" s="348" t="s">
         <v>19</v>
@@ -53475,7 +53485,7 @@
     </row>
     <row r="3" spans="2:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="463" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C3" s="462" t="s">
         <v>1</v>
@@ -53532,7 +53542,7 @@
         <v>565</v>
       </c>
       <c r="U3" s="464" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="V3" s="464" t="s">
         <v>182</v>
@@ -53567,7 +53577,7 @@
     </row>
     <row r="4" spans="2:31" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>31</v>
@@ -56958,7 +56968,7 @@
     </row>
     <row r="3" spans="2:43" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="135" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C3" s="135" t="s">
         <v>1</v>
@@ -57003,7 +57013,7 @@
         <v>234</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>182</v>
@@ -57039,7 +57049,7 @@
         <v>17</v>
       </c>
       <c r="AC3" s="136" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AD3" s="136" t="s">
         <v>362</v>
@@ -57048,16 +57058,16 @@
         <v>363</v>
       </c>
       <c r="AF3" s="136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AG3" s="136" t="s">
         <v>364</v>
       </c>
       <c r="AH3" s="136" t="s">
+        <v>615</v>
+      </c>
+      <c r="AI3" s="136" t="s">
         <v>616</v>
-      </c>
-      <c r="AI3" s="136" t="s">
-        <v>617</v>
       </c>
       <c r="AJ3" s="136" t="s">
         <v>365</v>
@@ -57069,7 +57079,7 @@
         <v>267</v>
       </c>
       <c r="AM3" s="136" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AN3" s="136" t="s">
         <v>366</v>
@@ -57083,7 +57093,7 @@
     </row>
     <row r="4" spans="2:43" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>31</v>
@@ -61289,7 +61299,7 @@
       <c r="D69" s="550"/>
       <c r="E69" s="550"/>
       <c r="F69" s="550" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G69" s="550"/>
       <c r="H69" s="171"/>
@@ -61421,7 +61431,7 @@
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G72" s="10"/>
       <c r="Z72" s="6"/>
@@ -61584,7 +61594,7 @@
       <c r="D75" s="498"/>
       <c r="E75" s="498"/>
       <c r="F75" s="498" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G75" s="498"/>
       <c r="H75" s="175"/>
@@ -61765,7 +61775,7 @@
       <c r="D78" s="373"/>
       <c r="E78" s="373"/>
       <c r="F78" s="373" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G78" s="373"/>
       <c r="H78" s="17"/>
@@ -61880,7 +61890,7 @@
     </row>
     <row r="3" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B3" s="463" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C3" s="462" t="s">
         <v>1</v>
@@ -61916,7 +61926,7 @@
         <v>565</v>
       </c>
       <c r="N3" s="464" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O3" s="464" t="s">
         <v>182</v>
@@ -61951,7 +61961,7 @@
     </row>
     <row r="4" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>31</v>
@@ -63292,7 +63302,7 @@
     </row>
     <row r="4" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="463" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C4" s="462" t="s">
         <v>1</v>
@@ -63372,7 +63382,7 @@
     </row>
     <row r="5" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>31</v>

--- a/VT_IE_AGR.xlsx
+++ b/VT_IE_AGR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53928973-F1CC-489B-8F8F-B1CFF5F08B50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF44C9-94C4-4415-8016-4E46E268F8C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="30" r:id="rId1"/>
@@ -1860,7 +1860,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="685">
   <si>
     <t>~FI_T</t>
   </si>
@@ -6287,11 +6287,11 @@
     <xf numFmtId="171" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -20841,7 +20841,7 @@
   <dimension ref="B1:W187"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25429,9 +25429,9 @@
   </sheetPr>
   <dimension ref="A1:BV19"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I46" sqref="I46"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25469,10 +25469,10 @@
       <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="578" t="s">
+      <c r="F1" s="579" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="578" t="s">
+      <c r="G1" s="579" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="41" t="s">
@@ -25553,8 +25553,8 @@
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="578"/>
-      <c r="G2" s="578"/>
+      <c r="F2" s="579"/>
+      <c r="G2" s="579"/>
       <c r="H2" s="187" t="s">
         <v>570</v>
       </c>
@@ -32806,9 +32806,9 @@
   <dimension ref="A1:BE51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="topRight" activeCell="AW12" sqref="AW12"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32848,28 +32848,28 @@
       <c r="E1" s="398" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="578" t="s">
+      <c r="F1" s="579" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="578" t="s">
+      <c r="G1" s="579" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="578" t="s">
+      <c r="H1" s="579" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="578" t="s">
+      <c r="I1" s="579" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="578" t="s">
+      <c r="J1" s="579" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="578" t="s">
+      <c r="K1" s="579" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="578" t="s">
+      <c r="L1" s="579" t="s">
         <v>430</v>
       </c>
-      <c r="M1" s="578" t="s">
+      <c r="M1" s="579" t="s">
         <v>431</v>
       </c>
       <c r="N1" s="399" t="s">
@@ -32931,14 +32931,14 @@
       <c r="C2" s="397"/>
       <c r="D2" s="398"/>
       <c r="E2" s="398"/>
-      <c r="F2" s="578"/>
-      <c r="G2" s="578"/>
-      <c r="H2" s="578"/>
-      <c r="I2" s="578"/>
-      <c r="J2" s="578"/>
-      <c r="K2" s="578"/>
-      <c r="L2" s="578"/>
-      <c r="M2" s="578"/>
+      <c r="F2" s="579"/>
+      <c r="G2" s="579"/>
+      <c r="H2" s="579"/>
+      <c r="I2" s="579"/>
+      <c r="J2" s="579"/>
+      <c r="K2" s="579"/>
+      <c r="L2" s="579"/>
+      <c r="M2" s="579"/>
       <c r="N2" s="404" t="s">
         <v>570</v>
       </c>
@@ -49065,8 +49065,8 @@
   </sheetPr>
   <dimension ref="B3:R89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49455,9 +49455,8 @@
       <c r="B17" s="359" t="s">
         <v>597</v>
       </c>
-      <c r="C17" s="382" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
+      <c r="C17" s="382" t="s">
+        <v>597</v>
       </c>
       <c r="D17" s="359" t="str">
         <f>'BY-Techs'!D16</f>
@@ -51356,8 +51355,8 @@
   </sheetPr>
   <dimension ref="B3:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52308,7 +52307,7 @@
         <v>16</v>
       </c>
       <c r="H47" s="357" t="s">
-        <v>569</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
@@ -52585,8 +52584,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53077,7 +53076,7 @@
         <f t="shared" si="1"/>
         <v>FT-AGRHET</v>
       </c>
-      <c r="D15" s="579" t="s">
+      <c r="D15" s="578" t="s">
         <v>684</v>
       </c>
       <c r="E15" s="554" t="str">
@@ -61864,7 +61863,7 @@
   <dimension ref="B2:Y31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -62406,7 +62405,7 @@
     <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="70" t="str">
         <f>Processes!C17</f>
-        <v>IE,National</v>
+        <v>*</v>
       </c>
       <c r="C13" s="11" t="str">
         <f>Processes!D17</f>
@@ -62448,6 +62447,9 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="403" t="s">
+        <v>597</v>
+      </c>
       <c r="E14" s="19" t="s">
         <v>289</v>
       </c>
@@ -62484,6 +62486,9 @@
       <c r="X14" s="457"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="403" t="s">
+        <v>597</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="str">
         <f>Commodities!D17</f>
@@ -62536,6 +62541,9 @@
       <c r="X15" s="457"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="403" t="s">
+        <v>597</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="G16" s="10" t="s">
         <v>174</v>
@@ -63253,8 +63261,8 @@
   </sheetPr>
   <dimension ref="B3:AH71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -64873,6 +64881,10 @@
         <f>1/'BIO-Techs'!M14</f>
         <v>6.2902549265309781E-3</v>
       </c>
+      <c r="J36" s="527">
+        <f>H36</f>
+        <v>6.2902549265309781E-3</v>
+      </c>
       <c r="L36" s="492"/>
       <c r="M36" s="489">
         <f>'BIO-Techs'!H14</f>

--- a/VT_IE_AGR.xlsx
+++ b/VT_IE_AGR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF44C9-94C4-4415-8016-4E46E268F8C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC29D656-3ECB-4A19-A3EC-6654420FFE21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="30" r:id="rId1"/>
@@ -1860,7 +1860,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="685">
   <si>
     <t>~FI_T</t>
   </si>
@@ -3999,10 +3999,17 @@
     <numFmt numFmtId="170" formatCode="0E+00"/>
     <numFmt numFmtId="171" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4618,22 +4625,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="580">
+  <cellXfs count="581">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4648,10 +4655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -4659,8 +4666,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4669,7 +4676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4717,139 +4724,139 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4858,226 +4865,226 @@
     <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5101,13 +5108,13 @@
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5155,70 +5162,70 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5236,71 +5243,71 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5309,660 +5316,660 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="28" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="27" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5971,152 +5978,237 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6124,102 +6216,14 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6228,70 +6232,76 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="32" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="33" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -52584,8 +52594,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -52722,9 +52732,7 @@
       <c r="P5" s="554" t="s">
         <v>274</v>
       </c>
-      <c r="Q5" s="564" t="s">
-        <v>569</v>
-      </c>
+      <c r="Q5" s="564"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D6" s="559" t="s">
@@ -52891,9 +52899,7 @@
       <c r="P10" s="554" t="s">
         <v>274</v>
       </c>
-      <c r="Q10" s="564" t="s">
-        <v>569</v>
-      </c>
+      <c r="Q10" s="564"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="559" t="str">
@@ -52980,6 +52986,9 @@
       <c r="P12" s="554" t="s">
         <v>274</v>
       </c>
+      <c r="Q12" s="580" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="559" t="str">
@@ -53109,9 +53118,7 @@
       <c r="P15" s="554" t="s">
         <v>274</v>
       </c>
-      <c r="Q15" s="564" t="s">
-        <v>569</v>
-      </c>
+      <c r="Q15" s="564"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="559" t="str">
@@ -53155,9 +53162,7 @@
       <c r="P16" s="554" t="s">
         <v>274</v>
       </c>
-      <c r="Q16" s="564" t="s">
-        <v>569</v>
-      </c>
+      <c r="Q16" s="564"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="559" t="str">
@@ -63261,7 +63266,7 @@
   </sheetPr>
   <dimension ref="B3:AH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>

--- a/VT_IE_AGR.xlsx
+++ b/VT_IE_AGR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEC6E1A-ACE9-4FEC-B20B-BD510F4AAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D9C1E-7539-41B0-BA37-0B47DDD3A9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="31" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="Demands" sheetId="13" r:id="rId16"/>
     <sheet name="RES" sheetId="22" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="11" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="7" hidden="1">#REF!</definedName>
@@ -1927,7 +1924,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="702">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4058,27 +4055,15 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
   </si>
   <si>
-    <t>Sector name</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
   </si>
   <si>
-    <t>Full Name(s) (Affiliation, email)</t>
-  </si>
-  <si>
     <t>Current maintainer(s):</t>
   </si>
   <si>
@@ -4098,6 +4083,21 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Base Year Template</t>
+  </si>
+  <si>
+    <t>Agriculture sector (AGR)</t>
+  </si>
+  <si>
+    <t>Specify base year data and define sector structure</t>
+  </si>
+  <si>
+    <t>Alessandro Chiodi (UCC, a.chiodi@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
   </si>
 </sst>
 </file>
@@ -6494,9 +6494,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6504,9 +6501,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6525,9 +6519,6 @@
     <xf numFmtId="0" fontId="40" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6540,9 +6531,6 @@
     <xf numFmtId="164" fontId="25" fillId="19" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6551,6 +6539,18 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6912,7 +6912,7 @@
                   <a14:compatExt spid="_x0000_s69635"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003100100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003100100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -20318,19 +20318,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20655,2831 +20642,2831 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="583" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="583" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="583" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="583" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="583" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="583" customWidth="1"/>
-    <col min="13" max="13" width="10" style="583" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="583" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="583" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="583"/>
+    <col min="1" max="4" width="21.7109375" style="582" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="582" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="582" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="582" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="582" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="582" customWidth="1"/>
+    <col min="13" max="13" width="10" style="582" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="582" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="582" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="582"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="581"/>
-      <c r="B1" s="581"/>
-      <c r="C1" s="581"/>
-      <c r="D1" s="581"/>
-      <c r="E1" s="582"/>
-      <c r="F1" s="582"/>
-      <c r="G1" s="582"/>
-      <c r="H1" s="582"/>
-      <c r="I1" s="582"/>
-      <c r="J1" s="582"/>
-      <c r="K1" s="582"/>
-      <c r="L1" s="582"/>
-      <c r="M1" s="582"/>
-      <c r="N1" s="582"/>
-      <c r="O1" s="582"/>
-      <c r="P1" s="582"/>
-      <c r="Q1" s="582"/>
-      <c r="R1" s="582"/>
-      <c r="S1" s="582"/>
-      <c r="T1" s="582"/>
-      <c r="U1" s="582"/>
-      <c r="V1" s="582"/>
-      <c r="W1" s="582"/>
-      <c r="X1" s="582"/>
-      <c r="Y1" s="582"/>
-      <c r="Z1" s="582"/>
+      <c r="A1" s="580"/>
+      <c r="B1" s="580"/>
+      <c r="C1" s="580"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="581"/>
+      <c r="F1" s="581"/>
+      <c r="G1" s="581"/>
+      <c r="H1" s="581"/>
+      <c r="I1" s="581"/>
+      <c r="J1" s="581"/>
+      <c r="K1" s="581"/>
+      <c r="L1" s="581"/>
+      <c r="M1" s="581"/>
+      <c r="N1" s="581"/>
+      <c r="O1" s="581"/>
+      <c r="P1" s="581"/>
+      <c r="Q1" s="581"/>
+      <c r="R1" s="581"/>
+      <c r="S1" s="581"/>
+      <c r="T1" s="581"/>
+      <c r="U1" s="581"/>
+      <c r="V1" s="581"/>
+      <c r="W1" s="581"/>
+      <c r="X1" s="581"/>
+      <c r="Y1" s="581"/>
+      <c r="Z1" s="581"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="581"/>
-      <c r="B2" s="581"/>
-      <c r="C2" s="581"/>
-      <c r="D2" s="581"/>
-      <c r="E2" s="582"/>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="582"/>
-      <c r="I2" s="582"/>
-      <c r="J2" s="582"/>
-      <c r="K2" s="582"/>
-      <c r="L2" s="582"/>
-      <c r="M2" s="582"/>
-      <c r="N2" s="582"/>
-      <c r="O2" s="582"/>
-      <c r="P2" s="582"/>
-      <c r="Q2" s="582"/>
-      <c r="R2" s="582"/>
-      <c r="S2" s="582"/>
-      <c r="T2" s="582"/>
-      <c r="U2" s="582"/>
-      <c r="V2" s="582"/>
-      <c r="W2" s="582"/>
-      <c r="X2" s="582"/>
-      <c r="Y2" s="582"/>
-      <c r="Z2" s="582"/>
+      <c r="A2" s="580"/>
+      <c r="B2" s="580"/>
+      <c r="C2" s="580"/>
+      <c r="D2" s="580"/>
+      <c r="E2" s="581"/>
+      <c r="F2" s="581"/>
+      <c r="G2" s="581"/>
+      <c r="H2" s="581"/>
+      <c r="I2" s="581"/>
+      <c r="J2" s="581"/>
+      <c r="K2" s="581"/>
+      <c r="L2" s="581"/>
+      <c r="M2" s="581"/>
+      <c r="N2" s="581"/>
+      <c r="O2" s="581"/>
+      <c r="P2" s="581"/>
+      <c r="Q2" s="581"/>
+      <c r="R2" s="581"/>
+      <c r="S2" s="581"/>
+      <c r="T2" s="581"/>
+      <c r="U2" s="581"/>
+      <c r="V2" s="581"/>
+      <c r="W2" s="581"/>
+      <c r="X2" s="581"/>
+      <c r="Y2" s="581"/>
+      <c r="Z2" s="581"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="581"/>
-      <c r="B3" s="581"/>
-      <c r="C3" s="581"/>
-      <c r="D3" s="581"/>
-      <c r="E3" s="582"/>
-      <c r="F3" s="582"/>
-      <c r="G3" s="582"/>
-      <c r="H3" s="582"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="582"/>
-      <c r="M3" s="582"/>
-      <c r="N3" s="582"/>
-      <c r="O3" s="582"/>
-      <c r="P3" s="582"/>
-      <c r="Q3" s="582"/>
-      <c r="R3" s="582"/>
-      <c r="S3" s="582"/>
-      <c r="T3" s="582"/>
-      <c r="U3" s="582"/>
-      <c r="V3" s="582"/>
-      <c r="W3" s="582"/>
-      <c r="X3" s="582"/>
-      <c r="Y3" s="582"/>
-      <c r="Z3" s="582"/>
+      <c r="A3" s="580"/>
+      <c r="B3" s="580"/>
+      <c r="C3" s="580"/>
+      <c r="D3" s="580"/>
+      <c r="E3" s="581"/>
+      <c r="F3" s="581"/>
+      <c r="G3" s="581"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="581"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="581"/>
+      <c r="L3" s="581"/>
+      <c r="M3" s="581"/>
+      <c r="N3" s="581"/>
+      <c r="O3" s="581"/>
+      <c r="P3" s="581"/>
+      <c r="Q3" s="581"/>
+      <c r="R3" s="581"/>
+      <c r="S3" s="581"/>
+      <c r="T3" s="581"/>
+      <c r="U3" s="581"/>
+      <c r="V3" s="581"/>
+      <c r="W3" s="581"/>
+      <c r="X3" s="581"/>
+      <c r="Y3" s="581"/>
+      <c r="Z3" s="581"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="581"/>
-      <c r="B4" s="581"/>
-      <c r="C4" s="581"/>
-      <c r="D4" s="581"/>
-      <c r="E4" s="582"/>
-      <c r="F4" s="582"/>
-      <c r="G4" s="582"/>
-      <c r="H4" s="582"/>
-      <c r="I4" s="582"/>
-      <c r="J4" s="582"/>
-      <c r="K4" s="582"/>
-      <c r="L4" s="582"/>
-      <c r="M4" s="582"/>
-      <c r="N4" s="582"/>
-      <c r="O4" s="582"/>
-      <c r="P4" s="582"/>
-      <c r="Q4" s="582"/>
-      <c r="R4" s="582"/>
-      <c r="S4" s="582"/>
-      <c r="T4" s="582"/>
-      <c r="U4" s="582"/>
-      <c r="V4" s="582"/>
-      <c r="W4" s="582"/>
-      <c r="X4" s="582"/>
-      <c r="Y4" s="582"/>
-      <c r="Z4" s="582"/>
+      <c r="A4" s="580"/>
+      <c r="B4" s="580"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="580"/>
+      <c r="E4" s="581"/>
+      <c r="F4" s="581"/>
+      <c r="G4" s="581"/>
+      <c r="H4" s="581"/>
+      <c r="I4" s="581"/>
+      <c r="J4" s="581"/>
+      <c r="K4" s="581"/>
+      <c r="L4" s="581"/>
+      <c r="M4" s="581"/>
+      <c r="N4" s="581"/>
+      <c r="O4" s="581"/>
+      <c r="P4" s="581"/>
+      <c r="Q4" s="581"/>
+      <c r="R4" s="581"/>
+      <c r="S4" s="581"/>
+      <c r="T4" s="581"/>
+      <c r="U4" s="581"/>
+      <c r="V4" s="581"/>
+      <c r="W4" s="581"/>
+      <c r="X4" s="581"/>
+      <c r="Y4" s="581"/>
+      <c r="Z4" s="581"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="581"/>
-      <c r="B5" s="581"/>
-      <c r="C5" s="581"/>
-      <c r="D5" s="581"/>
-      <c r="E5" s="582"/>
-      <c r="F5" s="582"/>
-      <c r="G5" s="582"/>
-      <c r="H5" s="582"/>
-      <c r="I5" s="582"/>
-      <c r="J5" s="582"/>
-      <c r="K5" s="582"/>
-      <c r="L5" s="582"/>
-      <c r="M5" s="582"/>
-      <c r="N5" s="582"/>
-      <c r="O5" s="582"/>
-      <c r="P5" s="582"/>
-      <c r="Q5" s="582"/>
-      <c r="R5" s="582"/>
-      <c r="S5" s="582"/>
-      <c r="T5" s="582"/>
-      <c r="U5" s="582"/>
-      <c r="V5" s="582"/>
-      <c r="W5" s="582"/>
-      <c r="X5" s="582"/>
-      <c r="Y5" s="582"/>
-      <c r="Z5" s="582"/>
+      <c r="A5" s="580"/>
+      <c r="B5" s="580"/>
+      <c r="C5" s="580"/>
+      <c r="D5" s="580"/>
+      <c r="E5" s="581"/>
+      <c r="F5" s="581"/>
+      <c r="G5" s="581"/>
+      <c r="H5" s="581"/>
+      <c r="I5" s="581"/>
+      <c r="J5" s="581"/>
+      <c r="K5" s="581"/>
+      <c r="L5" s="581"/>
+      <c r="M5" s="581"/>
+      <c r="N5" s="581"/>
+      <c r="O5" s="581"/>
+      <c r="P5" s="581"/>
+      <c r="Q5" s="581"/>
+      <c r="R5" s="581"/>
+      <c r="S5" s="581"/>
+      <c r="T5" s="581"/>
+      <c r="U5" s="581"/>
+      <c r="V5" s="581"/>
+      <c r="W5" s="581"/>
+      <c r="X5" s="581"/>
+      <c r="Y5" s="581"/>
+      <c r="Z5" s="581"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="581"/>
-      <c r="B6" s="581"/>
-      <c r="C6" s="581"/>
-      <c r="D6" s="581"/>
-      <c r="E6" s="582"/>
-      <c r="F6" s="582"/>
-      <c r="G6" s="582"/>
-      <c r="H6" s="582"/>
-      <c r="I6" s="582"/>
-      <c r="J6" s="582"/>
-      <c r="K6" s="582"/>
-      <c r="L6" s="582"/>
-      <c r="M6" s="582"/>
-      <c r="N6" s="582"/>
-      <c r="O6" s="582"/>
-      <c r="P6" s="582"/>
-      <c r="Q6" s="582"/>
-      <c r="R6" s="582"/>
-      <c r="S6" s="582"/>
-      <c r="T6" s="582"/>
-      <c r="U6" s="582"/>
-      <c r="V6" s="582"/>
-      <c r="W6" s="582"/>
-      <c r="X6" s="582"/>
-      <c r="Y6" s="582"/>
-      <c r="Z6" s="582"/>
+      <c r="A6" s="580"/>
+      <c r="B6" s="580"/>
+      <c r="C6" s="580"/>
+      <c r="D6" s="580"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="581"/>
+      <c r="H6" s="581"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="581"/>
+      <c r="L6" s="581"/>
+      <c r="M6" s="581"/>
+      <c r="N6" s="581"/>
+      <c r="O6" s="581"/>
+      <c r="P6" s="581"/>
+      <c r="Q6" s="581"/>
+      <c r="R6" s="581"/>
+      <c r="S6" s="581"/>
+      <c r="T6" s="581"/>
+      <c r="U6" s="581"/>
+      <c r="V6" s="581"/>
+      <c r="W6" s="581"/>
+      <c r="X6" s="581"/>
+      <c r="Y6" s="581"/>
+      <c r="Z6" s="581"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="581"/>
-      <c r="B7" s="581"/>
-      <c r="C7" s="581"/>
-      <c r="D7" s="581"/>
-      <c r="E7" s="582"/>
-      <c r="F7" s="582"/>
-      <c r="G7" s="582"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="582"/>
-      <c r="J7" s="582"/>
-      <c r="K7" s="582"/>
-      <c r="L7" s="582"/>
-      <c r="M7" s="582"/>
-      <c r="N7" s="582"/>
-      <c r="O7" s="582"/>
-      <c r="P7" s="582"/>
-      <c r="Q7" s="582"/>
-      <c r="R7" s="582"/>
-      <c r="S7" s="582"/>
-      <c r="T7" s="582"/>
-      <c r="U7" s="582"/>
-      <c r="V7" s="582"/>
-      <c r="W7" s="582"/>
-      <c r="X7" s="582"/>
-      <c r="Y7" s="582"/>
-      <c r="Z7" s="582"/>
+      <c r="A7" s="580"/>
+      <c r="B7" s="580"/>
+      <c r="C7" s="580"/>
+      <c r="D7" s="580"/>
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="581"/>
+      <c r="I7" s="581"/>
+      <c r="J7" s="581"/>
+      <c r="K7" s="581"/>
+      <c r="L7" s="581"/>
+      <c r="M7" s="581"/>
+      <c r="N7" s="581"/>
+      <c r="O7" s="581"/>
+      <c r="P7" s="581"/>
+      <c r="Q7" s="581"/>
+      <c r="R7" s="581"/>
+      <c r="S7" s="581"/>
+      <c r="T7" s="581"/>
+      <c r="U7" s="581"/>
+      <c r="V7" s="581"/>
+      <c r="W7" s="581"/>
+      <c r="X7" s="581"/>
+      <c r="Y7" s="581"/>
+      <c r="Z7" s="581"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="581"/>
-      <c r="B8" s="581"/>
-      <c r="C8" s="581"/>
-      <c r="D8" s="581"/>
-      <c r="E8" s="582"/>
-      <c r="F8" s="582"/>
-      <c r="G8" s="582"/>
-      <c r="H8" s="582"/>
-      <c r="I8" s="582"/>
-      <c r="J8" s="582"/>
-      <c r="K8" s="582"/>
-      <c r="L8" s="582"/>
-      <c r="M8" s="582"/>
-      <c r="N8" s="582"/>
-      <c r="O8" s="582"/>
-      <c r="P8" s="582"/>
-      <c r="Q8" s="582"/>
-      <c r="R8" s="582"/>
-      <c r="S8" s="582"/>
-      <c r="T8" s="582"/>
-      <c r="U8" s="582"/>
-      <c r="V8" s="582"/>
-      <c r="W8" s="582"/>
-      <c r="X8" s="582"/>
-      <c r="Y8" s="582"/>
-      <c r="Z8" s="582"/>
+      <c r="A8" s="580"/>
+      <c r="B8" s="580"/>
+      <c r="C8" s="580"/>
+      <c r="D8" s="580"/>
+      <c r="E8" s="581"/>
+      <c r="F8" s="581"/>
+      <c r="G8" s="581"/>
+      <c r="H8" s="581"/>
+      <c r="I8" s="581"/>
+      <c r="J8" s="581"/>
+      <c r="K8" s="581"/>
+      <c r="L8" s="581"/>
+      <c r="M8" s="581"/>
+      <c r="N8" s="581"/>
+      <c r="O8" s="581"/>
+      <c r="P8" s="581"/>
+      <c r="Q8" s="581"/>
+      <c r="R8" s="581"/>
+      <c r="S8" s="581"/>
+      <c r="T8" s="581"/>
+      <c r="U8" s="581"/>
+      <c r="V8" s="581"/>
+      <c r="W8" s="581"/>
+      <c r="X8" s="581"/>
+      <c r="Y8" s="581"/>
+      <c r="Z8" s="581"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="581"/>
-      <c r="B9" s="581"/>
-      <c r="C9" s="581"/>
-      <c r="D9" s="581"/>
-      <c r="E9" s="582"/>
-      <c r="F9" s="582"/>
-      <c r="G9" s="582"/>
-      <c r="H9" s="582"/>
-      <c r="I9" s="582"/>
-      <c r="J9" s="582"/>
-      <c r="K9" s="582"/>
-      <c r="L9" s="582"/>
-      <c r="M9" s="582"/>
-      <c r="N9" s="582"/>
-      <c r="O9" s="582"/>
-      <c r="P9" s="582"/>
-      <c r="Q9" s="582"/>
-      <c r="R9" s="582"/>
-      <c r="S9" s="582"/>
-      <c r="T9" s="582"/>
-      <c r="U9" s="582"/>
-      <c r="V9" s="582"/>
-      <c r="W9" s="582"/>
-      <c r="X9" s="582"/>
-      <c r="Y9" s="582"/>
-      <c r="Z9" s="582"/>
+      <c r="A9" s="580"/>
+      <c r="B9" s="580"/>
+      <c r="C9" s="580"/>
+      <c r="D9" s="580"/>
+      <c r="E9" s="581"/>
+      <c r="F9" s="581"/>
+      <c r="G9" s="581"/>
+      <c r="H9" s="581"/>
+      <c r="I9" s="581"/>
+      <c r="J9" s="581"/>
+      <c r="K9" s="581"/>
+      <c r="L9" s="581"/>
+      <c r="M9" s="581"/>
+      <c r="N9" s="581"/>
+      <c r="O9" s="581"/>
+      <c r="P9" s="581"/>
+      <c r="Q9" s="581"/>
+      <c r="R9" s="581"/>
+      <c r="S9" s="581"/>
+      <c r="T9" s="581"/>
+      <c r="U9" s="581"/>
+      <c r="V9" s="581"/>
+      <c r="W9" s="581"/>
+      <c r="X9" s="581"/>
+      <c r="Y9" s="581"/>
+      <c r="Z9" s="581"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="581"/>
-      <c r="B10" s="581"/>
-      <c r="C10" s="581"/>
-      <c r="D10" s="581"/>
-      <c r="E10" s="582"/>
-      <c r="F10" s="582"/>
-      <c r="G10" s="582"/>
-      <c r="H10" s="582"/>
-      <c r="I10" s="582"/>
-      <c r="J10" s="582"/>
-      <c r="K10" s="582"/>
-      <c r="L10" s="582"/>
-      <c r="M10" s="582"/>
-      <c r="N10" s="582"/>
-      <c r="O10" s="582"/>
-      <c r="P10" s="582"/>
-      <c r="Q10" s="582"/>
-      <c r="R10" s="582"/>
-      <c r="S10" s="582"/>
-      <c r="T10" s="582"/>
-      <c r="U10" s="582"/>
-      <c r="V10" s="582"/>
-      <c r="W10" s="582"/>
-      <c r="X10" s="582"/>
-      <c r="Y10" s="582"/>
-      <c r="Z10" s="582"/>
+      <c r="A10" s="580"/>
+      <c r="B10" s="580"/>
+      <c r="C10" s="580"/>
+      <c r="D10" s="580"/>
+      <c r="E10" s="581"/>
+      <c r="F10" s="581"/>
+      <c r="G10" s="581"/>
+      <c r="H10" s="581"/>
+      <c r="I10" s="581"/>
+      <c r="J10" s="581"/>
+      <c r="K10" s="581"/>
+      <c r="L10" s="581"/>
+      <c r="M10" s="581"/>
+      <c r="N10" s="581"/>
+      <c r="O10" s="581"/>
+      <c r="P10" s="581"/>
+      <c r="Q10" s="581"/>
+      <c r="R10" s="581"/>
+      <c r="S10" s="581"/>
+      <c r="T10" s="581"/>
+      <c r="U10" s="581"/>
+      <c r="V10" s="581"/>
+      <c r="W10" s="581"/>
+      <c r="X10" s="581"/>
+      <c r="Y10" s="581"/>
+      <c r="Z10" s="581"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="581"/>
-      <c r="B11" s="581"/>
-      <c r="C11" s="581"/>
-      <c r="D11" s="581"/>
-      <c r="E11" s="582"/>
-      <c r="F11" s="582"/>
-      <c r="G11" s="582"/>
-      <c r="H11" s="582"/>
-      <c r="I11" s="582"/>
-      <c r="J11" s="582"/>
-      <c r="K11" s="582"/>
-      <c r="L11" s="582"/>
-      <c r="M11" s="582"/>
-      <c r="N11" s="582"/>
-      <c r="O11" s="582"/>
-      <c r="P11" s="582"/>
-      <c r="Q11" s="582"/>
-      <c r="R11" s="582"/>
-      <c r="S11" s="582"/>
-      <c r="T11" s="582"/>
-      <c r="U11" s="582"/>
-      <c r="V11" s="582"/>
-      <c r="W11" s="582"/>
-      <c r="X11" s="582"/>
-      <c r="Y11" s="582"/>
-      <c r="Z11" s="582"/>
+      <c r="A11" s="580"/>
+      <c r="B11" s="580"/>
+      <c r="C11" s="580"/>
+      <c r="D11" s="580"/>
+      <c r="E11" s="581"/>
+      <c r="F11" s="581"/>
+      <c r="G11" s="581"/>
+      <c r="H11" s="581"/>
+      <c r="I11" s="581"/>
+      <c r="J11" s="581"/>
+      <c r="K11" s="581"/>
+      <c r="L11" s="581"/>
+      <c r="M11" s="581"/>
+      <c r="N11" s="581"/>
+      <c r="O11" s="581"/>
+      <c r="P11" s="581"/>
+      <c r="Q11" s="581"/>
+      <c r="R11" s="581"/>
+      <c r="S11" s="581"/>
+      <c r="T11" s="581"/>
+      <c r="U11" s="581"/>
+      <c r="V11" s="581"/>
+      <c r="W11" s="581"/>
+      <c r="X11" s="581"/>
+      <c r="Y11" s="581"/>
+      <c r="Z11" s="581"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="581"/>
-      <c r="B12" s="581"/>
-      <c r="C12" s="581"/>
-      <c r="D12" s="581"/>
-      <c r="E12" s="582"/>
-      <c r="F12" s="582"/>
-      <c r="G12" s="582"/>
-      <c r="H12" s="582"/>
-      <c r="I12" s="582"/>
-      <c r="J12" s="582"/>
-      <c r="K12" s="582"/>
-      <c r="L12" s="582"/>
-      <c r="M12" s="582"/>
-      <c r="N12" s="582"/>
-      <c r="O12" s="582"/>
-      <c r="P12" s="582"/>
-      <c r="Q12" s="582"/>
-      <c r="R12" s="582"/>
-      <c r="S12" s="582"/>
-      <c r="T12" s="582"/>
-      <c r="U12" s="582"/>
-      <c r="V12" s="582"/>
-      <c r="W12" s="582"/>
-      <c r="X12" s="582"/>
-      <c r="Y12" s="582"/>
-      <c r="Z12" s="582"/>
+      <c r="A12" s="580"/>
+      <c r="B12" s="580"/>
+      <c r="C12" s="580"/>
+      <c r="D12" s="580"/>
+      <c r="E12" s="581"/>
+      <c r="F12" s="581"/>
+      <c r="G12" s="581"/>
+      <c r="H12" s="581"/>
+      <c r="I12" s="581"/>
+      <c r="J12" s="581"/>
+      <c r="K12" s="581"/>
+      <c r="L12" s="581"/>
+      <c r="M12" s="581"/>
+      <c r="N12" s="581"/>
+      <c r="O12" s="581"/>
+      <c r="P12" s="581"/>
+      <c r="Q12" s="581"/>
+      <c r="R12" s="581"/>
+      <c r="S12" s="581"/>
+      <c r="T12" s="581"/>
+      <c r="U12" s="581"/>
+      <c r="V12" s="581"/>
+      <c r="W12" s="581"/>
+      <c r="X12" s="581"/>
+      <c r="Y12" s="581"/>
+      <c r="Z12" s="581"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="581"/>
-      <c r="B13" s="581"/>
-      <c r="C13" s="581"/>
-      <c r="D13" s="581"/>
-      <c r="E13" s="582"/>
-      <c r="F13" s="582"/>
-      <c r="G13" s="582"/>
-      <c r="H13" s="582"/>
-      <c r="I13" s="582"/>
-      <c r="J13" s="582"/>
-      <c r="K13" s="582"/>
-      <c r="L13" s="582"/>
-      <c r="M13" s="582"/>
-      <c r="N13" s="582"/>
-      <c r="O13" s="582"/>
-      <c r="P13" s="582"/>
-      <c r="Q13" s="582"/>
-      <c r="R13" s="582"/>
-      <c r="S13" s="582"/>
-      <c r="T13" s="582"/>
-      <c r="U13" s="582"/>
-      <c r="V13" s="582"/>
-      <c r="W13" s="582"/>
-      <c r="X13" s="582"/>
-      <c r="Y13" s="582"/>
-      <c r="Z13" s="582"/>
+      <c r="A13" s="580"/>
+      <c r="B13" s="580"/>
+      <c r="C13" s="580"/>
+      <c r="D13" s="580"/>
+      <c r="E13" s="581"/>
+      <c r="F13" s="581"/>
+      <c r="G13" s="581"/>
+      <c r="H13" s="581"/>
+      <c r="I13" s="581"/>
+      <c r="J13" s="581"/>
+      <c r="K13" s="581"/>
+      <c r="L13" s="581"/>
+      <c r="M13" s="581"/>
+      <c r="N13" s="581"/>
+      <c r="O13" s="581"/>
+      <c r="P13" s="581"/>
+      <c r="Q13" s="581"/>
+      <c r="R13" s="581"/>
+      <c r="S13" s="581"/>
+      <c r="T13" s="581"/>
+      <c r="U13" s="581"/>
+      <c r="V13" s="581"/>
+      <c r="W13" s="581"/>
+      <c r="X13" s="581"/>
+      <c r="Y13" s="581"/>
+      <c r="Z13" s="581"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="581"/>
-      <c r="B14" s="581"/>
-      <c r="C14" s="581"/>
-      <c r="D14" s="581"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="582"/>
-      <c r="G14" s="582"/>
-      <c r="H14" s="582"/>
-      <c r="I14" s="582"/>
-      <c r="J14" s="582"/>
-      <c r="K14" s="582"/>
-      <c r="L14" s="582"/>
-      <c r="M14" s="582"/>
-      <c r="N14" s="582"/>
-      <c r="O14" s="582"/>
-      <c r="P14" s="582"/>
-      <c r="Q14" s="582"/>
-      <c r="R14" s="582"/>
-      <c r="S14" s="582"/>
-      <c r="T14" s="582"/>
-      <c r="U14" s="582"/>
-      <c r="V14" s="582"/>
-      <c r="W14" s="582"/>
-      <c r="X14" s="582"/>
-      <c r="Y14" s="582"/>
-      <c r="Z14" s="582"/>
+      <c r="A14" s="580"/>
+      <c r="B14" s="580"/>
+      <c r="C14" s="580"/>
+      <c r="D14" s="580"/>
+      <c r="E14" s="581"/>
+      <c r="F14" s="581"/>
+      <c r="G14" s="581"/>
+      <c r="H14" s="581"/>
+      <c r="I14" s="581"/>
+      <c r="J14" s="581"/>
+      <c r="K14" s="581"/>
+      <c r="L14" s="581"/>
+      <c r="M14" s="581"/>
+      <c r="N14" s="581"/>
+      <c r="O14" s="581"/>
+      <c r="P14" s="581"/>
+      <c r="Q14" s="581"/>
+      <c r="R14" s="581"/>
+      <c r="S14" s="581"/>
+      <c r="T14" s="581"/>
+      <c r="U14" s="581"/>
+      <c r="V14" s="581"/>
+      <c r="W14" s="581"/>
+      <c r="X14" s="581"/>
+      <c r="Y14" s="581"/>
+      <c r="Z14" s="581"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="581"/>
-      <c r="B15" s="581"/>
-      <c r="C15" s="581"/>
-      <c r="D15" s="581"/>
-      <c r="E15" s="582"/>
-      <c r="F15" s="582"/>
-      <c r="G15" s="582"/>
-      <c r="H15" s="582"/>
-      <c r="I15" s="582"/>
-      <c r="J15" s="582"/>
-      <c r="K15" s="582"/>
-      <c r="L15" s="582"/>
-      <c r="M15" s="582"/>
-      <c r="N15" s="582"/>
-      <c r="O15" s="582"/>
-      <c r="P15" s="582"/>
-      <c r="Q15" s="582"/>
-      <c r="R15" s="582"/>
-      <c r="S15" s="582"/>
-      <c r="T15" s="582"/>
-      <c r="U15" s="582"/>
-      <c r="V15" s="582"/>
-      <c r="W15" s="582"/>
-      <c r="X15" s="582"/>
-      <c r="Y15" s="582"/>
-      <c r="Z15" s="582"/>
+      <c r="A15" s="580"/>
+      <c r="B15" s="580"/>
+      <c r="C15" s="580"/>
+      <c r="D15" s="580"/>
+      <c r="E15" s="581"/>
+      <c r="F15" s="581"/>
+      <c r="G15" s="581"/>
+      <c r="H15" s="581"/>
+      <c r="I15" s="581"/>
+      <c r="J15" s="581"/>
+      <c r="K15" s="581"/>
+      <c r="L15" s="581"/>
+      <c r="M15" s="581"/>
+      <c r="N15" s="581"/>
+      <c r="O15" s="581"/>
+      <c r="P15" s="581"/>
+      <c r="Q15" s="581"/>
+      <c r="R15" s="581"/>
+      <c r="S15" s="581"/>
+      <c r="T15" s="581"/>
+      <c r="U15" s="581"/>
+      <c r="V15" s="581"/>
+      <c r="W15" s="581"/>
+      <c r="X15" s="581"/>
+      <c r="Y15" s="581"/>
+      <c r="Z15" s="581"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="584" t="s">
+      <c r="A16" s="597" t="s">
         <v>685</v>
       </c>
-      <c r="B16" s="584"/>
-      <c r="C16" s="584"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="585"/>
-      <c r="F16" s="585"/>
-      <c r="G16" s="586"/>
-      <c r="H16" s="586"/>
-      <c r="I16" s="586"/>
-      <c r="J16" s="586"/>
-      <c r="K16" s="586"/>
-      <c r="L16" s="586"/>
-      <c r="M16" s="582"/>
-      <c r="N16" s="582"/>
-      <c r="O16" s="582"/>
-      <c r="P16" s="582"/>
-      <c r="Q16" s="582"/>
-      <c r="R16" s="582"/>
-      <c r="S16" s="582"/>
-      <c r="T16" s="582"/>
-      <c r="U16" s="582"/>
-      <c r="V16" s="582"/>
-      <c r="W16" s="582"/>
-      <c r="X16" s="582"/>
-      <c r="Y16" s="582"/>
-      <c r="Z16" s="582"/>
+      <c r="B16" s="597"/>
+      <c r="C16" s="597"/>
+      <c r="D16" s="597"/>
+      <c r="E16" s="583"/>
+      <c r="F16" s="583"/>
+      <c r="G16" s="584"/>
+      <c r="H16" s="584"/>
+      <c r="I16" s="584"/>
+      <c r="J16" s="584"/>
+      <c r="K16" s="584"/>
+      <c r="L16" s="584"/>
+      <c r="M16" s="581"/>
+      <c r="N16" s="581"/>
+      <c r="O16" s="581"/>
+      <c r="P16" s="581"/>
+      <c r="Q16" s="581"/>
+      <c r="R16" s="581"/>
+      <c r="S16" s="581"/>
+      <c r="T16" s="581"/>
+      <c r="U16" s="581"/>
+      <c r="V16" s="581"/>
+      <c r="W16" s="581"/>
+      <c r="X16" s="581"/>
+      <c r="Y16" s="581"/>
+      <c r="Z16" s="581"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="587"/>
-      <c r="B17" s="587"/>
-      <c r="C17" s="587"/>
-      <c r="D17" s="587"/>
-      <c r="E17" s="582"/>
-      <c r="F17" s="582"/>
-      <c r="G17" s="582"/>
-      <c r="H17" s="582"/>
-      <c r="I17" s="582"/>
-      <c r="J17" s="582"/>
-      <c r="K17" s="582"/>
-      <c r="L17" s="582"/>
-      <c r="M17" s="582"/>
-      <c r="N17" s="582"/>
-      <c r="O17" s="582"/>
-      <c r="P17" s="582"/>
-      <c r="Q17" s="582"/>
-      <c r="R17" s="582"/>
-      <c r="S17" s="582"/>
-      <c r="T17" s="582"/>
-      <c r="U17" s="582"/>
-      <c r="V17" s="582"/>
-      <c r="W17" s="582"/>
-      <c r="X17" s="582"/>
-      <c r="Y17" s="582"/>
-      <c r="Z17" s="582"/>
+      <c r="A17" s="585"/>
+      <c r="B17" s="585"/>
+      <c r="C17" s="585"/>
+      <c r="D17" s="585"/>
+      <c r="E17" s="581"/>
+      <c r="F17" s="581"/>
+      <c r="G17" s="581"/>
+      <c r="H17" s="581"/>
+      <c r="I17" s="581"/>
+      <c r="J17" s="581"/>
+      <c r="K17" s="581"/>
+      <c r="L17" s="581"/>
+      <c r="M17" s="581"/>
+      <c r="N17" s="581"/>
+      <c r="O17" s="581"/>
+      <c r="P17" s="581"/>
+      <c r="Q17" s="581"/>
+      <c r="R17" s="581"/>
+      <c r="S17" s="581"/>
+      <c r="T17" s="581"/>
+      <c r="U17" s="581"/>
+      <c r="V17" s="581"/>
+      <c r="W17" s="581"/>
+      <c r="X17" s="581"/>
+      <c r="Y17" s="581"/>
+      <c r="Z17" s="581"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="587"/>
-      <c r="B18" s="587"/>
-      <c r="C18" s="587"/>
-      <c r="D18" s="587"/>
-      <c r="E18" s="588"/>
-      <c r="F18" s="588"/>
-      <c r="G18" s="589"/>
-      <c r="H18" s="589"/>
-      <c r="I18" s="589"/>
-      <c r="J18" s="589"/>
-      <c r="K18" s="589"/>
-      <c r="L18" s="589"/>
-      <c r="M18" s="582"/>
-      <c r="N18" s="582"/>
-      <c r="O18" s="582"/>
-      <c r="P18" s="582"/>
-      <c r="Q18" s="582"/>
-      <c r="R18" s="582"/>
-      <c r="S18" s="582"/>
-      <c r="T18" s="582"/>
-      <c r="U18" s="582"/>
-      <c r="V18" s="582"/>
-      <c r="W18" s="582"/>
-      <c r="X18" s="582"/>
-      <c r="Y18" s="582"/>
-      <c r="Z18" s="582"/>
+      <c r="A18" s="585"/>
+      <c r="B18" s="585"/>
+      <c r="C18" s="585"/>
+      <c r="D18" s="585"/>
+      <c r="E18" s="586"/>
+      <c r="F18" s="586"/>
+      <c r="G18" s="587"/>
+      <c r="H18" s="587"/>
+      <c r="I18" s="587"/>
+      <c r="J18" s="587"/>
+      <c r="K18" s="587"/>
+      <c r="L18" s="587"/>
+      <c r="M18" s="581"/>
+      <c r="N18" s="581"/>
+      <c r="O18" s="581"/>
+      <c r="P18" s="581"/>
+      <c r="Q18" s="581"/>
+      <c r="R18" s="581"/>
+      <c r="S18" s="581"/>
+      <c r="T18" s="581"/>
+      <c r="U18" s="581"/>
+      <c r="V18" s="581"/>
+      <c r="W18" s="581"/>
+      <c r="X18" s="581"/>
+      <c r="Y18" s="581"/>
+      <c r="Z18" s="581"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="590" t="s">
+      <c r="A19" s="588" t="s">
         <v>686</v>
       </c>
-      <c r="B19" s="591" t="s">
+      <c r="B19" s="596" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19" s="596"/>
+      <c r="D19" s="596"/>
+      <c r="E19" s="589"/>
+      <c r="F19" s="589"/>
+      <c r="G19" s="590"/>
+      <c r="H19" s="590"/>
+      <c r="I19" s="590"/>
+      <c r="J19" s="590"/>
+      <c r="K19" s="590"/>
+      <c r="L19" s="590"/>
+      <c r="M19" s="581"/>
+      <c r="N19" s="581"/>
+      <c r="O19" s="581"/>
+      <c r="P19" s="581"/>
+      <c r="Q19" s="581"/>
+      <c r="R19" s="581"/>
+      <c r="S19" s="581"/>
+      <c r="T19" s="581"/>
+      <c r="U19" s="581"/>
+      <c r="V19" s="581"/>
+      <c r="W19" s="581"/>
+      <c r="X19" s="581"/>
+      <c r="Y19" s="581"/>
+      <c r="Z19" s="581"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="588" t="s">
         <v>687</v>
       </c>
-      <c r="C19" s="591"/>
-      <c r="D19" s="591"/>
-      <c r="E19" s="592"/>
-      <c r="F19" s="592"/>
-      <c r="G19" s="593"/>
-      <c r="H19" s="593"/>
-      <c r="I19" s="593"/>
-      <c r="J19" s="593"/>
-      <c r="K19" s="593"/>
-      <c r="L19" s="593"/>
-      <c r="M19" s="582"/>
-      <c r="N19" s="582"/>
-      <c r="O19" s="582"/>
-      <c r="P19" s="582"/>
-      <c r="Q19" s="582"/>
-      <c r="R19" s="582"/>
-      <c r="S19" s="582"/>
-      <c r="T19" s="582"/>
-      <c r="U19" s="582"/>
-      <c r="V19" s="582"/>
-      <c r="W19" s="582"/>
-      <c r="X19" s="582"/>
-      <c r="Y19" s="582"/>
-      <c r="Z19" s="582"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="590" t="s">
+      <c r="B20" s="596" t="s">
+        <v>698</v>
+      </c>
+      <c r="C20" s="596"/>
+      <c r="D20" s="596"/>
+      <c r="E20" s="589"/>
+      <c r="F20" s="589"/>
+      <c r="G20" s="590"/>
+      <c r="H20" s="590"/>
+      <c r="I20" s="590"/>
+      <c r="J20" s="590"/>
+      <c r="K20" s="590"/>
+      <c r="L20" s="590"/>
+      <c r="M20" s="581"/>
+      <c r="N20" s="581"/>
+      <c r="O20" s="581"/>
+      <c r="P20" s="581"/>
+      <c r="Q20" s="581"/>
+      <c r="R20" s="581"/>
+      <c r="S20" s="581"/>
+      <c r="T20" s="581"/>
+      <c r="U20" s="581"/>
+      <c r="V20" s="581"/>
+      <c r="W20" s="581"/>
+      <c r="X20" s="581"/>
+      <c r="Y20" s="581"/>
+      <c r="Z20" s="581"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="588" t="s">
         <v>688</v>
       </c>
-      <c r="B20" s="591" t="s">
+      <c r="B21" s="591" t="s">
+        <v>699</v>
+      </c>
+      <c r="C21" s="591"/>
+      <c r="D21" s="591"/>
+      <c r="E21" s="589"/>
+      <c r="F21" s="589"/>
+      <c r="G21" s="590"/>
+      <c r="H21" s="590"/>
+      <c r="I21" s="590"/>
+      <c r="J21" s="590"/>
+      <c r="K21" s="590"/>
+      <c r="L21" s="590"/>
+      <c r="M21" s="581"/>
+      <c r="N21" s="581"/>
+      <c r="O21" s="581"/>
+      <c r="P21" s="581"/>
+      <c r="Q21" s="581"/>
+      <c r="R21" s="581"/>
+      <c r="S21" s="581"/>
+      <c r="T21" s="581"/>
+      <c r="U21" s="581"/>
+      <c r="V21" s="581"/>
+      <c r="W21" s="581"/>
+      <c r="X21" s="581"/>
+      <c r="Y21" s="581"/>
+      <c r="Z21" s="581"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="588"/>
+      <c r="B22" s="591"/>
+      <c r="C22" s="591"/>
+      <c r="D22" s="591"/>
+      <c r="E22" s="589"/>
+      <c r="F22" s="589"/>
+      <c r="G22" s="590"/>
+      <c r="H22" s="590"/>
+      <c r="I22" s="590"/>
+      <c r="J22" s="590"/>
+      <c r="K22" s="590"/>
+      <c r="L22" s="590"/>
+      <c r="M22" s="581"/>
+      <c r="N22" s="581"/>
+      <c r="O22" s="581"/>
+      <c r="P22" s="581"/>
+      <c r="Q22" s="581"/>
+      <c r="R22" s="581"/>
+      <c r="S22" s="581"/>
+      <c r="T22" s="581"/>
+      <c r="U22" s="581"/>
+      <c r="V22" s="581"/>
+      <c r="W22" s="581"/>
+      <c r="X22" s="581"/>
+      <c r="Y22" s="581"/>
+      <c r="Z22" s="581"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="588" t="s">
         <v>689</v>
       </c>
-      <c r="C20" s="591"/>
-      <c r="D20" s="591"/>
-      <c r="E20" s="592"/>
-      <c r="F20" s="592"/>
-      <c r="G20" s="593"/>
-      <c r="H20" s="593"/>
-      <c r="I20" s="593"/>
-      <c r="J20" s="593"/>
-      <c r="K20" s="593"/>
-      <c r="L20" s="593"/>
-      <c r="M20" s="582"/>
-      <c r="N20" s="582"/>
-      <c r="O20" s="582"/>
-      <c r="P20" s="582"/>
-      <c r="Q20" s="582"/>
-      <c r="R20" s="582"/>
-      <c r="S20" s="582"/>
-      <c r="T20" s="582"/>
-      <c r="U20" s="582"/>
-      <c r="V20" s="582"/>
-      <c r="W20" s="582"/>
-      <c r="X20" s="582"/>
-      <c r="Y20" s="582"/>
-      <c r="Z20" s="582"/>
-    </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="590" t="s">
+      <c r="B23" s="596" t="s">
+        <v>700</v>
+      </c>
+      <c r="C23" s="596"/>
+      <c r="D23" s="596"/>
+      <c r="E23" s="581"/>
+      <c r="F23" s="581"/>
+      <c r="G23" s="581"/>
+      <c r="H23" s="581"/>
+      <c r="I23" s="581"/>
+      <c r="J23" s="581"/>
+      <c r="K23" s="581"/>
+      <c r="L23" s="581"/>
+      <c r="M23" s="581"/>
+      <c r="N23" s="581"/>
+      <c r="O23" s="581"/>
+      <c r="P23" s="581"/>
+      <c r="Q23" s="581"/>
+      <c r="R23" s="581"/>
+      <c r="S23" s="581"/>
+      <c r="T23" s="581"/>
+      <c r="U23" s="581"/>
+      <c r="V23" s="581"/>
+      <c r="W23" s="581"/>
+      <c r="X23" s="581"/>
+      <c r="Y23" s="581"/>
+      <c r="Z23" s="581"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="588"/>
+      <c r="B24" s="591"/>
+      <c r="C24" s="591"/>
+      <c r="D24" s="591"/>
+      <c r="E24" s="581"/>
+      <c r="F24" s="581"/>
+      <c r="G24" s="581"/>
+      <c r="H24" s="581"/>
+      <c r="I24" s="581"/>
+      <c r="J24" s="581"/>
+      <c r="K24" s="581"/>
+      <c r="L24" s="581"/>
+      <c r="M24" s="581"/>
+      <c r="N24" s="581"/>
+      <c r="O24" s="581"/>
+      <c r="P24" s="581"/>
+      <c r="Q24" s="581"/>
+      <c r="R24" s="581"/>
+      <c r="S24" s="581"/>
+      <c r="T24" s="581"/>
+      <c r="U24" s="581"/>
+      <c r="V24" s="581"/>
+      <c r="W24" s="581"/>
+      <c r="X24" s="581"/>
+      <c r="Y24" s="581"/>
+      <c r="Z24" s="581"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="588"/>
+      <c r="B25" s="591"/>
+      <c r="C25" s="591"/>
+      <c r="D25" s="591"/>
+      <c r="E25" s="581"/>
+      <c r="F25" s="581"/>
+      <c r="G25" s="581"/>
+      <c r="H25" s="581"/>
+      <c r="I25" s="581"/>
+      <c r="J25" s="581"/>
+      <c r="K25" s="581"/>
+      <c r="L25" s="581"/>
+      <c r="M25" s="581"/>
+      <c r="N25" s="581"/>
+      <c r="O25" s="581"/>
+      <c r="P25" s="581"/>
+      <c r="Q25" s="581"/>
+      <c r="R25" s="581"/>
+      <c r="S25" s="581"/>
+      <c r="T25" s="581"/>
+      <c r="U25" s="581"/>
+      <c r="V25" s="581"/>
+      <c r="W25" s="581"/>
+      <c r="X25" s="581"/>
+      <c r="Y25" s="581"/>
+      <c r="Z25" s="581"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="588" t="s">
         <v>690</v>
       </c>
-      <c r="B21" s="594" t="s">
+      <c r="B26" s="596" t="s">
+        <v>701</v>
+      </c>
+      <c r="C26" s="596"/>
+      <c r="D26" s="596"/>
+      <c r="E26" s="581"/>
+      <c r="F26" s="581"/>
+      <c r="G26" s="581"/>
+      <c r="H26" s="581"/>
+      <c r="I26" s="581"/>
+      <c r="J26" s="581"/>
+      <c r="K26" s="581"/>
+      <c r="L26" s="581"/>
+      <c r="M26" s="581"/>
+      <c r="N26" s="581"/>
+      <c r="O26" s="581"/>
+      <c r="P26" s="581"/>
+      <c r="Q26" s="581"/>
+      <c r="R26" s="581"/>
+      <c r="S26" s="581"/>
+      <c r="T26" s="581"/>
+      <c r="U26" s="581"/>
+      <c r="V26" s="581"/>
+      <c r="W26" s="581"/>
+      <c r="X26" s="581"/>
+      <c r="Y26" s="581"/>
+      <c r="Z26" s="581"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="588"/>
+      <c r="B27" s="591"/>
+      <c r="C27" s="591"/>
+      <c r="D27" s="591"/>
+      <c r="E27" s="581"/>
+      <c r="F27" s="581"/>
+      <c r="G27" s="581"/>
+      <c r="H27" s="581"/>
+      <c r="I27" s="581"/>
+      <c r="J27" s="581"/>
+      <c r="K27" s="581"/>
+      <c r="L27" s="581"/>
+      <c r="M27" s="581"/>
+      <c r="N27" s="581"/>
+      <c r="O27" s="581"/>
+      <c r="P27" s="581"/>
+      <c r="Q27" s="581"/>
+      <c r="R27" s="581"/>
+      <c r="S27" s="581"/>
+      <c r="T27" s="581"/>
+      <c r="U27" s="581"/>
+      <c r="V27" s="581"/>
+      <c r="W27" s="581"/>
+      <c r="X27" s="581"/>
+      <c r="Y27" s="581"/>
+      <c r="Z27" s="581"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="588"/>
+      <c r="B28" s="591"/>
+      <c r="C28" s="591"/>
+      <c r="D28" s="591"/>
+      <c r="E28" s="581"/>
+      <c r="F28" s="581"/>
+      <c r="G28" s="581"/>
+      <c r="H28" s="581"/>
+      <c r="I28" s="581"/>
+      <c r="J28" s="581"/>
+      <c r="K28" s="581"/>
+      <c r="L28" s="581"/>
+      <c r="M28" s="581"/>
+      <c r="N28" s="581"/>
+      <c r="O28" s="581"/>
+      <c r="P28" s="581"/>
+      <c r="Q28" s="581"/>
+      <c r="R28" s="581"/>
+      <c r="S28" s="581"/>
+      <c r="T28" s="581"/>
+      <c r="U28" s="581"/>
+      <c r="V28" s="581"/>
+      <c r="W28" s="581"/>
+      <c r="X28" s="581"/>
+      <c r="Y28" s="581"/>
+      <c r="Z28" s="581"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="588" t="s">
         <v>691</v>
       </c>
-      <c r="C21" s="594"/>
-      <c r="D21" s="594"/>
-      <c r="E21" s="592"/>
-      <c r="F21" s="592"/>
-      <c r="G21" s="593"/>
-      <c r="H21" s="593"/>
-      <c r="I21" s="593"/>
-      <c r="J21" s="593"/>
-      <c r="K21" s="593"/>
-      <c r="L21" s="593"/>
-      <c r="M21" s="582"/>
-      <c r="N21" s="582"/>
-      <c r="O21" s="582"/>
-      <c r="P21" s="582"/>
-      <c r="Q21" s="582"/>
-      <c r="R21" s="582"/>
-      <c r="S21" s="582"/>
-      <c r="T21" s="582"/>
-      <c r="U21" s="582"/>
-      <c r="V21" s="582"/>
-      <c r="W21" s="582"/>
-      <c r="X21" s="582"/>
-      <c r="Y21" s="582"/>
-      <c r="Z21" s="582"/>
-    </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="590"/>
-      <c r="B22" s="594"/>
-      <c r="C22" s="594"/>
-      <c r="D22" s="594"/>
-      <c r="E22" s="592"/>
-      <c r="F22" s="592"/>
-      <c r="G22" s="593"/>
-      <c r="H22" s="593"/>
-      <c r="I22" s="593"/>
-      <c r="J22" s="593"/>
-      <c r="K22" s="593"/>
-      <c r="L22" s="593"/>
-      <c r="M22" s="582"/>
-      <c r="N22" s="582"/>
-      <c r="O22" s="582"/>
-      <c r="P22" s="582"/>
-      <c r="Q22" s="582"/>
-      <c r="R22" s="582"/>
-      <c r="S22" s="582"/>
-      <c r="T22" s="582"/>
-      <c r="U22" s="582"/>
-      <c r="V22" s="582"/>
-      <c r="W22" s="582"/>
-      <c r="X22" s="582"/>
-      <c r="Y22" s="582"/>
-      <c r="Z22" s="582"/>
-    </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="590" t="s">
+      <c r="B29" s="592">
+        <v>1</v>
+      </c>
+      <c r="C29" s="591"/>
+      <c r="D29" s="591"/>
+      <c r="E29" s="581"/>
+      <c r="F29" s="581"/>
+      <c r="G29" s="581"/>
+      <c r="H29" s="581"/>
+      <c r="I29" s="581"/>
+      <c r="J29" s="581"/>
+      <c r="K29" s="581"/>
+      <c r="L29" s="581"/>
+      <c r="M29" s="581"/>
+      <c r="N29" s="581"/>
+      <c r="O29" s="581"/>
+      <c r="P29" s="581"/>
+      <c r="Q29" s="581"/>
+      <c r="R29" s="581"/>
+      <c r="S29" s="581"/>
+      <c r="T29" s="581"/>
+      <c r="U29" s="581"/>
+      <c r="V29" s="581"/>
+      <c r="W29" s="581"/>
+      <c r="X29" s="581"/>
+      <c r="Y29" s="581"/>
+      <c r="Z29" s="581"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="588" t="s">
         <v>692</v>
       </c>
-      <c r="B23" s="591" t="s">
+      <c r="B30" s="598" t="s">
         <v>693</v>
       </c>
-      <c r="C23" s="591"/>
-      <c r="D23" s="591"/>
-      <c r="E23" s="582"/>
-      <c r="F23" s="582"/>
-      <c r="G23" s="582"/>
-      <c r="H23" s="582"/>
-      <c r="I23" s="582"/>
-      <c r="J23" s="582"/>
-      <c r="K23" s="582"/>
-      <c r="L23" s="582"/>
-      <c r="M23" s="582"/>
-      <c r="N23" s="582"/>
-      <c r="O23" s="582"/>
-      <c r="P23" s="582"/>
-      <c r="Q23" s="582"/>
-      <c r="R23" s="582"/>
-      <c r="S23" s="582"/>
-      <c r="T23" s="582"/>
-      <c r="U23" s="582"/>
-      <c r="V23" s="582"/>
-      <c r="W23" s="582"/>
-      <c r="X23" s="582"/>
-      <c r="Y23" s="582"/>
-      <c r="Z23" s="582"/>
-    </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="590"/>
-      <c r="B24" s="594"/>
-      <c r="C24" s="594"/>
-      <c r="D24" s="594"/>
-      <c r="E24" s="582"/>
-      <c r="F24" s="582"/>
-      <c r="G24" s="582"/>
-      <c r="H24" s="582"/>
-      <c r="I24" s="582"/>
-      <c r="J24" s="582"/>
-      <c r="K24" s="582"/>
-      <c r="L24" s="582"/>
-      <c r="M24" s="582"/>
-      <c r="N24" s="582"/>
-      <c r="O24" s="582"/>
-      <c r="P24" s="582"/>
-      <c r="Q24" s="582"/>
-      <c r="R24" s="582"/>
-      <c r="S24" s="582"/>
-      <c r="T24" s="582"/>
-      <c r="U24" s="582"/>
-      <c r="V24" s="582"/>
-      <c r="W24" s="582"/>
-      <c r="X24" s="582"/>
-      <c r="Y24" s="582"/>
-      <c r="Z24" s="582"/>
-    </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="590"/>
-      <c r="B25" s="594"/>
-      <c r="C25" s="594"/>
-      <c r="D25" s="594"/>
-      <c r="E25" s="582"/>
-      <c r="F25" s="582"/>
-      <c r="G25" s="582"/>
-      <c r="H25" s="582"/>
-      <c r="I25" s="582"/>
-      <c r="J25" s="582"/>
-      <c r="K25" s="582"/>
-      <c r="L25" s="582"/>
-      <c r="M25" s="582"/>
-      <c r="N25" s="582"/>
-      <c r="O25" s="582"/>
-      <c r="P25" s="582"/>
-      <c r="Q25" s="582"/>
-      <c r="R25" s="582"/>
-      <c r="S25" s="582"/>
-      <c r="T25" s="582"/>
-      <c r="U25" s="582"/>
-      <c r="V25" s="582"/>
-      <c r="W25" s="582"/>
-      <c r="X25" s="582"/>
-      <c r="Y25" s="582"/>
-      <c r="Z25" s="582"/>
-    </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="590" t="s">
+      <c r="C30" s="596"/>
+      <c r="D30" s="596"/>
+      <c r="E30" s="593"/>
+      <c r="F30" s="593"/>
+      <c r="G30" s="581"/>
+      <c r="H30" s="581"/>
+      <c r="I30" s="581"/>
+      <c r="J30" s="581"/>
+      <c r="K30" s="581"/>
+      <c r="L30" s="581"/>
+      <c r="M30" s="581"/>
+      <c r="N30" s="581"/>
+      <c r="O30" s="581"/>
+      <c r="P30" s="581"/>
+      <c r="Q30" s="581"/>
+      <c r="R30" s="581"/>
+      <c r="S30" s="581"/>
+      <c r="T30" s="581"/>
+      <c r="U30" s="581"/>
+      <c r="V30" s="581"/>
+      <c r="W30" s="581"/>
+      <c r="X30" s="581"/>
+      <c r="Y30" s="581"/>
+      <c r="Z30" s="581"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="588" t="s">
         <v>694</v>
       </c>
-      <c r="B26" s="591" t="s">
-        <v>693</v>
-      </c>
-      <c r="C26" s="591"/>
-      <c r="D26" s="591"/>
-      <c r="E26" s="582"/>
-      <c r="F26" s="582"/>
-      <c r="G26" s="582"/>
-      <c r="H26" s="582"/>
-      <c r="I26" s="582"/>
-      <c r="J26" s="582"/>
-      <c r="K26" s="582"/>
-      <c r="L26" s="582"/>
-      <c r="M26" s="582"/>
-      <c r="N26" s="582"/>
-      <c r="O26" s="582"/>
-      <c r="P26" s="582"/>
-      <c r="Q26" s="582"/>
-      <c r="R26" s="582"/>
-      <c r="S26" s="582"/>
-      <c r="T26" s="582"/>
-      <c r="U26" s="582"/>
-      <c r="V26" s="582"/>
-      <c r="W26" s="582"/>
-      <c r="X26" s="582"/>
-      <c r="Y26" s="582"/>
-      <c r="Z26" s="582"/>
-    </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="590"/>
-      <c r="B27" s="594"/>
-      <c r="C27" s="594"/>
-      <c r="D27" s="594"/>
-      <c r="E27" s="582"/>
-      <c r="F27" s="582"/>
-      <c r="G27" s="582"/>
-      <c r="H27" s="582"/>
-      <c r="I27" s="582"/>
-      <c r="J27" s="582"/>
-      <c r="K27" s="582"/>
-      <c r="L27" s="582"/>
-      <c r="M27" s="582"/>
-      <c r="N27" s="582"/>
-      <c r="O27" s="582"/>
-      <c r="P27" s="582"/>
-      <c r="Q27" s="582"/>
-      <c r="R27" s="582"/>
-      <c r="S27" s="582"/>
-      <c r="T27" s="582"/>
-      <c r="U27" s="582"/>
-      <c r="V27" s="582"/>
-      <c r="W27" s="582"/>
-      <c r="X27" s="582"/>
-      <c r="Y27" s="582"/>
-      <c r="Z27" s="582"/>
-    </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="590"/>
-      <c r="B28" s="594"/>
-      <c r="C28" s="594"/>
-      <c r="D28" s="594"/>
-      <c r="E28" s="582"/>
-      <c r="F28" s="582"/>
-      <c r="G28" s="582"/>
-      <c r="H28" s="582"/>
-      <c r="I28" s="582"/>
-      <c r="J28" s="582"/>
-      <c r="K28" s="582"/>
-      <c r="L28" s="582"/>
-      <c r="M28" s="582"/>
-      <c r="N28" s="582"/>
-      <c r="O28" s="582"/>
-      <c r="P28" s="582"/>
-      <c r="Q28" s="582"/>
-      <c r="R28" s="582"/>
-      <c r="S28" s="582"/>
-      <c r="T28" s="582"/>
-      <c r="U28" s="582"/>
-      <c r="V28" s="582"/>
-      <c r="W28" s="582"/>
-      <c r="X28" s="582"/>
-      <c r="Y28" s="582"/>
-      <c r="Z28" s="582"/>
-    </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="590" t="s">
+      <c r="B31" s="596" t="s">
         <v>695</v>
       </c>
-      <c r="B29" s="595">
-        <v>1</v>
-      </c>
-      <c r="C29" s="594"/>
-      <c r="D29" s="594"/>
-      <c r="E29" s="582"/>
-      <c r="F29" s="582"/>
-      <c r="G29" s="582"/>
-      <c r="H29" s="582"/>
-      <c r="I29" s="582"/>
-      <c r="J29" s="582"/>
-      <c r="K29" s="582"/>
-      <c r="L29" s="582"/>
-      <c r="M29" s="582"/>
-      <c r="N29" s="582"/>
-      <c r="O29" s="582"/>
-      <c r="P29" s="582"/>
-      <c r="Q29" s="582"/>
-      <c r="R29" s="582"/>
-      <c r="S29" s="582"/>
-      <c r="T29" s="582"/>
-      <c r="U29" s="582"/>
-      <c r="V29" s="582"/>
-      <c r="W29" s="582"/>
-      <c r="X29" s="582"/>
-      <c r="Y29" s="582"/>
-      <c r="Z29" s="582"/>
-    </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="590" t="s">
+      <c r="C31" s="596"/>
+      <c r="D31" s="596"/>
+      <c r="E31" s="593"/>
+      <c r="F31" s="593"/>
+      <c r="G31" s="581"/>
+      <c r="H31" s="581"/>
+      <c r="I31" s="581"/>
+      <c r="J31" s="581"/>
+      <c r="K31" s="581"/>
+      <c r="L31" s="581"/>
+      <c r="M31" s="581"/>
+      <c r="N31" s="581"/>
+      <c r="O31" s="581"/>
+      <c r="P31" s="581"/>
+      <c r="Q31" s="581"/>
+      <c r="R31" s="581"/>
+      <c r="S31" s="581"/>
+      <c r="T31" s="581"/>
+      <c r="U31" s="581"/>
+      <c r="V31" s="581"/>
+      <c r="W31" s="581"/>
+      <c r="X31" s="581"/>
+      <c r="Y31" s="581"/>
+      <c r="Z31" s="581"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="594"/>
+      <c r="B32" s="595" t="s">
         <v>696</v>
       </c>
-      <c r="B30" s="596" t="s">
-        <v>697</v>
-      </c>
-      <c r="C30" s="591"/>
-      <c r="D30" s="591"/>
-      <c r="E30" s="597"/>
-      <c r="F30" s="597"/>
-      <c r="G30" s="582"/>
-      <c r="H30" s="582"/>
-      <c r="I30" s="582"/>
-      <c r="J30" s="582"/>
-      <c r="K30" s="582"/>
-      <c r="L30" s="582"/>
-      <c r="M30" s="582"/>
-      <c r="N30" s="582"/>
-      <c r="O30" s="582"/>
-      <c r="P30" s="582"/>
-      <c r="Q30" s="582"/>
-      <c r="R30" s="582"/>
-      <c r="S30" s="582"/>
-      <c r="T30" s="582"/>
-      <c r="U30" s="582"/>
-      <c r="V30" s="582"/>
-      <c r="W30" s="582"/>
-      <c r="X30" s="582"/>
-      <c r="Y30" s="582"/>
-      <c r="Z30" s="582"/>
-    </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="590" t="s">
-        <v>698</v>
-      </c>
-      <c r="B31" s="591" t="s">
-        <v>699</v>
-      </c>
-      <c r="C31" s="591"/>
-      <c r="D31" s="591"/>
-      <c r="E31" s="597"/>
-      <c r="F31" s="597"/>
-      <c r="G31" s="582"/>
-      <c r="H31" s="582"/>
-      <c r="I31" s="582"/>
-      <c r="J31" s="582"/>
-      <c r="K31" s="582"/>
-      <c r="L31" s="582"/>
-      <c r="M31" s="582"/>
-      <c r="N31" s="582"/>
-      <c r="O31" s="582"/>
-      <c r="P31" s="582"/>
-      <c r="Q31" s="582"/>
-      <c r="R31" s="582"/>
-      <c r="S31" s="582"/>
-      <c r="T31" s="582"/>
-      <c r="U31" s="582"/>
-      <c r="V31" s="582"/>
-      <c r="W31" s="582"/>
-      <c r="X31" s="582"/>
-      <c r="Y31" s="582"/>
-      <c r="Z31" s="582"/>
-    </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="598"/>
-      <c r="B32" s="599" t="s">
-        <v>700</v>
-      </c>
-      <c r="C32" s="598"/>
-      <c r="D32" s="598"/>
-      <c r="E32" s="582"/>
-      <c r="F32" s="582"/>
-      <c r="G32" s="582"/>
-      <c r="H32" s="582"/>
-      <c r="I32" s="582"/>
-      <c r="J32" s="582"/>
-      <c r="K32" s="582"/>
-      <c r="L32" s="582"/>
-      <c r="M32" s="582"/>
-      <c r="N32" s="582"/>
-      <c r="O32" s="582"/>
-      <c r="P32" s="582"/>
-      <c r="Q32" s="582"/>
-      <c r="R32" s="582"/>
-      <c r="S32" s="582"/>
-      <c r="T32" s="582"/>
-      <c r="U32" s="582"/>
-      <c r="V32" s="582"/>
-      <c r="W32" s="582"/>
-      <c r="X32" s="582"/>
-      <c r="Y32" s="582"/>
-      <c r="Z32" s="582"/>
+      <c r="C32" s="594"/>
+      <c r="D32" s="594"/>
+      <c r="E32" s="581"/>
+      <c r="F32" s="581"/>
+      <c r="G32" s="581"/>
+      <c r="H32" s="581"/>
+      <c r="I32" s="581"/>
+      <c r="J32" s="581"/>
+      <c r="K32" s="581"/>
+      <c r="L32" s="581"/>
+      <c r="M32" s="581"/>
+      <c r="N32" s="581"/>
+      <c r="O32" s="581"/>
+      <c r="P32" s="581"/>
+      <c r="Q32" s="581"/>
+      <c r="R32" s="581"/>
+      <c r="S32" s="581"/>
+      <c r="T32" s="581"/>
+      <c r="U32" s="581"/>
+      <c r="V32" s="581"/>
+      <c r="W32" s="581"/>
+      <c r="X32" s="581"/>
+      <c r="Y32" s="581"/>
+      <c r="Z32" s="581"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="581"/>
-      <c r="B33" s="581"/>
-      <c r="C33" s="581"/>
-      <c r="D33" s="581"/>
-      <c r="E33" s="582"/>
-      <c r="F33" s="582"/>
-      <c r="G33" s="582"/>
-      <c r="H33" s="582"/>
-      <c r="I33" s="582"/>
-      <c r="J33" s="582"/>
-      <c r="K33" s="582"/>
-      <c r="L33" s="582"/>
-      <c r="M33" s="582"/>
-      <c r="N33" s="582"/>
-      <c r="O33" s="582"/>
-      <c r="P33" s="582"/>
-      <c r="Q33" s="582"/>
-      <c r="R33" s="582"/>
-      <c r="S33" s="582"/>
-      <c r="T33" s="582"/>
-      <c r="U33" s="582"/>
-      <c r="V33" s="582"/>
-      <c r="W33" s="582"/>
-      <c r="X33" s="582"/>
-      <c r="Y33" s="582"/>
-      <c r="Z33" s="582"/>
+      <c r="A33" s="580"/>
+      <c r="B33" s="580"/>
+      <c r="C33" s="580"/>
+      <c r="D33" s="580"/>
+      <c r="E33" s="581"/>
+      <c r="F33" s="581"/>
+      <c r="G33" s="581"/>
+      <c r="H33" s="581"/>
+      <c r="I33" s="581"/>
+      <c r="J33" s="581"/>
+      <c r="K33" s="581"/>
+      <c r="L33" s="581"/>
+      <c r="M33" s="581"/>
+      <c r="N33" s="581"/>
+      <c r="O33" s="581"/>
+      <c r="P33" s="581"/>
+      <c r="Q33" s="581"/>
+      <c r="R33" s="581"/>
+      <c r="S33" s="581"/>
+      <c r="T33" s="581"/>
+      <c r="U33" s="581"/>
+      <c r="V33" s="581"/>
+      <c r="W33" s="581"/>
+      <c r="X33" s="581"/>
+      <c r="Y33" s="581"/>
+      <c r="Z33" s="581"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="581"/>
-      <c r="B34" s="581"/>
-      <c r="C34" s="581"/>
-      <c r="D34" s="581"/>
-      <c r="E34" s="582"/>
-      <c r="F34" s="582"/>
-      <c r="G34" s="582"/>
-      <c r="H34" s="582"/>
-      <c r="I34" s="582"/>
-      <c r="J34" s="582"/>
-      <c r="K34" s="582"/>
-      <c r="L34" s="582"/>
-      <c r="M34" s="582"/>
-      <c r="N34" s="582"/>
-      <c r="O34" s="582"/>
-      <c r="P34" s="582"/>
-      <c r="Q34" s="582"/>
-      <c r="R34" s="582"/>
-      <c r="S34" s="582"/>
-      <c r="T34" s="582"/>
-      <c r="U34" s="582"/>
-      <c r="V34" s="582"/>
-      <c r="W34" s="582"/>
-      <c r="X34" s="582"/>
-      <c r="Y34" s="582"/>
-      <c r="Z34" s="582"/>
+      <c r="A34" s="580"/>
+      <c r="B34" s="580"/>
+      <c r="C34" s="580"/>
+      <c r="D34" s="580"/>
+      <c r="E34" s="581"/>
+      <c r="F34" s="581"/>
+      <c r="G34" s="581"/>
+      <c r="H34" s="581"/>
+      <c r="I34" s="581"/>
+      <c r="J34" s="581"/>
+      <c r="K34" s="581"/>
+      <c r="L34" s="581"/>
+      <c r="M34" s="581"/>
+      <c r="N34" s="581"/>
+      <c r="O34" s="581"/>
+      <c r="P34" s="581"/>
+      <c r="Q34" s="581"/>
+      <c r="R34" s="581"/>
+      <c r="S34" s="581"/>
+      <c r="T34" s="581"/>
+      <c r="U34" s="581"/>
+      <c r="V34" s="581"/>
+      <c r="W34" s="581"/>
+      <c r="X34" s="581"/>
+      <c r="Y34" s="581"/>
+      <c r="Z34" s="581"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="581"/>
-      <c r="B35" s="581"/>
-      <c r="C35" s="581"/>
-      <c r="D35" s="581"/>
-      <c r="E35" s="582"/>
-      <c r="F35" s="582"/>
-      <c r="G35" s="582"/>
-      <c r="H35" s="582"/>
-      <c r="I35" s="582"/>
-      <c r="J35" s="582"/>
-      <c r="K35" s="582"/>
-      <c r="L35" s="582"/>
-      <c r="M35" s="582"/>
-      <c r="N35" s="582"/>
-      <c r="O35" s="582"/>
-      <c r="P35" s="582"/>
-      <c r="Q35" s="582"/>
-      <c r="R35" s="582"/>
-      <c r="S35" s="582"/>
-      <c r="T35" s="582"/>
-      <c r="U35" s="582"/>
-      <c r="V35" s="582"/>
-      <c r="W35" s="582"/>
-      <c r="X35" s="582"/>
-      <c r="Y35" s="582"/>
-      <c r="Z35" s="582"/>
+      <c r="A35" s="580"/>
+      <c r="B35" s="580"/>
+      <c r="C35" s="580"/>
+      <c r="D35" s="580"/>
+      <c r="E35" s="581"/>
+      <c r="F35" s="581"/>
+      <c r="G35" s="581"/>
+      <c r="H35" s="581"/>
+      <c r="I35" s="581"/>
+      <c r="J35" s="581"/>
+      <c r="K35" s="581"/>
+      <c r="L35" s="581"/>
+      <c r="M35" s="581"/>
+      <c r="N35" s="581"/>
+      <c r="O35" s="581"/>
+      <c r="P35" s="581"/>
+      <c r="Q35" s="581"/>
+      <c r="R35" s="581"/>
+      <c r="S35" s="581"/>
+      <c r="T35" s="581"/>
+      <c r="U35" s="581"/>
+      <c r="V35" s="581"/>
+      <c r="W35" s="581"/>
+      <c r="X35" s="581"/>
+      <c r="Y35" s="581"/>
+      <c r="Z35" s="581"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="581"/>
-      <c r="B36" s="581"/>
-      <c r="C36" s="581"/>
-      <c r="D36" s="581"/>
-      <c r="E36" s="582"/>
-      <c r="F36" s="582"/>
-      <c r="G36" s="582"/>
-      <c r="H36" s="582"/>
-      <c r="I36" s="582"/>
-      <c r="J36" s="582"/>
-      <c r="K36" s="582"/>
-      <c r="L36" s="582"/>
-      <c r="M36" s="582"/>
-      <c r="N36" s="582"/>
-      <c r="O36" s="582"/>
-      <c r="P36" s="582"/>
-      <c r="Q36" s="582"/>
-      <c r="R36" s="582"/>
-      <c r="S36" s="582"/>
-      <c r="T36" s="582"/>
-      <c r="U36" s="582"/>
-      <c r="V36" s="582"/>
-      <c r="W36" s="582"/>
-      <c r="X36" s="582"/>
-      <c r="Y36" s="582"/>
-      <c r="Z36" s="582"/>
+      <c r="A36" s="580"/>
+      <c r="B36" s="580"/>
+      <c r="C36" s="580"/>
+      <c r="D36" s="580"/>
+      <c r="E36" s="581"/>
+      <c r="F36" s="581"/>
+      <c r="G36" s="581"/>
+      <c r="H36" s="581"/>
+      <c r="I36" s="581"/>
+      <c r="J36" s="581"/>
+      <c r="K36" s="581"/>
+      <c r="L36" s="581"/>
+      <c r="M36" s="581"/>
+      <c r="N36" s="581"/>
+      <c r="O36" s="581"/>
+      <c r="P36" s="581"/>
+      <c r="Q36" s="581"/>
+      <c r="R36" s="581"/>
+      <c r="S36" s="581"/>
+      <c r="T36" s="581"/>
+      <c r="U36" s="581"/>
+      <c r="V36" s="581"/>
+      <c r="W36" s="581"/>
+      <c r="X36" s="581"/>
+      <c r="Y36" s="581"/>
+      <c r="Z36" s="581"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="581"/>
-      <c r="B37" s="581"/>
-      <c r="C37" s="581"/>
-      <c r="D37" s="581"/>
-      <c r="E37" s="582"/>
-      <c r="F37" s="582"/>
-      <c r="G37" s="582"/>
-      <c r="H37" s="582"/>
-      <c r="I37" s="582"/>
-      <c r="J37" s="582"/>
-      <c r="K37" s="582"/>
-      <c r="L37" s="582"/>
-      <c r="M37" s="582"/>
-      <c r="N37" s="582"/>
-      <c r="O37" s="582"/>
-      <c r="P37" s="582"/>
-      <c r="Q37" s="582"/>
-      <c r="R37" s="582"/>
-      <c r="S37" s="582"/>
-      <c r="T37" s="582"/>
-      <c r="U37" s="582"/>
-      <c r="V37" s="582"/>
-      <c r="W37" s="582"/>
-      <c r="X37" s="582"/>
-      <c r="Y37" s="582"/>
-      <c r="Z37" s="582"/>
+      <c r="A37" s="580"/>
+      <c r="B37" s="580"/>
+      <c r="C37" s="580"/>
+      <c r="D37" s="580"/>
+      <c r="E37" s="581"/>
+      <c r="F37" s="581"/>
+      <c r="G37" s="581"/>
+      <c r="H37" s="581"/>
+      <c r="I37" s="581"/>
+      <c r="J37" s="581"/>
+      <c r="K37" s="581"/>
+      <c r="L37" s="581"/>
+      <c r="M37" s="581"/>
+      <c r="N37" s="581"/>
+      <c r="O37" s="581"/>
+      <c r="P37" s="581"/>
+      <c r="Q37" s="581"/>
+      <c r="R37" s="581"/>
+      <c r="S37" s="581"/>
+      <c r="T37" s="581"/>
+      <c r="U37" s="581"/>
+      <c r="V37" s="581"/>
+      <c r="W37" s="581"/>
+      <c r="X37" s="581"/>
+      <c r="Y37" s="581"/>
+      <c r="Z37" s="581"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="581"/>
-      <c r="B38" s="581"/>
-      <c r="C38" s="581"/>
-      <c r="D38" s="581"/>
-      <c r="E38" s="582"/>
-      <c r="F38" s="582"/>
-      <c r="G38" s="582"/>
-      <c r="H38" s="582"/>
-      <c r="I38" s="582"/>
-      <c r="J38" s="582"/>
-      <c r="K38" s="582"/>
-      <c r="L38" s="582"/>
-      <c r="M38" s="582"/>
-      <c r="N38" s="582"/>
-      <c r="O38" s="582"/>
-      <c r="P38" s="582"/>
-      <c r="Q38" s="582"/>
-      <c r="R38" s="582"/>
-      <c r="S38" s="582"/>
-      <c r="T38" s="582"/>
-      <c r="U38" s="582"/>
-      <c r="V38" s="582"/>
-      <c r="W38" s="582"/>
-      <c r="X38" s="582"/>
-      <c r="Y38" s="582"/>
-      <c r="Z38" s="582"/>
+      <c r="A38" s="580"/>
+      <c r="B38" s="580"/>
+      <c r="C38" s="580"/>
+      <c r="D38" s="580"/>
+      <c r="E38" s="581"/>
+      <c r="F38" s="581"/>
+      <c r="G38" s="581"/>
+      <c r="H38" s="581"/>
+      <c r="I38" s="581"/>
+      <c r="J38" s="581"/>
+      <c r="K38" s="581"/>
+      <c r="L38" s="581"/>
+      <c r="M38" s="581"/>
+      <c r="N38" s="581"/>
+      <c r="O38" s="581"/>
+      <c r="P38" s="581"/>
+      <c r="Q38" s="581"/>
+      <c r="R38" s="581"/>
+      <c r="S38" s="581"/>
+      <c r="T38" s="581"/>
+      <c r="U38" s="581"/>
+      <c r="V38" s="581"/>
+      <c r="W38" s="581"/>
+      <c r="X38" s="581"/>
+      <c r="Y38" s="581"/>
+      <c r="Z38" s="581"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="581"/>
-      <c r="B39" s="581"/>
-      <c r="C39" s="581"/>
-      <c r="D39" s="581"/>
-      <c r="E39" s="582"/>
-      <c r="F39" s="582"/>
-      <c r="G39" s="582"/>
-      <c r="H39" s="582"/>
-      <c r="I39" s="582"/>
-      <c r="J39" s="582"/>
-      <c r="K39" s="582"/>
-      <c r="L39" s="582"/>
-      <c r="M39" s="582"/>
-      <c r="N39" s="582"/>
-      <c r="O39" s="582"/>
-      <c r="P39" s="582"/>
-      <c r="Q39" s="582"/>
-      <c r="R39" s="582"/>
-      <c r="S39" s="582"/>
-      <c r="T39" s="582"/>
-      <c r="U39" s="582"/>
-      <c r="V39" s="582"/>
-      <c r="W39" s="582"/>
-      <c r="X39" s="582"/>
-      <c r="Y39" s="582"/>
-      <c r="Z39" s="582"/>
+      <c r="A39" s="580"/>
+      <c r="B39" s="580"/>
+      <c r="C39" s="580"/>
+      <c r="D39" s="580"/>
+      <c r="E39" s="581"/>
+      <c r="F39" s="581"/>
+      <c r="G39" s="581"/>
+      <c r="H39" s="581"/>
+      <c r="I39" s="581"/>
+      <c r="J39" s="581"/>
+      <c r="K39" s="581"/>
+      <c r="L39" s="581"/>
+      <c r="M39" s="581"/>
+      <c r="N39" s="581"/>
+      <c r="O39" s="581"/>
+      <c r="P39" s="581"/>
+      <c r="Q39" s="581"/>
+      <c r="R39" s="581"/>
+      <c r="S39" s="581"/>
+      <c r="T39" s="581"/>
+      <c r="U39" s="581"/>
+      <c r="V39" s="581"/>
+      <c r="W39" s="581"/>
+      <c r="X39" s="581"/>
+      <c r="Y39" s="581"/>
+      <c r="Z39" s="581"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="581"/>
-      <c r="B40" s="581"/>
-      <c r="C40" s="581"/>
-      <c r="D40" s="581"/>
-      <c r="E40" s="582"/>
-      <c r="F40" s="582"/>
-      <c r="G40" s="582"/>
-      <c r="H40" s="582"/>
-      <c r="I40" s="582"/>
-      <c r="J40" s="582"/>
-      <c r="K40" s="582"/>
-      <c r="L40" s="582"/>
-      <c r="M40" s="582"/>
-      <c r="N40" s="582"/>
-      <c r="O40" s="582"/>
-      <c r="P40" s="582"/>
-      <c r="Q40" s="582"/>
-      <c r="R40" s="582"/>
-      <c r="S40" s="582"/>
-      <c r="T40" s="582"/>
-      <c r="U40" s="582"/>
-      <c r="V40" s="582"/>
-      <c r="W40" s="582"/>
-      <c r="X40" s="582"/>
-      <c r="Y40" s="582"/>
-      <c r="Z40" s="582"/>
+      <c r="A40" s="580"/>
+      <c r="B40" s="580"/>
+      <c r="C40" s="580"/>
+      <c r="D40" s="580"/>
+      <c r="E40" s="581"/>
+      <c r="F40" s="581"/>
+      <c r="G40" s="581"/>
+      <c r="H40" s="581"/>
+      <c r="I40" s="581"/>
+      <c r="J40" s="581"/>
+      <c r="K40" s="581"/>
+      <c r="L40" s="581"/>
+      <c r="M40" s="581"/>
+      <c r="N40" s="581"/>
+      <c r="O40" s="581"/>
+      <c r="P40" s="581"/>
+      <c r="Q40" s="581"/>
+      <c r="R40" s="581"/>
+      <c r="S40" s="581"/>
+      <c r="T40" s="581"/>
+      <c r="U40" s="581"/>
+      <c r="V40" s="581"/>
+      <c r="W40" s="581"/>
+      <c r="X40" s="581"/>
+      <c r="Y40" s="581"/>
+      <c r="Z40" s="581"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="581"/>
-      <c r="B41" s="581"/>
-      <c r="C41" s="581"/>
-      <c r="D41" s="581"/>
-      <c r="E41" s="582"/>
-      <c r="F41" s="582"/>
-      <c r="G41" s="582"/>
-      <c r="H41" s="582"/>
-      <c r="I41" s="582"/>
-      <c r="J41" s="582"/>
-      <c r="K41" s="582"/>
-      <c r="L41" s="582"/>
-      <c r="M41" s="582"/>
-      <c r="N41" s="582"/>
-      <c r="O41" s="582"/>
-      <c r="P41" s="582"/>
-      <c r="Q41" s="582"/>
-      <c r="R41" s="582"/>
-      <c r="S41" s="582"/>
-      <c r="T41" s="582"/>
-      <c r="U41" s="582"/>
-      <c r="V41" s="582"/>
-      <c r="W41" s="582"/>
-      <c r="X41" s="582"/>
-      <c r="Y41" s="582"/>
-      <c r="Z41" s="582"/>
+      <c r="A41" s="580"/>
+      <c r="B41" s="580"/>
+      <c r="C41" s="580"/>
+      <c r="D41" s="580"/>
+      <c r="E41" s="581"/>
+      <c r="F41" s="581"/>
+      <c r="G41" s="581"/>
+      <c r="H41" s="581"/>
+      <c r="I41" s="581"/>
+      <c r="J41" s="581"/>
+      <c r="K41" s="581"/>
+      <c r="L41" s="581"/>
+      <c r="M41" s="581"/>
+      <c r="N41" s="581"/>
+      <c r="O41" s="581"/>
+      <c r="P41" s="581"/>
+      <c r="Q41" s="581"/>
+      <c r="R41" s="581"/>
+      <c r="S41" s="581"/>
+      <c r="T41" s="581"/>
+      <c r="U41" s="581"/>
+      <c r="V41" s="581"/>
+      <c r="W41" s="581"/>
+      <c r="X41" s="581"/>
+      <c r="Y41" s="581"/>
+      <c r="Z41" s="581"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="581"/>
-      <c r="B42" s="581"/>
-      <c r="C42" s="581"/>
-      <c r="D42" s="581"/>
-      <c r="E42" s="582"/>
-      <c r="F42" s="582"/>
-      <c r="G42" s="582"/>
-      <c r="H42" s="582"/>
-      <c r="I42" s="582"/>
-      <c r="J42" s="582"/>
-      <c r="K42" s="582"/>
-      <c r="L42" s="582"/>
-      <c r="M42" s="582"/>
-      <c r="N42" s="582"/>
-      <c r="O42" s="582"/>
-      <c r="P42" s="582"/>
-      <c r="Q42" s="582"/>
-      <c r="R42" s="582"/>
-      <c r="S42" s="582"/>
-      <c r="T42" s="582"/>
-      <c r="U42" s="582"/>
-      <c r="V42" s="582"/>
-      <c r="W42" s="582"/>
-      <c r="X42" s="582"/>
-      <c r="Y42" s="582"/>
-      <c r="Z42" s="582"/>
+      <c r="A42" s="580"/>
+      <c r="B42" s="580"/>
+      <c r="C42" s="580"/>
+      <c r="D42" s="580"/>
+      <c r="E42" s="581"/>
+      <c r="F42" s="581"/>
+      <c r="G42" s="581"/>
+      <c r="H42" s="581"/>
+      <c r="I42" s="581"/>
+      <c r="J42" s="581"/>
+      <c r="K42" s="581"/>
+      <c r="L42" s="581"/>
+      <c r="M42" s="581"/>
+      <c r="N42" s="581"/>
+      <c r="O42" s="581"/>
+      <c r="P42" s="581"/>
+      <c r="Q42" s="581"/>
+      <c r="R42" s="581"/>
+      <c r="S42" s="581"/>
+      <c r="T42" s="581"/>
+      <c r="U42" s="581"/>
+      <c r="V42" s="581"/>
+      <c r="W42" s="581"/>
+      <c r="X42" s="581"/>
+      <c r="Y42" s="581"/>
+      <c r="Z42" s="581"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="582"/>
-      <c r="B43" s="582"/>
-      <c r="C43" s="582"/>
-      <c r="D43" s="582"/>
-      <c r="E43" s="582"/>
-      <c r="F43" s="582"/>
-      <c r="G43" s="582"/>
-      <c r="H43" s="582"/>
-      <c r="I43" s="582"/>
-      <c r="J43" s="582"/>
-      <c r="K43" s="582"/>
-      <c r="L43" s="582"/>
-      <c r="M43" s="582"/>
-      <c r="N43" s="582"/>
-      <c r="O43" s="582"/>
-      <c r="P43" s="582"/>
-      <c r="Q43" s="582"/>
-      <c r="R43" s="582"/>
-      <c r="S43" s="582"/>
-      <c r="T43" s="582"/>
-      <c r="U43" s="582"/>
-      <c r="V43" s="582"/>
-      <c r="W43" s="582"/>
-      <c r="X43" s="582"/>
-      <c r="Y43" s="582"/>
-      <c r="Z43" s="582"/>
+      <c r="A43" s="581"/>
+      <c r="B43" s="581"/>
+      <c r="C43" s="581"/>
+      <c r="D43" s="581"/>
+      <c r="E43" s="581"/>
+      <c r="F43" s="581"/>
+      <c r="G43" s="581"/>
+      <c r="H43" s="581"/>
+      <c r="I43" s="581"/>
+      <c r="J43" s="581"/>
+      <c r="K43" s="581"/>
+      <c r="L43" s="581"/>
+      <c r="M43" s="581"/>
+      <c r="N43" s="581"/>
+      <c r="O43" s="581"/>
+      <c r="P43" s="581"/>
+      <c r="Q43" s="581"/>
+      <c r="R43" s="581"/>
+      <c r="S43" s="581"/>
+      <c r="T43" s="581"/>
+      <c r="U43" s="581"/>
+      <c r="V43" s="581"/>
+      <c r="W43" s="581"/>
+      <c r="X43" s="581"/>
+      <c r="Y43" s="581"/>
+      <c r="Z43" s="581"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="582"/>
-      <c r="B44" s="582"/>
-      <c r="C44" s="582"/>
-      <c r="D44" s="582"/>
-      <c r="E44" s="582"/>
-      <c r="F44" s="582"/>
-      <c r="G44" s="582"/>
-      <c r="H44" s="582"/>
-      <c r="I44" s="582"/>
-      <c r="J44" s="582"/>
-      <c r="K44" s="582"/>
-      <c r="L44" s="582"/>
-      <c r="M44" s="582"/>
-      <c r="N44" s="582"/>
-      <c r="O44" s="582"/>
-      <c r="P44" s="582"/>
-      <c r="Q44" s="582"/>
-      <c r="R44" s="582"/>
-      <c r="S44" s="582"/>
-      <c r="T44" s="582"/>
-      <c r="U44" s="582"/>
-      <c r="V44" s="582"/>
-      <c r="W44" s="582"/>
-      <c r="X44" s="582"/>
-      <c r="Y44" s="582"/>
-      <c r="Z44" s="582"/>
+      <c r="A44" s="581"/>
+      <c r="B44" s="581"/>
+      <c r="C44" s="581"/>
+      <c r="D44" s="581"/>
+      <c r="E44" s="581"/>
+      <c r="F44" s="581"/>
+      <c r="G44" s="581"/>
+      <c r="H44" s="581"/>
+      <c r="I44" s="581"/>
+      <c r="J44" s="581"/>
+      <c r="K44" s="581"/>
+      <c r="L44" s="581"/>
+      <c r="M44" s="581"/>
+      <c r="N44" s="581"/>
+      <c r="O44" s="581"/>
+      <c r="P44" s="581"/>
+      <c r="Q44" s="581"/>
+      <c r="R44" s="581"/>
+      <c r="S44" s="581"/>
+      <c r="T44" s="581"/>
+      <c r="U44" s="581"/>
+      <c r="V44" s="581"/>
+      <c r="W44" s="581"/>
+      <c r="X44" s="581"/>
+      <c r="Y44" s="581"/>
+      <c r="Z44" s="581"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="582"/>
-      <c r="B45" s="582"/>
-      <c r="C45" s="582"/>
-      <c r="D45" s="582"/>
-      <c r="E45" s="582"/>
-      <c r="F45" s="582"/>
-      <c r="G45" s="582"/>
-      <c r="H45" s="582"/>
-      <c r="I45" s="582"/>
-      <c r="J45" s="582"/>
-      <c r="K45" s="582"/>
-      <c r="L45" s="582"/>
-      <c r="M45" s="582"/>
-      <c r="N45" s="582"/>
-      <c r="O45" s="582"/>
-      <c r="P45" s="582"/>
-      <c r="Q45" s="582"/>
-      <c r="R45" s="582"/>
-      <c r="S45" s="582"/>
-      <c r="T45" s="582"/>
-      <c r="U45" s="582"/>
-      <c r="V45" s="582"/>
-      <c r="W45" s="582"/>
-      <c r="X45" s="582"/>
-      <c r="Y45" s="582"/>
-      <c r="Z45" s="582"/>
+      <c r="A45" s="581"/>
+      <c r="B45" s="581"/>
+      <c r="C45" s="581"/>
+      <c r="D45" s="581"/>
+      <c r="E45" s="581"/>
+      <c r="F45" s="581"/>
+      <c r="G45" s="581"/>
+      <c r="H45" s="581"/>
+      <c r="I45" s="581"/>
+      <c r="J45" s="581"/>
+      <c r="K45" s="581"/>
+      <c r="L45" s="581"/>
+      <c r="M45" s="581"/>
+      <c r="N45" s="581"/>
+      <c r="O45" s="581"/>
+      <c r="P45" s="581"/>
+      <c r="Q45" s="581"/>
+      <c r="R45" s="581"/>
+      <c r="S45" s="581"/>
+      <c r="T45" s="581"/>
+      <c r="U45" s="581"/>
+      <c r="V45" s="581"/>
+      <c r="W45" s="581"/>
+      <c r="X45" s="581"/>
+      <c r="Y45" s="581"/>
+      <c r="Z45" s="581"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="582"/>
-      <c r="B46" s="582"/>
-      <c r="C46" s="582"/>
-      <c r="D46" s="582"/>
-      <c r="E46" s="582"/>
-      <c r="F46" s="582"/>
-      <c r="G46" s="582"/>
-      <c r="H46" s="582"/>
-      <c r="I46" s="582"/>
-      <c r="J46" s="582"/>
-      <c r="K46" s="582"/>
-      <c r="L46" s="582"/>
-      <c r="M46" s="582"/>
-      <c r="N46" s="582"/>
-      <c r="O46" s="582"/>
-      <c r="P46" s="582"/>
-      <c r="Q46" s="582"/>
-      <c r="R46" s="582"/>
-      <c r="S46" s="582"/>
-      <c r="T46" s="582"/>
-      <c r="U46" s="582"/>
-      <c r="V46" s="582"/>
-      <c r="W46" s="582"/>
-      <c r="X46" s="582"/>
-      <c r="Y46" s="582"/>
-      <c r="Z46" s="582"/>
+      <c r="A46" s="581"/>
+      <c r="B46" s="581"/>
+      <c r="C46" s="581"/>
+      <c r="D46" s="581"/>
+      <c r="E46" s="581"/>
+      <c r="F46" s="581"/>
+      <c r="G46" s="581"/>
+      <c r="H46" s="581"/>
+      <c r="I46" s="581"/>
+      <c r="J46" s="581"/>
+      <c r="K46" s="581"/>
+      <c r="L46" s="581"/>
+      <c r="M46" s="581"/>
+      <c r="N46" s="581"/>
+      <c r="O46" s="581"/>
+      <c r="P46" s="581"/>
+      <c r="Q46" s="581"/>
+      <c r="R46" s="581"/>
+      <c r="S46" s="581"/>
+      <c r="T46" s="581"/>
+      <c r="U46" s="581"/>
+      <c r="V46" s="581"/>
+      <c r="W46" s="581"/>
+      <c r="X46" s="581"/>
+      <c r="Y46" s="581"/>
+      <c r="Z46" s="581"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="582"/>
-      <c r="B47" s="582"/>
-      <c r="C47" s="582"/>
-      <c r="D47" s="582"/>
-      <c r="E47" s="582"/>
-      <c r="F47" s="582"/>
-      <c r="G47" s="582"/>
-      <c r="H47" s="582"/>
-      <c r="I47" s="582"/>
-      <c r="J47" s="582"/>
-      <c r="K47" s="582"/>
-      <c r="L47" s="582"/>
-      <c r="M47" s="582"/>
-      <c r="N47" s="582"/>
-      <c r="O47" s="582"/>
-      <c r="P47" s="582"/>
-      <c r="Q47" s="582"/>
-      <c r="R47" s="582"/>
-      <c r="S47" s="582"/>
-      <c r="T47" s="582"/>
-      <c r="U47" s="582"/>
-      <c r="V47" s="582"/>
-      <c r="W47" s="582"/>
-      <c r="X47" s="582"/>
-      <c r="Y47" s="582"/>
-      <c r="Z47" s="582"/>
+      <c r="A47" s="581"/>
+      <c r="B47" s="581"/>
+      <c r="C47" s="581"/>
+      <c r="D47" s="581"/>
+      <c r="E47" s="581"/>
+      <c r="F47" s="581"/>
+      <c r="G47" s="581"/>
+      <c r="H47" s="581"/>
+      <c r="I47" s="581"/>
+      <c r="J47" s="581"/>
+      <c r="K47" s="581"/>
+      <c r="L47" s="581"/>
+      <c r="M47" s="581"/>
+      <c r="N47" s="581"/>
+      <c r="O47" s="581"/>
+      <c r="P47" s="581"/>
+      <c r="Q47" s="581"/>
+      <c r="R47" s="581"/>
+      <c r="S47" s="581"/>
+      <c r="T47" s="581"/>
+      <c r="U47" s="581"/>
+      <c r="V47" s="581"/>
+      <c r="W47" s="581"/>
+      <c r="X47" s="581"/>
+      <c r="Y47" s="581"/>
+      <c r="Z47" s="581"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="582"/>
-      <c r="B48" s="582"/>
-      <c r="C48" s="582"/>
-      <c r="D48" s="582"/>
-      <c r="E48" s="582"/>
-      <c r="F48" s="582"/>
-      <c r="G48" s="582"/>
-      <c r="H48" s="582"/>
-      <c r="I48" s="582"/>
-      <c r="J48" s="582"/>
-      <c r="K48" s="582"/>
-      <c r="L48" s="582"/>
-      <c r="M48" s="582"/>
-      <c r="N48" s="582"/>
-      <c r="O48" s="582"/>
-      <c r="P48" s="582"/>
-      <c r="Q48" s="582"/>
-      <c r="R48" s="582"/>
-      <c r="S48" s="582"/>
-      <c r="T48" s="582"/>
-      <c r="U48" s="582"/>
-      <c r="V48" s="582"/>
-      <c r="W48" s="582"/>
-      <c r="X48" s="582"/>
-      <c r="Y48" s="582"/>
-      <c r="Z48" s="582"/>
+      <c r="A48" s="581"/>
+      <c r="B48" s="581"/>
+      <c r="C48" s="581"/>
+      <c r="D48" s="581"/>
+      <c r="E48" s="581"/>
+      <c r="F48" s="581"/>
+      <c r="G48" s="581"/>
+      <c r="H48" s="581"/>
+      <c r="I48" s="581"/>
+      <c r="J48" s="581"/>
+      <c r="K48" s="581"/>
+      <c r="L48" s="581"/>
+      <c r="M48" s="581"/>
+      <c r="N48" s="581"/>
+      <c r="O48" s="581"/>
+      <c r="P48" s="581"/>
+      <c r="Q48" s="581"/>
+      <c r="R48" s="581"/>
+      <c r="S48" s="581"/>
+      <c r="T48" s="581"/>
+      <c r="U48" s="581"/>
+      <c r="V48" s="581"/>
+      <c r="W48" s="581"/>
+      <c r="X48" s="581"/>
+      <c r="Y48" s="581"/>
+      <c r="Z48" s="581"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="582"/>
-      <c r="B49" s="582"/>
-      <c r="C49" s="582"/>
-      <c r="D49" s="582"/>
-      <c r="E49" s="582"/>
-      <c r="F49" s="582"/>
-      <c r="G49" s="582"/>
-      <c r="H49" s="582"/>
-      <c r="I49" s="582"/>
-      <c r="J49" s="582"/>
-      <c r="K49" s="582"/>
-      <c r="L49" s="582"/>
-      <c r="M49" s="582"/>
-      <c r="N49" s="582"/>
-      <c r="O49" s="582"/>
-      <c r="P49" s="582"/>
-      <c r="Q49" s="582"/>
-      <c r="R49" s="582"/>
-      <c r="S49" s="582"/>
-      <c r="T49" s="582"/>
-      <c r="U49" s="582"/>
-      <c r="V49" s="582"/>
-      <c r="W49" s="582"/>
-      <c r="X49" s="582"/>
-      <c r="Y49" s="582"/>
-      <c r="Z49" s="582"/>
+      <c r="A49" s="581"/>
+      <c r="B49" s="581"/>
+      <c r="C49" s="581"/>
+      <c r="D49" s="581"/>
+      <c r="E49" s="581"/>
+      <c r="F49" s="581"/>
+      <c r="G49" s="581"/>
+      <c r="H49" s="581"/>
+      <c r="I49" s="581"/>
+      <c r="J49" s="581"/>
+      <c r="K49" s="581"/>
+      <c r="L49" s="581"/>
+      <c r="M49" s="581"/>
+      <c r="N49" s="581"/>
+      <c r="O49" s="581"/>
+      <c r="P49" s="581"/>
+      <c r="Q49" s="581"/>
+      <c r="R49" s="581"/>
+      <c r="S49" s="581"/>
+      <c r="T49" s="581"/>
+      <c r="U49" s="581"/>
+      <c r="V49" s="581"/>
+      <c r="W49" s="581"/>
+      <c r="X49" s="581"/>
+      <c r="Y49" s="581"/>
+      <c r="Z49" s="581"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="582"/>
-      <c r="B50" s="582"/>
-      <c r="C50" s="582"/>
-      <c r="D50" s="582"/>
-      <c r="E50" s="582"/>
-      <c r="F50" s="582"/>
-      <c r="G50" s="582"/>
-      <c r="H50" s="582"/>
-      <c r="I50" s="582"/>
-      <c r="J50" s="582"/>
-      <c r="K50" s="582"/>
-      <c r="L50" s="582"/>
-      <c r="M50" s="582"/>
-      <c r="N50" s="582"/>
-      <c r="O50" s="582"/>
-      <c r="P50" s="582"/>
-      <c r="Q50" s="582"/>
-      <c r="R50" s="582"/>
-      <c r="S50" s="582"/>
-      <c r="T50" s="582"/>
-      <c r="U50" s="582"/>
-      <c r="V50" s="582"/>
-      <c r="W50" s="582"/>
-      <c r="X50" s="582"/>
-      <c r="Y50" s="582"/>
-      <c r="Z50" s="582"/>
+      <c r="A50" s="581"/>
+      <c r="B50" s="581"/>
+      <c r="C50" s="581"/>
+      <c r="D50" s="581"/>
+      <c r="E50" s="581"/>
+      <c r="F50" s="581"/>
+      <c r="G50" s="581"/>
+      <c r="H50" s="581"/>
+      <c r="I50" s="581"/>
+      <c r="J50" s="581"/>
+      <c r="K50" s="581"/>
+      <c r="L50" s="581"/>
+      <c r="M50" s="581"/>
+      <c r="N50" s="581"/>
+      <c r="O50" s="581"/>
+      <c r="P50" s="581"/>
+      <c r="Q50" s="581"/>
+      <c r="R50" s="581"/>
+      <c r="S50" s="581"/>
+      <c r="T50" s="581"/>
+      <c r="U50" s="581"/>
+      <c r="V50" s="581"/>
+      <c r="W50" s="581"/>
+      <c r="X50" s="581"/>
+      <c r="Y50" s="581"/>
+      <c r="Z50" s="581"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="582"/>
-      <c r="B51" s="582"/>
-      <c r="C51" s="582"/>
-      <c r="D51" s="582"/>
-      <c r="E51" s="582"/>
-      <c r="F51" s="582"/>
-      <c r="G51" s="582"/>
-      <c r="H51" s="582"/>
-      <c r="I51" s="582"/>
-      <c r="J51" s="582"/>
-      <c r="K51" s="582"/>
-      <c r="L51" s="582"/>
-      <c r="M51" s="582"/>
-      <c r="N51" s="582"/>
-      <c r="O51" s="582"/>
-      <c r="P51" s="582"/>
-      <c r="Q51" s="582"/>
-      <c r="R51" s="582"/>
-      <c r="S51" s="582"/>
-      <c r="T51" s="582"/>
-      <c r="U51" s="582"/>
-      <c r="V51" s="582"/>
-      <c r="W51" s="582"/>
-      <c r="X51" s="582"/>
-      <c r="Y51" s="582"/>
-      <c r="Z51" s="582"/>
+      <c r="A51" s="581"/>
+      <c r="B51" s="581"/>
+      <c r="C51" s="581"/>
+      <c r="D51" s="581"/>
+      <c r="E51" s="581"/>
+      <c r="F51" s="581"/>
+      <c r="G51" s="581"/>
+      <c r="H51" s="581"/>
+      <c r="I51" s="581"/>
+      <c r="J51" s="581"/>
+      <c r="K51" s="581"/>
+      <c r="L51" s="581"/>
+      <c r="M51" s="581"/>
+      <c r="N51" s="581"/>
+      <c r="O51" s="581"/>
+      <c r="P51" s="581"/>
+      <c r="Q51" s="581"/>
+      <c r="R51" s="581"/>
+      <c r="S51" s="581"/>
+      <c r="T51" s="581"/>
+      <c r="U51" s="581"/>
+      <c r="V51" s="581"/>
+      <c r="W51" s="581"/>
+      <c r="X51" s="581"/>
+      <c r="Y51" s="581"/>
+      <c r="Z51" s="581"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="582"/>
-      <c r="B52" s="582"/>
-      <c r="C52" s="582"/>
-      <c r="D52" s="582"/>
-      <c r="E52" s="582"/>
-      <c r="F52" s="582"/>
-      <c r="G52" s="582"/>
-      <c r="H52" s="582"/>
-      <c r="I52" s="582"/>
-      <c r="J52" s="582"/>
-      <c r="K52" s="582"/>
-      <c r="L52" s="582"/>
-      <c r="M52" s="582"/>
-      <c r="N52" s="582"/>
-      <c r="O52" s="582"/>
-      <c r="P52" s="582"/>
-      <c r="Q52" s="582"/>
-      <c r="R52" s="582"/>
-      <c r="S52" s="582"/>
-      <c r="T52" s="582"/>
-      <c r="U52" s="582"/>
-      <c r="V52" s="582"/>
-      <c r="W52" s="582"/>
-      <c r="X52" s="582"/>
-      <c r="Y52" s="582"/>
-      <c r="Z52" s="582"/>
+      <c r="A52" s="581"/>
+      <c r="B52" s="581"/>
+      <c r="C52" s="581"/>
+      <c r="D52" s="581"/>
+      <c r="E52" s="581"/>
+      <c r="F52" s="581"/>
+      <c r="G52" s="581"/>
+      <c r="H52" s="581"/>
+      <c r="I52" s="581"/>
+      <c r="J52" s="581"/>
+      <c r="K52" s="581"/>
+      <c r="L52" s="581"/>
+      <c r="M52" s="581"/>
+      <c r="N52" s="581"/>
+      <c r="O52" s="581"/>
+      <c r="P52" s="581"/>
+      <c r="Q52" s="581"/>
+      <c r="R52" s="581"/>
+      <c r="S52" s="581"/>
+      <c r="T52" s="581"/>
+      <c r="U52" s="581"/>
+      <c r="V52" s="581"/>
+      <c r="W52" s="581"/>
+      <c r="X52" s="581"/>
+      <c r="Y52" s="581"/>
+      <c r="Z52" s="581"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="582"/>
-      <c r="B53" s="582"/>
-      <c r="C53" s="582"/>
-      <c r="D53" s="582"/>
-      <c r="E53" s="582"/>
-      <c r="F53" s="582"/>
-      <c r="G53" s="582"/>
-      <c r="H53" s="582"/>
-      <c r="I53" s="582"/>
-      <c r="J53" s="582"/>
-      <c r="K53" s="582"/>
-      <c r="L53" s="582"/>
-      <c r="M53" s="582"/>
-      <c r="N53" s="582"/>
-      <c r="O53" s="582"/>
-      <c r="P53" s="582"/>
-      <c r="Q53" s="582"/>
-      <c r="R53" s="582"/>
-      <c r="S53" s="582"/>
-      <c r="T53" s="582"/>
-      <c r="U53" s="582"/>
-      <c r="V53" s="582"/>
-      <c r="W53" s="582"/>
-      <c r="X53" s="582"/>
-      <c r="Y53" s="582"/>
-      <c r="Z53" s="582"/>
+      <c r="A53" s="581"/>
+      <c r="B53" s="581"/>
+      <c r="C53" s="581"/>
+      <c r="D53" s="581"/>
+      <c r="E53" s="581"/>
+      <c r="F53" s="581"/>
+      <c r="G53" s="581"/>
+      <c r="H53" s="581"/>
+      <c r="I53" s="581"/>
+      <c r="J53" s="581"/>
+      <c r="K53" s="581"/>
+      <c r="L53" s="581"/>
+      <c r="M53" s="581"/>
+      <c r="N53" s="581"/>
+      <c r="O53" s="581"/>
+      <c r="P53" s="581"/>
+      <c r="Q53" s="581"/>
+      <c r="R53" s="581"/>
+      <c r="S53" s="581"/>
+      <c r="T53" s="581"/>
+      <c r="U53" s="581"/>
+      <c r="V53" s="581"/>
+      <c r="W53" s="581"/>
+      <c r="X53" s="581"/>
+      <c r="Y53" s="581"/>
+      <c r="Z53" s="581"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="582"/>
-      <c r="B54" s="582"/>
-      <c r="C54" s="582"/>
-      <c r="D54" s="582"/>
-      <c r="E54" s="582"/>
-      <c r="F54" s="582"/>
-      <c r="G54" s="582"/>
-      <c r="H54" s="582"/>
-      <c r="I54" s="582"/>
-      <c r="J54" s="582"/>
-      <c r="K54" s="582"/>
-      <c r="L54" s="582"/>
-      <c r="M54" s="582"/>
-      <c r="N54" s="582"/>
-      <c r="O54" s="582"/>
-      <c r="P54" s="582"/>
-      <c r="Q54" s="582"/>
-      <c r="R54" s="582"/>
-      <c r="S54" s="582"/>
-      <c r="T54" s="582"/>
-      <c r="U54" s="582"/>
-      <c r="V54" s="582"/>
-      <c r="W54" s="582"/>
-      <c r="X54" s="582"/>
-      <c r="Y54" s="582"/>
-      <c r="Z54" s="582"/>
+      <c r="A54" s="581"/>
+      <c r="B54" s="581"/>
+      <c r="C54" s="581"/>
+      <c r="D54" s="581"/>
+      <c r="E54" s="581"/>
+      <c r="F54" s="581"/>
+      <c r="G54" s="581"/>
+      <c r="H54" s="581"/>
+      <c r="I54" s="581"/>
+      <c r="J54" s="581"/>
+      <c r="K54" s="581"/>
+      <c r="L54" s="581"/>
+      <c r="M54" s="581"/>
+      <c r="N54" s="581"/>
+      <c r="O54" s="581"/>
+      <c r="P54" s="581"/>
+      <c r="Q54" s="581"/>
+      <c r="R54" s="581"/>
+      <c r="S54" s="581"/>
+      <c r="T54" s="581"/>
+      <c r="U54" s="581"/>
+      <c r="V54" s="581"/>
+      <c r="W54" s="581"/>
+      <c r="X54" s="581"/>
+      <c r="Y54" s="581"/>
+      <c r="Z54" s="581"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="582"/>
-      <c r="B55" s="582"/>
-      <c r="C55" s="582"/>
-      <c r="D55" s="582"/>
-      <c r="E55" s="582"/>
-      <c r="F55" s="582"/>
-      <c r="G55" s="582"/>
-      <c r="H55" s="582"/>
-      <c r="I55" s="582"/>
-      <c r="J55" s="582"/>
-      <c r="K55" s="582"/>
-      <c r="L55" s="582"/>
-      <c r="M55" s="582"/>
-      <c r="N55" s="582"/>
-      <c r="O55" s="582"/>
-      <c r="P55" s="582"/>
-      <c r="Q55" s="582"/>
-      <c r="R55" s="582"/>
-      <c r="S55" s="582"/>
-      <c r="T55" s="582"/>
-      <c r="U55" s="582"/>
-      <c r="V55" s="582"/>
-      <c r="W55" s="582"/>
-      <c r="X55" s="582"/>
-      <c r="Y55" s="582"/>
-      <c r="Z55" s="582"/>
+      <c r="A55" s="581"/>
+      <c r="B55" s="581"/>
+      <c r="C55" s="581"/>
+      <c r="D55" s="581"/>
+      <c r="E55" s="581"/>
+      <c r="F55" s="581"/>
+      <c r="G55" s="581"/>
+      <c r="H55" s="581"/>
+      <c r="I55" s="581"/>
+      <c r="J55" s="581"/>
+      <c r="K55" s="581"/>
+      <c r="L55" s="581"/>
+      <c r="M55" s="581"/>
+      <c r="N55" s="581"/>
+      <c r="O55" s="581"/>
+      <c r="P55" s="581"/>
+      <c r="Q55" s="581"/>
+      <c r="R55" s="581"/>
+      <c r="S55" s="581"/>
+      <c r="T55" s="581"/>
+      <c r="U55" s="581"/>
+      <c r="V55" s="581"/>
+      <c r="W55" s="581"/>
+      <c r="X55" s="581"/>
+      <c r="Y55" s="581"/>
+      <c r="Z55" s="581"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="582"/>
-      <c r="B56" s="582"/>
-      <c r="C56" s="582"/>
-      <c r="D56" s="582"/>
-      <c r="E56" s="582"/>
-      <c r="F56" s="582"/>
-      <c r="G56" s="582"/>
-      <c r="H56" s="582"/>
-      <c r="I56" s="582"/>
-      <c r="J56" s="582"/>
-      <c r="K56" s="582"/>
-      <c r="L56" s="582"/>
-      <c r="M56" s="582"/>
-      <c r="N56" s="582"/>
-      <c r="O56" s="582"/>
-      <c r="P56" s="582"/>
-      <c r="Q56" s="582"/>
-      <c r="R56" s="582"/>
-      <c r="S56" s="582"/>
-      <c r="T56" s="582"/>
-      <c r="U56" s="582"/>
-      <c r="V56" s="582"/>
-      <c r="W56" s="582"/>
-      <c r="X56" s="582"/>
-      <c r="Y56" s="582"/>
-      <c r="Z56" s="582"/>
+      <c r="A56" s="581"/>
+      <c r="B56" s="581"/>
+      <c r="C56" s="581"/>
+      <c r="D56" s="581"/>
+      <c r="E56" s="581"/>
+      <c r="F56" s="581"/>
+      <c r="G56" s="581"/>
+      <c r="H56" s="581"/>
+      <c r="I56" s="581"/>
+      <c r="J56" s="581"/>
+      <c r="K56" s="581"/>
+      <c r="L56" s="581"/>
+      <c r="M56" s="581"/>
+      <c r="N56" s="581"/>
+      <c r="O56" s="581"/>
+      <c r="P56" s="581"/>
+      <c r="Q56" s="581"/>
+      <c r="R56" s="581"/>
+      <c r="S56" s="581"/>
+      <c r="T56" s="581"/>
+      <c r="U56" s="581"/>
+      <c r="V56" s="581"/>
+      <c r="W56" s="581"/>
+      <c r="X56" s="581"/>
+      <c r="Y56" s="581"/>
+      <c r="Z56" s="581"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="582"/>
-      <c r="B57" s="582"/>
-      <c r="C57" s="582"/>
-      <c r="D57" s="582"/>
-      <c r="E57" s="582"/>
-      <c r="F57" s="582"/>
-      <c r="G57" s="582"/>
-      <c r="H57" s="582"/>
-      <c r="I57" s="582"/>
-      <c r="J57" s="582"/>
-      <c r="K57" s="582"/>
-      <c r="L57" s="582"/>
-      <c r="M57" s="582"/>
-      <c r="N57" s="582"/>
-      <c r="O57" s="582"/>
-      <c r="P57" s="582"/>
-      <c r="Q57" s="582"/>
-      <c r="R57" s="582"/>
-      <c r="S57" s="582"/>
-      <c r="T57" s="582"/>
-      <c r="U57" s="582"/>
-      <c r="V57" s="582"/>
-      <c r="W57" s="582"/>
-      <c r="X57" s="582"/>
-      <c r="Y57" s="582"/>
-      <c r="Z57" s="582"/>
+      <c r="A57" s="581"/>
+      <c r="B57" s="581"/>
+      <c r="C57" s="581"/>
+      <c r="D57" s="581"/>
+      <c r="E57" s="581"/>
+      <c r="F57" s="581"/>
+      <c r="G57" s="581"/>
+      <c r="H57" s="581"/>
+      <c r="I57" s="581"/>
+      <c r="J57" s="581"/>
+      <c r="K57" s="581"/>
+      <c r="L57" s="581"/>
+      <c r="M57" s="581"/>
+      <c r="N57" s="581"/>
+      <c r="O57" s="581"/>
+      <c r="P57" s="581"/>
+      <c r="Q57" s="581"/>
+      <c r="R57" s="581"/>
+      <c r="S57" s="581"/>
+      <c r="T57" s="581"/>
+      <c r="U57" s="581"/>
+      <c r="V57" s="581"/>
+      <c r="W57" s="581"/>
+      <c r="X57" s="581"/>
+      <c r="Y57" s="581"/>
+      <c r="Z57" s="581"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="582"/>
-      <c r="B58" s="582"/>
-      <c r="C58" s="582"/>
-      <c r="D58" s="582"/>
-      <c r="E58" s="582"/>
-      <c r="F58" s="582"/>
-      <c r="G58" s="582"/>
-      <c r="H58" s="582"/>
-      <c r="I58" s="582"/>
-      <c r="J58" s="582"/>
-      <c r="K58" s="582"/>
-      <c r="L58" s="582"/>
-      <c r="M58" s="582"/>
-      <c r="N58" s="582"/>
-      <c r="O58" s="582"/>
-      <c r="P58" s="582"/>
-      <c r="Q58" s="582"/>
-      <c r="R58" s="582"/>
-      <c r="S58" s="582"/>
-      <c r="T58" s="582"/>
-      <c r="U58" s="582"/>
-      <c r="V58" s="582"/>
-      <c r="W58" s="582"/>
-      <c r="X58" s="582"/>
-      <c r="Y58" s="582"/>
-      <c r="Z58" s="582"/>
+      <c r="A58" s="581"/>
+      <c r="B58" s="581"/>
+      <c r="C58" s="581"/>
+      <c r="D58" s="581"/>
+      <c r="E58" s="581"/>
+      <c r="F58" s="581"/>
+      <c r="G58" s="581"/>
+      <c r="H58" s="581"/>
+      <c r="I58" s="581"/>
+      <c r="J58" s="581"/>
+      <c r="K58" s="581"/>
+      <c r="L58" s="581"/>
+      <c r="M58" s="581"/>
+      <c r="N58" s="581"/>
+      <c r="O58" s="581"/>
+      <c r="P58" s="581"/>
+      <c r="Q58" s="581"/>
+      <c r="R58" s="581"/>
+      <c r="S58" s="581"/>
+      <c r="T58" s="581"/>
+      <c r="U58" s="581"/>
+      <c r="V58" s="581"/>
+      <c r="W58" s="581"/>
+      <c r="X58" s="581"/>
+      <c r="Y58" s="581"/>
+      <c r="Z58" s="581"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="582"/>
-      <c r="B59" s="582"/>
-      <c r="C59" s="582"/>
-      <c r="D59" s="582"/>
-      <c r="E59" s="582"/>
-      <c r="F59" s="582"/>
-      <c r="G59" s="582"/>
-      <c r="H59" s="582"/>
-      <c r="I59" s="582"/>
-      <c r="J59" s="582"/>
-      <c r="K59" s="582"/>
-      <c r="L59" s="582"/>
-      <c r="M59" s="582"/>
-      <c r="N59" s="582"/>
-      <c r="O59" s="582"/>
-      <c r="P59" s="582"/>
-      <c r="Q59" s="582"/>
-      <c r="R59" s="582"/>
-      <c r="S59" s="582"/>
-      <c r="T59" s="582"/>
-      <c r="U59" s="582"/>
-      <c r="V59" s="582"/>
-      <c r="W59" s="582"/>
-      <c r="X59" s="582"/>
-      <c r="Y59" s="582"/>
-      <c r="Z59" s="582"/>
+      <c r="A59" s="581"/>
+      <c r="B59" s="581"/>
+      <c r="C59" s="581"/>
+      <c r="D59" s="581"/>
+      <c r="E59" s="581"/>
+      <c r="F59" s="581"/>
+      <c r="G59" s="581"/>
+      <c r="H59" s="581"/>
+      <c r="I59" s="581"/>
+      <c r="J59" s="581"/>
+      <c r="K59" s="581"/>
+      <c r="L59" s="581"/>
+      <c r="M59" s="581"/>
+      <c r="N59" s="581"/>
+      <c r="O59" s="581"/>
+      <c r="P59" s="581"/>
+      <c r="Q59" s="581"/>
+      <c r="R59" s="581"/>
+      <c r="S59" s="581"/>
+      <c r="T59" s="581"/>
+      <c r="U59" s="581"/>
+      <c r="V59" s="581"/>
+      <c r="W59" s="581"/>
+      <c r="X59" s="581"/>
+      <c r="Y59" s="581"/>
+      <c r="Z59" s="581"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="582"/>
-      <c r="B60" s="582"/>
-      <c r="C60" s="582"/>
-      <c r="D60" s="582"/>
-      <c r="E60" s="582"/>
-      <c r="F60" s="582"/>
-      <c r="G60" s="582"/>
-      <c r="H60" s="582"/>
-      <c r="I60" s="582"/>
-      <c r="J60" s="582"/>
-      <c r="K60" s="582"/>
-      <c r="L60" s="582"/>
-      <c r="M60" s="582"/>
-      <c r="N60" s="582"/>
-      <c r="O60" s="582"/>
-      <c r="P60" s="582"/>
-      <c r="Q60" s="582"/>
-      <c r="R60" s="582"/>
-      <c r="S60" s="582"/>
-      <c r="T60" s="582"/>
-      <c r="U60" s="582"/>
-      <c r="V60" s="582"/>
-      <c r="W60" s="582"/>
-      <c r="X60" s="582"/>
-      <c r="Y60" s="582"/>
-      <c r="Z60" s="582"/>
+      <c r="A60" s="581"/>
+      <c r="B60" s="581"/>
+      <c r="C60" s="581"/>
+      <c r="D60" s="581"/>
+      <c r="E60" s="581"/>
+      <c r="F60" s="581"/>
+      <c r="G60" s="581"/>
+      <c r="H60" s="581"/>
+      <c r="I60" s="581"/>
+      <c r="J60" s="581"/>
+      <c r="K60" s="581"/>
+      <c r="L60" s="581"/>
+      <c r="M60" s="581"/>
+      <c r="N60" s="581"/>
+      <c r="O60" s="581"/>
+      <c r="P60" s="581"/>
+      <c r="Q60" s="581"/>
+      <c r="R60" s="581"/>
+      <c r="S60" s="581"/>
+      <c r="T60" s="581"/>
+      <c r="U60" s="581"/>
+      <c r="V60" s="581"/>
+      <c r="W60" s="581"/>
+      <c r="X60" s="581"/>
+      <c r="Y60" s="581"/>
+      <c r="Z60" s="581"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="582"/>
-      <c r="B61" s="582"/>
-      <c r="C61" s="582"/>
-      <c r="D61" s="582"/>
-      <c r="E61" s="582"/>
-      <c r="F61" s="582"/>
-      <c r="G61" s="582"/>
-      <c r="H61" s="582"/>
-      <c r="I61" s="582"/>
-      <c r="J61" s="582"/>
-      <c r="K61" s="582"/>
-      <c r="L61" s="582"/>
-      <c r="M61" s="582"/>
-      <c r="N61" s="582"/>
-      <c r="O61" s="582"/>
-      <c r="P61" s="582"/>
-      <c r="Q61" s="582"/>
-      <c r="R61" s="582"/>
-      <c r="S61" s="582"/>
-      <c r="T61" s="582"/>
-      <c r="U61" s="582"/>
-      <c r="V61" s="582"/>
-      <c r="W61" s="582"/>
-      <c r="X61" s="582"/>
-      <c r="Y61" s="582"/>
-      <c r="Z61" s="582"/>
+      <c r="A61" s="581"/>
+      <c r="B61" s="581"/>
+      <c r="C61" s="581"/>
+      <c r="D61" s="581"/>
+      <c r="E61" s="581"/>
+      <c r="F61" s="581"/>
+      <c r="G61" s="581"/>
+      <c r="H61" s="581"/>
+      <c r="I61" s="581"/>
+      <c r="J61" s="581"/>
+      <c r="K61" s="581"/>
+      <c r="L61" s="581"/>
+      <c r="M61" s="581"/>
+      <c r="N61" s="581"/>
+      <c r="O61" s="581"/>
+      <c r="P61" s="581"/>
+      <c r="Q61" s="581"/>
+      <c r="R61" s="581"/>
+      <c r="S61" s="581"/>
+      <c r="T61" s="581"/>
+      <c r="U61" s="581"/>
+      <c r="V61" s="581"/>
+      <c r="W61" s="581"/>
+      <c r="X61" s="581"/>
+      <c r="Y61" s="581"/>
+      <c r="Z61" s="581"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="582"/>
-      <c r="B62" s="582"/>
-      <c r="C62" s="582"/>
-      <c r="D62" s="582"/>
-      <c r="E62" s="582"/>
-      <c r="F62" s="582"/>
-      <c r="G62" s="582"/>
-      <c r="H62" s="582"/>
-      <c r="I62" s="582"/>
-      <c r="J62" s="582"/>
-      <c r="K62" s="582"/>
-      <c r="L62" s="582"/>
-      <c r="M62" s="582"/>
-      <c r="N62" s="582"/>
-      <c r="O62" s="582"/>
-      <c r="P62" s="582"/>
-      <c r="Q62" s="582"/>
-      <c r="R62" s="582"/>
-      <c r="S62" s="582"/>
-      <c r="T62" s="582"/>
-      <c r="U62" s="582"/>
-      <c r="V62" s="582"/>
-      <c r="W62" s="582"/>
-      <c r="X62" s="582"/>
-      <c r="Y62" s="582"/>
-      <c r="Z62" s="582"/>
+      <c r="A62" s="581"/>
+      <c r="B62" s="581"/>
+      <c r="C62" s="581"/>
+      <c r="D62" s="581"/>
+      <c r="E62" s="581"/>
+      <c r="F62" s="581"/>
+      <c r="G62" s="581"/>
+      <c r="H62" s="581"/>
+      <c r="I62" s="581"/>
+      <c r="J62" s="581"/>
+      <c r="K62" s="581"/>
+      <c r="L62" s="581"/>
+      <c r="M62" s="581"/>
+      <c r="N62" s="581"/>
+      <c r="O62" s="581"/>
+      <c r="P62" s="581"/>
+      <c r="Q62" s="581"/>
+      <c r="R62" s="581"/>
+      <c r="S62" s="581"/>
+      <c r="T62" s="581"/>
+      <c r="U62" s="581"/>
+      <c r="V62" s="581"/>
+      <c r="W62" s="581"/>
+      <c r="X62" s="581"/>
+      <c r="Y62" s="581"/>
+      <c r="Z62" s="581"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="582"/>
-      <c r="B63" s="582"/>
-      <c r="C63" s="582"/>
-      <c r="D63" s="582"/>
-      <c r="E63" s="582"/>
-      <c r="F63" s="582"/>
-      <c r="G63" s="582"/>
-      <c r="H63" s="582"/>
-      <c r="I63" s="582"/>
-      <c r="J63" s="582"/>
-      <c r="K63" s="582"/>
-      <c r="L63" s="582"/>
-      <c r="M63" s="582"/>
-      <c r="N63" s="582"/>
-      <c r="O63" s="582"/>
-      <c r="P63" s="582"/>
-      <c r="Q63" s="582"/>
-      <c r="R63" s="582"/>
-      <c r="S63" s="582"/>
-      <c r="T63" s="582"/>
-      <c r="U63" s="582"/>
-      <c r="V63" s="582"/>
-      <c r="W63" s="582"/>
-      <c r="X63" s="582"/>
-      <c r="Y63" s="582"/>
-      <c r="Z63" s="582"/>
+      <c r="A63" s="581"/>
+      <c r="B63" s="581"/>
+      <c r="C63" s="581"/>
+      <c r="D63" s="581"/>
+      <c r="E63" s="581"/>
+      <c r="F63" s="581"/>
+      <c r="G63" s="581"/>
+      <c r="H63" s="581"/>
+      <c r="I63" s="581"/>
+      <c r="J63" s="581"/>
+      <c r="K63" s="581"/>
+      <c r="L63" s="581"/>
+      <c r="M63" s="581"/>
+      <c r="N63" s="581"/>
+      <c r="O63" s="581"/>
+      <c r="P63" s="581"/>
+      <c r="Q63" s="581"/>
+      <c r="R63" s="581"/>
+      <c r="S63" s="581"/>
+      <c r="T63" s="581"/>
+      <c r="U63" s="581"/>
+      <c r="V63" s="581"/>
+      <c r="W63" s="581"/>
+      <c r="X63" s="581"/>
+      <c r="Y63" s="581"/>
+      <c r="Z63" s="581"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="582"/>
-      <c r="B64" s="582"/>
-      <c r="C64" s="582"/>
-      <c r="D64" s="582"/>
-      <c r="E64" s="582"/>
-      <c r="F64" s="582"/>
-      <c r="G64" s="582"/>
-      <c r="H64" s="582"/>
-      <c r="I64" s="582"/>
-      <c r="J64" s="582"/>
-      <c r="K64" s="582"/>
-      <c r="L64" s="582"/>
-      <c r="M64" s="582"/>
-      <c r="N64" s="582"/>
-      <c r="O64" s="582"/>
-      <c r="P64" s="582"/>
-      <c r="Q64" s="582"/>
-      <c r="R64" s="582"/>
-      <c r="S64" s="582"/>
-      <c r="T64" s="582"/>
-      <c r="U64" s="582"/>
-      <c r="V64" s="582"/>
-      <c r="W64" s="582"/>
-      <c r="X64" s="582"/>
-      <c r="Y64" s="582"/>
-      <c r="Z64" s="582"/>
+      <c r="A64" s="581"/>
+      <c r="B64" s="581"/>
+      <c r="C64" s="581"/>
+      <c r="D64" s="581"/>
+      <c r="E64" s="581"/>
+      <c r="F64" s="581"/>
+      <c r="G64" s="581"/>
+      <c r="H64" s="581"/>
+      <c r="I64" s="581"/>
+      <c r="J64" s="581"/>
+      <c r="K64" s="581"/>
+      <c r="L64" s="581"/>
+      <c r="M64" s="581"/>
+      <c r="N64" s="581"/>
+      <c r="O64" s="581"/>
+      <c r="P64" s="581"/>
+      <c r="Q64" s="581"/>
+      <c r="R64" s="581"/>
+      <c r="S64" s="581"/>
+      <c r="T64" s="581"/>
+      <c r="U64" s="581"/>
+      <c r="V64" s="581"/>
+      <c r="W64" s="581"/>
+      <c r="X64" s="581"/>
+      <c r="Y64" s="581"/>
+      <c r="Z64" s="581"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="582"/>
-      <c r="B65" s="582"/>
-      <c r="C65" s="582"/>
-      <c r="D65" s="582"/>
-      <c r="E65" s="582"/>
-      <c r="F65" s="582"/>
-      <c r="G65" s="582"/>
-      <c r="H65" s="582"/>
-      <c r="I65" s="582"/>
-      <c r="J65" s="582"/>
-      <c r="K65" s="582"/>
-      <c r="L65" s="582"/>
-      <c r="M65" s="582"/>
-      <c r="N65" s="582"/>
-      <c r="O65" s="582"/>
-      <c r="P65" s="582"/>
-      <c r="Q65" s="582"/>
-      <c r="R65" s="582"/>
-      <c r="S65" s="582"/>
-      <c r="T65" s="582"/>
-      <c r="U65" s="582"/>
-      <c r="V65" s="582"/>
-      <c r="W65" s="582"/>
-      <c r="X65" s="582"/>
-      <c r="Y65" s="582"/>
-      <c r="Z65" s="582"/>
+      <c r="A65" s="581"/>
+      <c r="B65" s="581"/>
+      <c r="C65" s="581"/>
+      <c r="D65" s="581"/>
+      <c r="E65" s="581"/>
+      <c r="F65" s="581"/>
+      <c r="G65" s="581"/>
+      <c r="H65" s="581"/>
+      <c r="I65" s="581"/>
+      <c r="J65" s="581"/>
+      <c r="K65" s="581"/>
+      <c r="L65" s="581"/>
+      <c r="M65" s="581"/>
+      <c r="N65" s="581"/>
+      <c r="O65" s="581"/>
+      <c r="P65" s="581"/>
+      <c r="Q65" s="581"/>
+      <c r="R65" s="581"/>
+      <c r="S65" s="581"/>
+      <c r="T65" s="581"/>
+      <c r="U65" s="581"/>
+      <c r="V65" s="581"/>
+      <c r="W65" s="581"/>
+      <c r="X65" s="581"/>
+      <c r="Y65" s="581"/>
+      <c r="Z65" s="581"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="582"/>
-      <c r="B66" s="582"/>
-      <c r="C66" s="582"/>
-      <c r="D66" s="582"/>
-      <c r="E66" s="582"/>
-      <c r="F66" s="582"/>
-      <c r="G66" s="582"/>
-      <c r="H66" s="582"/>
-      <c r="I66" s="582"/>
-      <c r="J66" s="582"/>
-      <c r="K66" s="582"/>
-      <c r="L66" s="582"/>
-      <c r="M66" s="582"/>
-      <c r="N66" s="582"/>
-      <c r="O66" s="582"/>
-      <c r="P66" s="582"/>
-      <c r="Q66" s="582"/>
-      <c r="R66" s="582"/>
-      <c r="S66" s="582"/>
-      <c r="T66" s="582"/>
-      <c r="U66" s="582"/>
-      <c r="V66" s="582"/>
-      <c r="W66" s="582"/>
-      <c r="X66" s="582"/>
-      <c r="Y66" s="582"/>
-      <c r="Z66" s="582"/>
+      <c r="A66" s="581"/>
+      <c r="B66" s="581"/>
+      <c r="C66" s="581"/>
+      <c r="D66" s="581"/>
+      <c r="E66" s="581"/>
+      <c r="F66" s="581"/>
+      <c r="G66" s="581"/>
+      <c r="H66" s="581"/>
+      <c r="I66" s="581"/>
+      <c r="J66" s="581"/>
+      <c r="K66" s="581"/>
+      <c r="L66" s="581"/>
+      <c r="M66" s="581"/>
+      <c r="N66" s="581"/>
+      <c r="O66" s="581"/>
+      <c r="P66" s="581"/>
+      <c r="Q66" s="581"/>
+      <c r="R66" s="581"/>
+      <c r="S66" s="581"/>
+      <c r="T66" s="581"/>
+      <c r="U66" s="581"/>
+      <c r="V66" s="581"/>
+      <c r="W66" s="581"/>
+      <c r="X66" s="581"/>
+      <c r="Y66" s="581"/>
+      <c r="Z66" s="581"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="582"/>
-      <c r="B67" s="582"/>
-      <c r="C67" s="582"/>
-      <c r="D67" s="582"/>
-      <c r="E67" s="582"/>
-      <c r="F67" s="582"/>
-      <c r="G67" s="582"/>
-      <c r="H67" s="582"/>
-      <c r="I67" s="582"/>
-      <c r="J67" s="582"/>
-      <c r="K67" s="582"/>
-      <c r="L67" s="582"/>
-      <c r="M67" s="582"/>
-      <c r="N67" s="582"/>
-      <c r="O67" s="582"/>
-      <c r="P67" s="582"/>
-      <c r="Q67" s="582"/>
-      <c r="R67" s="582"/>
-      <c r="S67" s="582"/>
-      <c r="T67" s="582"/>
-      <c r="U67" s="582"/>
-      <c r="V67" s="582"/>
-      <c r="W67" s="582"/>
-      <c r="X67" s="582"/>
-      <c r="Y67" s="582"/>
-      <c r="Z67" s="582"/>
+      <c r="A67" s="581"/>
+      <c r="B67" s="581"/>
+      <c r="C67" s="581"/>
+      <c r="D67" s="581"/>
+      <c r="E67" s="581"/>
+      <c r="F67" s="581"/>
+      <c r="G67" s="581"/>
+      <c r="H67" s="581"/>
+      <c r="I67" s="581"/>
+      <c r="J67" s="581"/>
+      <c r="K67" s="581"/>
+      <c r="L67" s="581"/>
+      <c r="M67" s="581"/>
+      <c r="N67" s="581"/>
+      <c r="O67" s="581"/>
+      <c r="P67" s="581"/>
+      <c r="Q67" s="581"/>
+      <c r="R67" s="581"/>
+      <c r="S67" s="581"/>
+      <c r="T67" s="581"/>
+      <c r="U67" s="581"/>
+      <c r="V67" s="581"/>
+      <c r="W67" s="581"/>
+      <c r="X67" s="581"/>
+      <c r="Y67" s="581"/>
+      <c r="Z67" s="581"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="582"/>
-      <c r="B68" s="582"/>
-      <c r="C68" s="582"/>
-      <c r="D68" s="582"/>
-      <c r="E68" s="582"/>
-      <c r="F68" s="582"/>
-      <c r="G68" s="582"/>
-      <c r="H68" s="582"/>
-      <c r="I68" s="582"/>
-      <c r="J68" s="582"/>
-      <c r="K68" s="582"/>
-      <c r="L68" s="582"/>
-      <c r="M68" s="582"/>
-      <c r="N68" s="582"/>
-      <c r="O68" s="582"/>
-      <c r="P68" s="582"/>
-      <c r="Q68" s="582"/>
-      <c r="R68" s="582"/>
-      <c r="S68" s="582"/>
-      <c r="T68" s="582"/>
-      <c r="U68" s="582"/>
-      <c r="V68" s="582"/>
-      <c r="W68" s="582"/>
-      <c r="X68" s="582"/>
-      <c r="Y68" s="582"/>
-      <c r="Z68" s="582"/>
+      <c r="A68" s="581"/>
+      <c r="B68" s="581"/>
+      <c r="C68" s="581"/>
+      <c r="D68" s="581"/>
+      <c r="E68" s="581"/>
+      <c r="F68" s="581"/>
+      <c r="G68" s="581"/>
+      <c r="H68" s="581"/>
+      <c r="I68" s="581"/>
+      <c r="J68" s="581"/>
+      <c r="K68" s="581"/>
+      <c r="L68" s="581"/>
+      <c r="M68" s="581"/>
+      <c r="N68" s="581"/>
+      <c r="O68" s="581"/>
+      <c r="P68" s="581"/>
+      <c r="Q68" s="581"/>
+      <c r="R68" s="581"/>
+      <c r="S68" s="581"/>
+      <c r="T68" s="581"/>
+      <c r="U68" s="581"/>
+      <c r="V68" s="581"/>
+      <c r="W68" s="581"/>
+      <c r="X68" s="581"/>
+      <c r="Y68" s="581"/>
+      <c r="Z68" s="581"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="582"/>
-      <c r="B69" s="582"/>
-      <c r="C69" s="582"/>
-      <c r="D69" s="582"/>
-      <c r="E69" s="582"/>
-      <c r="F69" s="582"/>
-      <c r="G69" s="582"/>
-      <c r="H69" s="582"/>
-      <c r="I69" s="582"/>
-      <c r="J69" s="582"/>
-      <c r="K69" s="582"/>
-      <c r="L69" s="582"/>
-      <c r="M69" s="582"/>
-      <c r="N69" s="582"/>
-      <c r="O69" s="582"/>
-      <c r="P69" s="582"/>
-      <c r="Q69" s="582"/>
-      <c r="R69" s="582"/>
-      <c r="S69" s="582"/>
-      <c r="T69" s="582"/>
-      <c r="U69" s="582"/>
-      <c r="V69" s="582"/>
-      <c r="W69" s="582"/>
-      <c r="X69" s="582"/>
-      <c r="Y69" s="582"/>
-      <c r="Z69" s="582"/>
+      <c r="A69" s="581"/>
+      <c r="B69" s="581"/>
+      <c r="C69" s="581"/>
+      <c r="D69" s="581"/>
+      <c r="E69" s="581"/>
+      <c r="F69" s="581"/>
+      <c r="G69" s="581"/>
+      <c r="H69" s="581"/>
+      <c r="I69" s="581"/>
+      <c r="J69" s="581"/>
+      <c r="K69" s="581"/>
+      <c r="L69" s="581"/>
+      <c r="M69" s="581"/>
+      <c r="N69" s="581"/>
+      <c r="O69" s="581"/>
+      <c r="P69" s="581"/>
+      <c r="Q69" s="581"/>
+      <c r="R69" s="581"/>
+      <c r="S69" s="581"/>
+      <c r="T69" s="581"/>
+      <c r="U69" s="581"/>
+      <c r="V69" s="581"/>
+      <c r="W69" s="581"/>
+      <c r="X69" s="581"/>
+      <c r="Y69" s="581"/>
+      <c r="Z69" s="581"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="582"/>
-      <c r="B70" s="582"/>
-      <c r="C70" s="582"/>
-      <c r="D70" s="582"/>
-      <c r="E70" s="582"/>
-      <c r="F70" s="582"/>
-      <c r="G70" s="582"/>
-      <c r="H70" s="582"/>
-      <c r="I70" s="582"/>
-      <c r="J70" s="582"/>
-      <c r="K70" s="582"/>
-      <c r="L70" s="582"/>
-      <c r="M70" s="582"/>
-      <c r="N70" s="582"/>
-      <c r="O70" s="582"/>
-      <c r="P70" s="582"/>
-      <c r="Q70" s="582"/>
-      <c r="R70" s="582"/>
-      <c r="S70" s="582"/>
-      <c r="T70" s="582"/>
-      <c r="U70" s="582"/>
-      <c r="V70" s="582"/>
-      <c r="W70" s="582"/>
-      <c r="X70" s="582"/>
-      <c r="Y70" s="582"/>
-      <c r="Z70" s="582"/>
+      <c r="A70" s="581"/>
+      <c r="B70" s="581"/>
+      <c r="C70" s="581"/>
+      <c r="D70" s="581"/>
+      <c r="E70" s="581"/>
+      <c r="F70" s="581"/>
+      <c r="G70" s="581"/>
+      <c r="H70" s="581"/>
+      <c r="I70" s="581"/>
+      <c r="J70" s="581"/>
+      <c r="K70" s="581"/>
+      <c r="L70" s="581"/>
+      <c r="M70" s="581"/>
+      <c r="N70" s="581"/>
+      <c r="O70" s="581"/>
+      <c r="P70" s="581"/>
+      <c r="Q70" s="581"/>
+      <c r="R70" s="581"/>
+      <c r="S70" s="581"/>
+      <c r="T70" s="581"/>
+      <c r="U70" s="581"/>
+      <c r="V70" s="581"/>
+      <c r="W70" s="581"/>
+      <c r="X70" s="581"/>
+      <c r="Y70" s="581"/>
+      <c r="Z70" s="581"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="582"/>
-      <c r="B71" s="582"/>
-      <c r="C71" s="582"/>
-      <c r="D71" s="582"/>
-      <c r="E71" s="582"/>
-      <c r="F71" s="582"/>
-      <c r="G71" s="582"/>
-      <c r="H71" s="582"/>
-      <c r="I71" s="582"/>
-      <c r="J71" s="582"/>
-      <c r="K71" s="582"/>
-      <c r="L71" s="582"/>
-      <c r="M71" s="582"/>
-      <c r="N71" s="582"/>
-      <c r="O71" s="582"/>
-      <c r="P71" s="582"/>
-      <c r="Q71" s="582"/>
-      <c r="R71" s="582"/>
-      <c r="S71" s="582"/>
-      <c r="T71" s="582"/>
-      <c r="U71" s="582"/>
-      <c r="V71" s="582"/>
-      <c r="W71" s="582"/>
-      <c r="X71" s="582"/>
-      <c r="Y71" s="582"/>
-      <c r="Z71" s="582"/>
+      <c r="A71" s="581"/>
+      <c r="B71" s="581"/>
+      <c r="C71" s="581"/>
+      <c r="D71" s="581"/>
+      <c r="E71" s="581"/>
+      <c r="F71" s="581"/>
+      <c r="G71" s="581"/>
+      <c r="H71" s="581"/>
+      <c r="I71" s="581"/>
+      <c r="J71" s="581"/>
+      <c r="K71" s="581"/>
+      <c r="L71" s="581"/>
+      <c r="M71" s="581"/>
+      <c r="N71" s="581"/>
+      <c r="O71" s="581"/>
+      <c r="P71" s="581"/>
+      <c r="Q71" s="581"/>
+      <c r="R71" s="581"/>
+      <c r="S71" s="581"/>
+      <c r="T71" s="581"/>
+      <c r="U71" s="581"/>
+      <c r="V71" s="581"/>
+      <c r="W71" s="581"/>
+      <c r="X71" s="581"/>
+      <c r="Y71" s="581"/>
+      <c r="Z71" s="581"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="582"/>
-      <c r="B72" s="582"/>
-      <c r="C72" s="582"/>
-      <c r="D72" s="582"/>
-      <c r="E72" s="582"/>
-      <c r="F72" s="582"/>
-      <c r="G72" s="582"/>
-      <c r="H72" s="582"/>
-      <c r="I72" s="582"/>
-      <c r="J72" s="582"/>
-      <c r="K72" s="582"/>
-      <c r="L72" s="582"/>
-      <c r="M72" s="582"/>
-      <c r="N72" s="582"/>
-      <c r="O72" s="582"/>
-      <c r="P72" s="582"/>
-      <c r="Q72" s="582"/>
-      <c r="R72" s="582"/>
-      <c r="S72" s="582"/>
-      <c r="T72" s="582"/>
-      <c r="U72" s="582"/>
-      <c r="V72" s="582"/>
-      <c r="W72" s="582"/>
-      <c r="X72" s="582"/>
-      <c r="Y72" s="582"/>
-      <c r="Z72" s="582"/>
+      <c r="A72" s="581"/>
+      <c r="B72" s="581"/>
+      <c r="C72" s="581"/>
+      <c r="D72" s="581"/>
+      <c r="E72" s="581"/>
+      <c r="F72" s="581"/>
+      <c r="G72" s="581"/>
+      <c r="H72" s="581"/>
+      <c r="I72" s="581"/>
+      <c r="J72" s="581"/>
+      <c r="K72" s="581"/>
+      <c r="L72" s="581"/>
+      <c r="M72" s="581"/>
+      <c r="N72" s="581"/>
+      <c r="O72" s="581"/>
+      <c r="P72" s="581"/>
+      <c r="Q72" s="581"/>
+      <c r="R72" s="581"/>
+      <c r="S72" s="581"/>
+      <c r="T72" s="581"/>
+      <c r="U72" s="581"/>
+      <c r="V72" s="581"/>
+      <c r="W72" s="581"/>
+      <c r="X72" s="581"/>
+      <c r="Y72" s="581"/>
+      <c r="Z72" s="581"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="582"/>
-      <c r="B73" s="582"/>
-      <c r="C73" s="582"/>
-      <c r="D73" s="582"/>
-      <c r="E73" s="582"/>
-      <c r="F73" s="582"/>
-      <c r="G73" s="582"/>
-      <c r="H73" s="582"/>
-      <c r="I73" s="582"/>
-      <c r="J73" s="582"/>
-      <c r="K73" s="582"/>
-      <c r="L73" s="582"/>
-      <c r="M73" s="582"/>
-      <c r="N73" s="582"/>
-      <c r="O73" s="582"/>
-      <c r="P73" s="582"/>
-      <c r="Q73" s="582"/>
-      <c r="R73" s="582"/>
-      <c r="S73" s="582"/>
-      <c r="T73" s="582"/>
-      <c r="U73" s="582"/>
-      <c r="V73" s="582"/>
-      <c r="W73" s="582"/>
-      <c r="X73" s="582"/>
-      <c r="Y73" s="582"/>
-      <c r="Z73" s="582"/>
+      <c r="A73" s="581"/>
+      <c r="B73" s="581"/>
+      <c r="C73" s="581"/>
+      <c r="D73" s="581"/>
+      <c r="E73" s="581"/>
+      <c r="F73" s="581"/>
+      <c r="G73" s="581"/>
+      <c r="H73" s="581"/>
+      <c r="I73" s="581"/>
+      <c r="J73" s="581"/>
+      <c r="K73" s="581"/>
+      <c r="L73" s="581"/>
+      <c r="M73" s="581"/>
+      <c r="N73" s="581"/>
+      <c r="O73" s="581"/>
+      <c r="P73" s="581"/>
+      <c r="Q73" s="581"/>
+      <c r="R73" s="581"/>
+      <c r="S73" s="581"/>
+      <c r="T73" s="581"/>
+      <c r="U73" s="581"/>
+      <c r="V73" s="581"/>
+      <c r="W73" s="581"/>
+      <c r="X73" s="581"/>
+      <c r="Y73" s="581"/>
+      <c r="Z73" s="581"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="582"/>
-      <c r="B74" s="582"/>
-      <c r="C74" s="582"/>
-      <c r="D74" s="582"/>
-      <c r="E74" s="582"/>
-      <c r="F74" s="582"/>
-      <c r="G74" s="582"/>
-      <c r="H74" s="582"/>
-      <c r="I74" s="582"/>
-      <c r="J74" s="582"/>
-      <c r="K74" s="582"/>
-      <c r="L74" s="582"/>
-      <c r="M74" s="582"/>
-      <c r="N74" s="582"/>
-      <c r="O74" s="582"/>
-      <c r="P74" s="582"/>
-      <c r="Q74" s="582"/>
-      <c r="R74" s="582"/>
-      <c r="S74" s="582"/>
-      <c r="T74" s="582"/>
-      <c r="U74" s="582"/>
-      <c r="V74" s="582"/>
-      <c r="W74" s="582"/>
-      <c r="X74" s="582"/>
-      <c r="Y74" s="582"/>
-      <c r="Z74" s="582"/>
+      <c r="A74" s="581"/>
+      <c r="B74" s="581"/>
+      <c r="C74" s="581"/>
+      <c r="D74" s="581"/>
+      <c r="E74" s="581"/>
+      <c r="F74" s="581"/>
+      <c r="G74" s="581"/>
+      <c r="H74" s="581"/>
+      <c r="I74" s="581"/>
+      <c r="J74" s="581"/>
+      <c r="K74" s="581"/>
+      <c r="L74" s="581"/>
+      <c r="M74" s="581"/>
+      <c r="N74" s="581"/>
+      <c r="O74" s="581"/>
+      <c r="P74" s="581"/>
+      <c r="Q74" s="581"/>
+      <c r="R74" s="581"/>
+      <c r="S74" s="581"/>
+      <c r="T74" s="581"/>
+      <c r="U74" s="581"/>
+      <c r="V74" s="581"/>
+      <c r="W74" s="581"/>
+      <c r="X74" s="581"/>
+      <c r="Y74" s="581"/>
+      <c r="Z74" s="581"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="582"/>
-      <c r="B75" s="582"/>
-      <c r="C75" s="582"/>
-      <c r="D75" s="582"/>
-      <c r="E75" s="582"/>
-      <c r="F75" s="582"/>
-      <c r="G75" s="582"/>
-      <c r="H75" s="582"/>
-      <c r="I75" s="582"/>
-      <c r="J75" s="582"/>
-      <c r="K75" s="582"/>
-      <c r="L75" s="582"/>
-      <c r="M75" s="582"/>
-      <c r="N75" s="582"/>
-      <c r="O75" s="582"/>
-      <c r="P75" s="582"/>
-      <c r="Q75" s="582"/>
-      <c r="R75" s="582"/>
-      <c r="S75" s="582"/>
-      <c r="T75" s="582"/>
-      <c r="U75" s="582"/>
-      <c r="V75" s="582"/>
-      <c r="W75" s="582"/>
-      <c r="X75" s="582"/>
-      <c r="Y75" s="582"/>
-      <c r="Z75" s="582"/>
+      <c r="A75" s="581"/>
+      <c r="B75" s="581"/>
+      <c r="C75" s="581"/>
+      <c r="D75" s="581"/>
+      <c r="E75" s="581"/>
+      <c r="F75" s="581"/>
+      <c r="G75" s="581"/>
+      <c r="H75" s="581"/>
+      <c r="I75" s="581"/>
+      <c r="J75" s="581"/>
+      <c r="K75" s="581"/>
+      <c r="L75" s="581"/>
+      <c r="M75" s="581"/>
+      <c r="N75" s="581"/>
+      <c r="O75" s="581"/>
+      <c r="P75" s="581"/>
+      <c r="Q75" s="581"/>
+      <c r="R75" s="581"/>
+      <c r="S75" s="581"/>
+      <c r="T75" s="581"/>
+      <c r="U75" s="581"/>
+      <c r="V75" s="581"/>
+      <c r="W75" s="581"/>
+      <c r="X75" s="581"/>
+      <c r="Y75" s="581"/>
+      <c r="Z75" s="581"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="582"/>
-      <c r="B76" s="582"/>
-      <c r="C76" s="582"/>
-      <c r="D76" s="582"/>
-      <c r="E76" s="582"/>
-      <c r="F76" s="582"/>
-      <c r="G76" s="582"/>
-      <c r="H76" s="582"/>
-      <c r="I76" s="582"/>
-      <c r="J76" s="582"/>
-      <c r="K76" s="582"/>
-      <c r="L76" s="582"/>
-      <c r="M76" s="582"/>
-      <c r="N76" s="582"/>
-      <c r="O76" s="582"/>
-      <c r="P76" s="582"/>
-      <c r="Q76" s="582"/>
-      <c r="R76" s="582"/>
-      <c r="S76" s="582"/>
-      <c r="T76" s="582"/>
-      <c r="U76" s="582"/>
-      <c r="V76" s="582"/>
-      <c r="W76" s="582"/>
-      <c r="X76" s="582"/>
-      <c r="Y76" s="582"/>
-      <c r="Z76" s="582"/>
+      <c r="A76" s="581"/>
+      <c r="B76" s="581"/>
+      <c r="C76" s="581"/>
+      <c r="D76" s="581"/>
+      <c r="E76" s="581"/>
+      <c r="F76" s="581"/>
+      <c r="G76" s="581"/>
+      <c r="H76" s="581"/>
+      <c r="I76" s="581"/>
+      <c r="J76" s="581"/>
+      <c r="K76" s="581"/>
+      <c r="L76" s="581"/>
+      <c r="M76" s="581"/>
+      <c r="N76" s="581"/>
+      <c r="O76" s="581"/>
+      <c r="P76" s="581"/>
+      <c r="Q76" s="581"/>
+      <c r="R76" s="581"/>
+      <c r="S76" s="581"/>
+      <c r="T76" s="581"/>
+      <c r="U76" s="581"/>
+      <c r="V76" s="581"/>
+      <c r="W76" s="581"/>
+      <c r="X76" s="581"/>
+      <c r="Y76" s="581"/>
+      <c r="Z76" s="581"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="582"/>
-      <c r="B77" s="582"/>
-      <c r="C77" s="582"/>
-      <c r="D77" s="582"/>
-      <c r="E77" s="582"/>
-      <c r="F77" s="582"/>
-      <c r="G77" s="582"/>
-      <c r="H77" s="582"/>
-      <c r="I77" s="582"/>
-      <c r="J77" s="582"/>
-      <c r="K77" s="582"/>
-      <c r="L77" s="582"/>
-      <c r="M77" s="582"/>
-      <c r="N77" s="582"/>
-      <c r="O77" s="582"/>
-      <c r="P77" s="582"/>
-      <c r="Q77" s="582"/>
-      <c r="R77" s="582"/>
-      <c r="S77" s="582"/>
-      <c r="T77" s="582"/>
-      <c r="U77" s="582"/>
-      <c r="V77" s="582"/>
-      <c r="W77" s="582"/>
-      <c r="X77" s="582"/>
-      <c r="Y77" s="582"/>
-      <c r="Z77" s="582"/>
+      <c r="A77" s="581"/>
+      <c r="B77" s="581"/>
+      <c r="C77" s="581"/>
+      <c r="D77" s="581"/>
+      <c r="E77" s="581"/>
+      <c r="F77" s="581"/>
+      <c r="G77" s="581"/>
+      <c r="H77" s="581"/>
+      <c r="I77" s="581"/>
+      <c r="J77" s="581"/>
+      <c r="K77" s="581"/>
+      <c r="L77" s="581"/>
+      <c r="M77" s="581"/>
+      <c r="N77" s="581"/>
+      <c r="O77" s="581"/>
+      <c r="P77" s="581"/>
+      <c r="Q77" s="581"/>
+      <c r="R77" s="581"/>
+      <c r="S77" s="581"/>
+      <c r="T77" s="581"/>
+      <c r="U77" s="581"/>
+      <c r="V77" s="581"/>
+      <c r="W77" s="581"/>
+      <c r="X77" s="581"/>
+      <c r="Y77" s="581"/>
+      <c r="Z77" s="581"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="582"/>
-      <c r="B78" s="582"/>
-      <c r="C78" s="582"/>
-      <c r="D78" s="582"/>
-      <c r="E78" s="582"/>
-      <c r="F78" s="582"/>
-      <c r="G78" s="582"/>
-      <c r="H78" s="582"/>
-      <c r="I78" s="582"/>
-      <c r="J78" s="582"/>
-      <c r="K78" s="582"/>
-      <c r="L78" s="582"/>
-      <c r="M78" s="582"/>
-      <c r="N78" s="582"/>
-      <c r="O78" s="582"/>
-      <c r="P78" s="582"/>
-      <c r="Q78" s="582"/>
-      <c r="R78" s="582"/>
-      <c r="S78" s="582"/>
-      <c r="T78" s="582"/>
-      <c r="U78" s="582"/>
-      <c r="V78" s="582"/>
-      <c r="W78" s="582"/>
-      <c r="X78" s="582"/>
-      <c r="Y78" s="582"/>
-      <c r="Z78" s="582"/>
+      <c r="A78" s="581"/>
+      <c r="B78" s="581"/>
+      <c r="C78" s="581"/>
+      <c r="D78" s="581"/>
+      <c r="E78" s="581"/>
+      <c r="F78" s="581"/>
+      <c r="G78" s="581"/>
+      <c r="H78" s="581"/>
+      <c r="I78" s="581"/>
+      <c r="J78" s="581"/>
+      <c r="K78" s="581"/>
+      <c r="L78" s="581"/>
+      <c r="M78" s="581"/>
+      <c r="N78" s="581"/>
+      <c r="O78" s="581"/>
+      <c r="P78" s="581"/>
+      <c r="Q78" s="581"/>
+      <c r="R78" s="581"/>
+      <c r="S78" s="581"/>
+      <c r="T78" s="581"/>
+      <c r="U78" s="581"/>
+      <c r="V78" s="581"/>
+      <c r="W78" s="581"/>
+      <c r="X78" s="581"/>
+      <c r="Y78" s="581"/>
+      <c r="Z78" s="581"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="582"/>
-      <c r="B79" s="582"/>
-      <c r="C79" s="582"/>
-      <c r="D79" s="582"/>
-      <c r="E79" s="582"/>
-      <c r="F79" s="582"/>
-      <c r="G79" s="582"/>
-      <c r="H79" s="582"/>
-      <c r="I79" s="582"/>
-      <c r="J79" s="582"/>
-      <c r="K79" s="582"/>
-      <c r="L79" s="582"/>
-      <c r="M79" s="582"/>
-      <c r="N79" s="582"/>
-      <c r="O79" s="582"/>
-      <c r="P79" s="582"/>
-      <c r="Q79" s="582"/>
-      <c r="R79" s="582"/>
-      <c r="S79" s="582"/>
-      <c r="T79" s="582"/>
-      <c r="U79" s="582"/>
-      <c r="V79" s="582"/>
-      <c r="W79" s="582"/>
-      <c r="X79" s="582"/>
-      <c r="Y79" s="582"/>
-      <c r="Z79" s="582"/>
+      <c r="A79" s="581"/>
+      <c r="B79" s="581"/>
+      <c r="C79" s="581"/>
+      <c r="D79" s="581"/>
+      <c r="E79" s="581"/>
+      <c r="F79" s="581"/>
+      <c r="G79" s="581"/>
+      <c r="H79" s="581"/>
+      <c r="I79" s="581"/>
+      <c r="J79" s="581"/>
+      <c r="K79" s="581"/>
+      <c r="L79" s="581"/>
+      <c r="M79" s="581"/>
+      <c r="N79" s="581"/>
+      <c r="O79" s="581"/>
+      <c r="P79" s="581"/>
+      <c r="Q79" s="581"/>
+      <c r="R79" s="581"/>
+      <c r="S79" s="581"/>
+      <c r="T79" s="581"/>
+      <c r="U79" s="581"/>
+      <c r="V79" s="581"/>
+      <c r="W79" s="581"/>
+      <c r="X79" s="581"/>
+      <c r="Y79" s="581"/>
+      <c r="Z79" s="581"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="582"/>
-      <c r="B80" s="582"/>
-      <c r="C80" s="582"/>
-      <c r="D80" s="582"/>
-      <c r="E80" s="582"/>
-      <c r="F80" s="582"/>
-      <c r="G80" s="582"/>
-      <c r="H80" s="582"/>
-      <c r="I80" s="582"/>
-      <c r="J80" s="582"/>
-      <c r="K80" s="582"/>
-      <c r="L80" s="582"/>
-      <c r="M80" s="582"/>
-      <c r="N80" s="582"/>
-      <c r="O80" s="582"/>
-      <c r="P80" s="582"/>
-      <c r="Q80" s="582"/>
-      <c r="R80" s="582"/>
-      <c r="S80" s="582"/>
-      <c r="T80" s="582"/>
-      <c r="U80" s="582"/>
-      <c r="V80" s="582"/>
-      <c r="W80" s="582"/>
-      <c r="X80" s="582"/>
-      <c r="Y80" s="582"/>
-      <c r="Z80" s="582"/>
+      <c r="A80" s="581"/>
+      <c r="B80" s="581"/>
+      <c r="C80" s="581"/>
+      <c r="D80" s="581"/>
+      <c r="E80" s="581"/>
+      <c r="F80" s="581"/>
+      <c r="G80" s="581"/>
+      <c r="H80" s="581"/>
+      <c r="I80" s="581"/>
+      <c r="J80" s="581"/>
+      <c r="K80" s="581"/>
+      <c r="L80" s="581"/>
+      <c r="M80" s="581"/>
+      <c r="N80" s="581"/>
+      <c r="O80" s="581"/>
+      <c r="P80" s="581"/>
+      <c r="Q80" s="581"/>
+      <c r="R80" s="581"/>
+      <c r="S80" s="581"/>
+      <c r="T80" s="581"/>
+      <c r="U80" s="581"/>
+      <c r="V80" s="581"/>
+      <c r="W80" s="581"/>
+      <c r="X80" s="581"/>
+      <c r="Y80" s="581"/>
+      <c r="Z80" s="581"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="582"/>
-      <c r="B81" s="582"/>
-      <c r="C81" s="582"/>
-      <c r="D81" s="582"/>
-      <c r="E81" s="582"/>
-      <c r="F81" s="582"/>
-      <c r="G81" s="582"/>
-      <c r="H81" s="582"/>
-      <c r="I81" s="582"/>
-      <c r="J81" s="582"/>
-      <c r="K81" s="582"/>
-      <c r="L81" s="582"/>
-      <c r="M81" s="582"/>
-      <c r="N81" s="582"/>
-      <c r="O81" s="582"/>
-      <c r="P81" s="582"/>
-      <c r="Q81" s="582"/>
-      <c r="R81" s="582"/>
-      <c r="S81" s="582"/>
-      <c r="T81" s="582"/>
-      <c r="U81" s="582"/>
-      <c r="V81" s="582"/>
-      <c r="W81" s="582"/>
-      <c r="X81" s="582"/>
-      <c r="Y81" s="582"/>
-      <c r="Z81" s="582"/>
+      <c r="A81" s="581"/>
+      <c r="B81" s="581"/>
+      <c r="C81" s="581"/>
+      <c r="D81" s="581"/>
+      <c r="E81" s="581"/>
+      <c r="F81" s="581"/>
+      <c r="G81" s="581"/>
+      <c r="H81" s="581"/>
+      <c r="I81" s="581"/>
+      <c r="J81" s="581"/>
+      <c r="K81" s="581"/>
+      <c r="L81" s="581"/>
+      <c r="M81" s="581"/>
+      <c r="N81" s="581"/>
+      <c r="O81" s="581"/>
+      <c r="P81" s="581"/>
+      <c r="Q81" s="581"/>
+      <c r="R81" s="581"/>
+      <c r="S81" s="581"/>
+      <c r="T81" s="581"/>
+      <c r="U81" s="581"/>
+      <c r="V81" s="581"/>
+      <c r="W81" s="581"/>
+      <c r="X81" s="581"/>
+      <c r="Y81" s="581"/>
+      <c r="Z81" s="581"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="582"/>
-      <c r="B82" s="582"/>
-      <c r="C82" s="582"/>
-      <c r="D82" s="582"/>
-      <c r="E82" s="582"/>
-      <c r="F82" s="582"/>
-      <c r="G82" s="582"/>
-      <c r="H82" s="582"/>
-      <c r="I82" s="582"/>
-      <c r="J82" s="582"/>
-      <c r="K82" s="582"/>
-      <c r="L82" s="582"/>
-      <c r="M82" s="582"/>
-      <c r="N82" s="582"/>
-      <c r="O82" s="582"/>
-      <c r="P82" s="582"/>
-      <c r="Q82" s="582"/>
-      <c r="R82" s="582"/>
-      <c r="S82" s="582"/>
-      <c r="T82" s="582"/>
-      <c r="U82" s="582"/>
-      <c r="V82" s="582"/>
-      <c r="W82" s="582"/>
-      <c r="X82" s="582"/>
-      <c r="Y82" s="582"/>
-      <c r="Z82" s="582"/>
+      <c r="A82" s="581"/>
+      <c r="B82" s="581"/>
+      <c r="C82" s="581"/>
+      <c r="D82" s="581"/>
+      <c r="E82" s="581"/>
+      <c r="F82" s="581"/>
+      <c r="G82" s="581"/>
+      <c r="H82" s="581"/>
+      <c r="I82" s="581"/>
+      <c r="J82" s="581"/>
+      <c r="K82" s="581"/>
+      <c r="L82" s="581"/>
+      <c r="M82" s="581"/>
+      <c r="N82" s="581"/>
+      <c r="O82" s="581"/>
+      <c r="P82" s="581"/>
+      <c r="Q82" s="581"/>
+      <c r="R82" s="581"/>
+      <c r="S82" s="581"/>
+      <c r="T82" s="581"/>
+      <c r="U82" s="581"/>
+      <c r="V82" s="581"/>
+      <c r="W82" s="581"/>
+      <c r="X82" s="581"/>
+      <c r="Y82" s="581"/>
+      <c r="Z82" s="581"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="582"/>
-      <c r="B83" s="582"/>
-      <c r="C83" s="582"/>
-      <c r="D83" s="582"/>
-      <c r="E83" s="582"/>
-      <c r="F83" s="582"/>
-      <c r="G83" s="582"/>
-      <c r="H83" s="582"/>
-      <c r="I83" s="582"/>
-      <c r="J83" s="582"/>
-      <c r="K83" s="582"/>
-      <c r="L83" s="582"/>
-      <c r="M83" s="582"/>
-      <c r="N83" s="582"/>
-      <c r="O83" s="582"/>
-      <c r="P83" s="582"/>
-      <c r="Q83" s="582"/>
-      <c r="R83" s="582"/>
-      <c r="S83" s="582"/>
-      <c r="T83" s="582"/>
-      <c r="U83" s="582"/>
-      <c r="V83" s="582"/>
-      <c r="W83" s="582"/>
-      <c r="X83" s="582"/>
-      <c r="Y83" s="582"/>
-      <c r="Z83" s="582"/>
+      <c r="A83" s="581"/>
+      <c r="B83" s="581"/>
+      <c r="C83" s="581"/>
+      <c r="D83" s="581"/>
+      <c r="E83" s="581"/>
+      <c r="F83" s="581"/>
+      <c r="G83" s="581"/>
+      <c r="H83" s="581"/>
+      <c r="I83" s="581"/>
+      <c r="J83" s="581"/>
+      <c r="K83" s="581"/>
+      <c r="L83" s="581"/>
+      <c r="M83" s="581"/>
+      <c r="N83" s="581"/>
+      <c r="O83" s="581"/>
+      <c r="P83" s="581"/>
+      <c r="Q83" s="581"/>
+      <c r="R83" s="581"/>
+      <c r="S83" s="581"/>
+      <c r="T83" s="581"/>
+      <c r="U83" s="581"/>
+      <c r="V83" s="581"/>
+      <c r="W83" s="581"/>
+      <c r="X83" s="581"/>
+      <c r="Y83" s="581"/>
+      <c r="Z83" s="581"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="582"/>
-      <c r="B84" s="582"/>
-      <c r="C84" s="582"/>
-      <c r="D84" s="582"/>
-      <c r="E84" s="582"/>
-      <c r="F84" s="582"/>
-      <c r="G84" s="582"/>
-      <c r="H84" s="582"/>
-      <c r="I84" s="582"/>
-      <c r="J84" s="582"/>
-      <c r="K84" s="582"/>
-      <c r="L84" s="582"/>
-      <c r="M84" s="582"/>
-      <c r="N84" s="582"/>
-      <c r="O84" s="582"/>
-      <c r="P84" s="582"/>
-      <c r="Q84" s="582"/>
-      <c r="R84" s="582"/>
-      <c r="S84" s="582"/>
-      <c r="T84" s="582"/>
-      <c r="U84" s="582"/>
-      <c r="V84" s="582"/>
-      <c r="W84" s="582"/>
-      <c r="X84" s="582"/>
-      <c r="Y84" s="582"/>
-      <c r="Z84" s="582"/>
+      <c r="A84" s="581"/>
+      <c r="B84" s="581"/>
+      <c r="C84" s="581"/>
+      <c r="D84" s="581"/>
+      <c r="E84" s="581"/>
+      <c r="F84" s="581"/>
+      <c r="G84" s="581"/>
+      <c r="H84" s="581"/>
+      <c r="I84" s="581"/>
+      <c r="J84" s="581"/>
+      <c r="K84" s="581"/>
+      <c r="L84" s="581"/>
+      <c r="M84" s="581"/>
+      <c r="N84" s="581"/>
+      <c r="O84" s="581"/>
+      <c r="P84" s="581"/>
+      <c r="Q84" s="581"/>
+      <c r="R84" s="581"/>
+      <c r="S84" s="581"/>
+      <c r="T84" s="581"/>
+      <c r="U84" s="581"/>
+      <c r="V84" s="581"/>
+      <c r="W84" s="581"/>
+      <c r="X84" s="581"/>
+      <c r="Y84" s="581"/>
+      <c r="Z84" s="581"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="582"/>
-      <c r="B85" s="582"/>
-      <c r="C85" s="582"/>
-      <c r="D85" s="582"/>
-      <c r="E85" s="582"/>
-      <c r="F85" s="582"/>
-      <c r="G85" s="582"/>
-      <c r="H85" s="582"/>
-      <c r="I85" s="582"/>
-      <c r="J85" s="582"/>
-      <c r="K85" s="582"/>
-      <c r="L85" s="582"/>
-      <c r="M85" s="582"/>
-      <c r="N85" s="582"/>
-      <c r="O85" s="582"/>
-      <c r="P85" s="582"/>
-      <c r="Q85" s="582"/>
-      <c r="R85" s="582"/>
-      <c r="S85" s="582"/>
-      <c r="T85" s="582"/>
-      <c r="U85" s="582"/>
-      <c r="V85" s="582"/>
-      <c r="W85" s="582"/>
-      <c r="X85" s="582"/>
-      <c r="Y85" s="582"/>
-      <c r="Z85" s="582"/>
+      <c r="A85" s="581"/>
+      <c r="B85" s="581"/>
+      <c r="C85" s="581"/>
+      <c r="D85" s="581"/>
+      <c r="E85" s="581"/>
+      <c r="F85" s="581"/>
+      <c r="G85" s="581"/>
+      <c r="H85" s="581"/>
+      <c r="I85" s="581"/>
+      <c r="J85" s="581"/>
+      <c r="K85" s="581"/>
+      <c r="L85" s="581"/>
+      <c r="M85" s="581"/>
+      <c r="N85" s="581"/>
+      <c r="O85" s="581"/>
+      <c r="P85" s="581"/>
+      <c r="Q85" s="581"/>
+      <c r="R85" s="581"/>
+      <c r="S85" s="581"/>
+      <c r="T85" s="581"/>
+      <c r="U85" s="581"/>
+      <c r="V85" s="581"/>
+      <c r="W85" s="581"/>
+      <c r="X85" s="581"/>
+      <c r="Y85" s="581"/>
+      <c r="Z85" s="581"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="582"/>
-      <c r="B86" s="582"/>
-      <c r="C86" s="582"/>
-      <c r="D86" s="582"/>
-      <c r="E86" s="582"/>
-      <c r="F86" s="582"/>
-      <c r="G86" s="582"/>
-      <c r="H86" s="582"/>
-      <c r="I86" s="582"/>
-      <c r="J86" s="582"/>
-      <c r="K86" s="582"/>
-      <c r="L86" s="582"/>
-      <c r="M86" s="582"/>
-      <c r="N86" s="582"/>
-      <c r="O86" s="582"/>
-      <c r="P86" s="582"/>
-      <c r="Q86" s="582"/>
-      <c r="R86" s="582"/>
-      <c r="S86" s="582"/>
-      <c r="T86" s="582"/>
-      <c r="U86" s="582"/>
-      <c r="V86" s="582"/>
-      <c r="W86" s="582"/>
-      <c r="X86" s="582"/>
-      <c r="Y86" s="582"/>
-      <c r="Z86" s="582"/>
+      <c r="A86" s="581"/>
+      <c r="B86" s="581"/>
+      <c r="C86" s="581"/>
+      <c r="D86" s="581"/>
+      <c r="E86" s="581"/>
+      <c r="F86" s="581"/>
+      <c r="G86" s="581"/>
+      <c r="H86" s="581"/>
+      <c r="I86" s="581"/>
+      <c r="J86" s="581"/>
+      <c r="K86" s="581"/>
+      <c r="L86" s="581"/>
+      <c r="M86" s="581"/>
+      <c r="N86" s="581"/>
+      <c r="O86" s="581"/>
+      <c r="P86" s="581"/>
+      <c r="Q86" s="581"/>
+      <c r="R86" s="581"/>
+      <c r="S86" s="581"/>
+      <c r="T86" s="581"/>
+      <c r="U86" s="581"/>
+      <c r="V86" s="581"/>
+      <c r="W86" s="581"/>
+      <c r="X86" s="581"/>
+      <c r="Y86" s="581"/>
+      <c r="Z86" s="581"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="582"/>
-      <c r="B87" s="582"/>
-      <c r="C87" s="582"/>
-      <c r="D87" s="582"/>
-      <c r="E87" s="582"/>
-      <c r="F87" s="582"/>
-      <c r="G87" s="582"/>
-      <c r="H87" s="582"/>
-      <c r="I87" s="582"/>
-      <c r="J87" s="582"/>
-      <c r="K87" s="582"/>
-      <c r="L87" s="582"/>
-      <c r="M87" s="582"/>
-      <c r="N87" s="582"/>
-      <c r="O87" s="582"/>
-      <c r="P87" s="582"/>
-      <c r="Q87" s="582"/>
-      <c r="R87" s="582"/>
-      <c r="S87" s="582"/>
-      <c r="T87" s="582"/>
-      <c r="U87" s="582"/>
-      <c r="V87" s="582"/>
-      <c r="W87" s="582"/>
-      <c r="X87" s="582"/>
-      <c r="Y87" s="582"/>
-      <c r="Z87" s="582"/>
+      <c r="A87" s="581"/>
+      <c r="B87" s="581"/>
+      <c r="C87" s="581"/>
+      <c r="D87" s="581"/>
+      <c r="E87" s="581"/>
+      <c r="F87" s="581"/>
+      <c r="G87" s="581"/>
+      <c r="H87" s="581"/>
+      <c r="I87" s="581"/>
+      <c r="J87" s="581"/>
+      <c r="K87" s="581"/>
+      <c r="L87" s="581"/>
+      <c r="M87" s="581"/>
+      <c r="N87" s="581"/>
+      <c r="O87" s="581"/>
+      <c r="P87" s="581"/>
+      <c r="Q87" s="581"/>
+      <c r="R87" s="581"/>
+      <c r="S87" s="581"/>
+      <c r="T87" s="581"/>
+      <c r="U87" s="581"/>
+      <c r="V87" s="581"/>
+      <c r="W87" s="581"/>
+      <c r="X87" s="581"/>
+      <c r="Y87" s="581"/>
+      <c r="Z87" s="581"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="582"/>
-      <c r="B88" s="582"/>
-      <c r="C88" s="582"/>
-      <c r="D88" s="582"/>
-      <c r="E88" s="582"/>
-      <c r="F88" s="582"/>
-      <c r="G88" s="582"/>
-      <c r="H88" s="582"/>
-      <c r="I88" s="582"/>
-      <c r="J88" s="582"/>
-      <c r="K88" s="582"/>
-      <c r="L88" s="582"/>
-      <c r="M88" s="582"/>
-      <c r="N88" s="582"/>
-      <c r="O88" s="582"/>
-      <c r="P88" s="582"/>
-      <c r="Q88" s="582"/>
-      <c r="R88" s="582"/>
-      <c r="S88" s="582"/>
-      <c r="T88" s="582"/>
-      <c r="U88" s="582"/>
-      <c r="V88" s="582"/>
-      <c r="W88" s="582"/>
-      <c r="X88" s="582"/>
-      <c r="Y88" s="582"/>
-      <c r="Z88" s="582"/>
+      <c r="A88" s="581"/>
+      <c r="B88" s="581"/>
+      <c r="C88" s="581"/>
+      <c r="D88" s="581"/>
+      <c r="E88" s="581"/>
+      <c r="F88" s="581"/>
+      <c r="G88" s="581"/>
+      <c r="H88" s="581"/>
+      <c r="I88" s="581"/>
+      <c r="J88" s="581"/>
+      <c r="K88" s="581"/>
+      <c r="L88" s="581"/>
+      <c r="M88" s="581"/>
+      <c r="N88" s="581"/>
+      <c r="O88" s="581"/>
+      <c r="P88" s="581"/>
+      <c r="Q88" s="581"/>
+      <c r="R88" s="581"/>
+      <c r="S88" s="581"/>
+      <c r="T88" s="581"/>
+      <c r="U88" s="581"/>
+      <c r="V88" s="581"/>
+      <c r="W88" s="581"/>
+      <c r="X88" s="581"/>
+      <c r="Y88" s="581"/>
+      <c r="Z88" s="581"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="582"/>
-      <c r="B89" s="582"/>
-      <c r="C89" s="582"/>
-      <c r="D89" s="582"/>
-      <c r="E89" s="582"/>
-      <c r="F89" s="582"/>
-      <c r="G89" s="582"/>
-      <c r="H89" s="582"/>
-      <c r="I89" s="582"/>
-      <c r="J89" s="582"/>
-      <c r="K89" s="582"/>
-      <c r="L89" s="582"/>
-      <c r="M89" s="582"/>
-      <c r="N89" s="582"/>
-      <c r="O89" s="582"/>
-      <c r="P89" s="582"/>
-      <c r="Q89" s="582"/>
-      <c r="R89" s="582"/>
-      <c r="S89" s="582"/>
-      <c r="T89" s="582"/>
-      <c r="U89" s="582"/>
-      <c r="V89" s="582"/>
-      <c r="W89" s="582"/>
-      <c r="X89" s="582"/>
-      <c r="Y89" s="582"/>
-      <c r="Z89" s="582"/>
+      <c r="A89" s="581"/>
+      <c r="B89" s="581"/>
+      <c r="C89" s="581"/>
+      <c r="D89" s="581"/>
+      <c r="E89" s="581"/>
+      <c r="F89" s="581"/>
+      <c r="G89" s="581"/>
+      <c r="H89" s="581"/>
+      <c r="I89" s="581"/>
+      <c r="J89" s="581"/>
+      <c r="K89" s="581"/>
+      <c r="L89" s="581"/>
+      <c r="M89" s="581"/>
+      <c r="N89" s="581"/>
+      <c r="O89" s="581"/>
+      <c r="P89" s="581"/>
+      <c r="Q89" s="581"/>
+      <c r="R89" s="581"/>
+      <c r="S89" s="581"/>
+      <c r="T89" s="581"/>
+      <c r="U89" s="581"/>
+      <c r="V89" s="581"/>
+      <c r="W89" s="581"/>
+      <c r="X89" s="581"/>
+      <c r="Y89" s="581"/>
+      <c r="Z89" s="581"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="582"/>
-      <c r="B90" s="582"/>
-      <c r="C90" s="582"/>
-      <c r="D90" s="582"/>
-      <c r="E90" s="582"/>
-      <c r="F90" s="582"/>
-      <c r="G90" s="582"/>
-      <c r="H90" s="582"/>
-      <c r="I90" s="582"/>
-      <c r="J90" s="582"/>
-      <c r="K90" s="582"/>
-      <c r="L90" s="582"/>
-      <c r="M90" s="582"/>
-      <c r="N90" s="582"/>
-      <c r="O90" s="582"/>
-      <c r="P90" s="582"/>
-      <c r="Q90" s="582"/>
-      <c r="R90" s="582"/>
-      <c r="S90" s="582"/>
-      <c r="T90" s="582"/>
-      <c r="U90" s="582"/>
-      <c r="V90" s="582"/>
-      <c r="W90" s="582"/>
-      <c r="X90" s="582"/>
-      <c r="Y90" s="582"/>
-      <c r="Z90" s="582"/>
+      <c r="A90" s="581"/>
+      <c r="B90" s="581"/>
+      <c r="C90" s="581"/>
+      <c r="D90" s="581"/>
+      <c r="E90" s="581"/>
+      <c r="F90" s="581"/>
+      <c r="G90" s="581"/>
+      <c r="H90" s="581"/>
+      <c r="I90" s="581"/>
+      <c r="J90" s="581"/>
+      <c r="K90" s="581"/>
+      <c r="L90" s="581"/>
+      <c r="M90" s="581"/>
+      <c r="N90" s="581"/>
+      <c r="O90" s="581"/>
+      <c r="P90" s="581"/>
+      <c r="Q90" s="581"/>
+      <c r="R90" s="581"/>
+      <c r="S90" s="581"/>
+      <c r="T90" s="581"/>
+      <c r="U90" s="581"/>
+      <c r="V90" s="581"/>
+      <c r="W90" s="581"/>
+      <c r="X90" s="581"/>
+      <c r="Y90" s="581"/>
+      <c r="Z90" s="581"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="582"/>
-      <c r="B91" s="582"/>
-      <c r="C91" s="582"/>
-      <c r="D91" s="582"/>
-      <c r="E91" s="582"/>
-      <c r="F91" s="582"/>
-      <c r="G91" s="582"/>
-      <c r="H91" s="582"/>
-      <c r="I91" s="582"/>
-      <c r="J91" s="582"/>
-      <c r="K91" s="582"/>
-      <c r="L91" s="582"/>
-      <c r="M91" s="582"/>
-      <c r="N91" s="582"/>
-      <c r="O91" s="582"/>
-      <c r="P91" s="582"/>
-      <c r="Q91" s="582"/>
-      <c r="R91" s="582"/>
-      <c r="S91" s="582"/>
-      <c r="T91" s="582"/>
-      <c r="U91" s="582"/>
-      <c r="V91" s="582"/>
-      <c r="W91" s="582"/>
-      <c r="X91" s="582"/>
-      <c r="Y91" s="582"/>
-      <c r="Z91" s="582"/>
+      <c r="A91" s="581"/>
+      <c r="B91" s="581"/>
+      <c r="C91" s="581"/>
+      <c r="D91" s="581"/>
+      <c r="E91" s="581"/>
+      <c r="F91" s="581"/>
+      <c r="G91" s="581"/>
+      <c r="H91" s="581"/>
+      <c r="I91" s="581"/>
+      <c r="J91" s="581"/>
+      <c r="K91" s="581"/>
+      <c r="L91" s="581"/>
+      <c r="M91" s="581"/>
+      <c r="N91" s="581"/>
+      <c r="O91" s="581"/>
+      <c r="P91" s="581"/>
+      <c r="Q91" s="581"/>
+      <c r="R91" s="581"/>
+      <c r="S91" s="581"/>
+      <c r="T91" s="581"/>
+      <c r="U91" s="581"/>
+      <c r="V91" s="581"/>
+      <c r="W91" s="581"/>
+      <c r="X91" s="581"/>
+      <c r="Y91" s="581"/>
+      <c r="Z91" s="581"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="582"/>
-      <c r="B92" s="582"/>
-      <c r="C92" s="582"/>
-      <c r="D92" s="582"/>
-      <c r="E92" s="582"/>
-      <c r="F92" s="582"/>
-      <c r="G92" s="582"/>
-      <c r="H92" s="582"/>
-      <c r="I92" s="582"/>
-      <c r="J92" s="582"/>
-      <c r="K92" s="582"/>
-      <c r="L92" s="582"/>
-      <c r="M92" s="582"/>
-      <c r="N92" s="582"/>
-      <c r="O92" s="582"/>
-      <c r="P92" s="582"/>
-      <c r="Q92" s="582"/>
-      <c r="R92" s="582"/>
-      <c r="S92" s="582"/>
-      <c r="T92" s="582"/>
-      <c r="U92" s="582"/>
-      <c r="V92" s="582"/>
-      <c r="W92" s="582"/>
-      <c r="X92" s="582"/>
-      <c r="Y92" s="582"/>
-      <c r="Z92" s="582"/>
+      <c r="A92" s="581"/>
+      <c r="B92" s="581"/>
+      <c r="C92" s="581"/>
+      <c r="D92" s="581"/>
+      <c r="E92" s="581"/>
+      <c r="F92" s="581"/>
+      <c r="G92" s="581"/>
+      <c r="H92" s="581"/>
+      <c r="I92" s="581"/>
+      <c r="J92" s="581"/>
+      <c r="K92" s="581"/>
+      <c r="L92" s="581"/>
+      <c r="M92" s="581"/>
+      <c r="N92" s="581"/>
+      <c r="O92" s="581"/>
+      <c r="P92" s="581"/>
+      <c r="Q92" s="581"/>
+      <c r="R92" s="581"/>
+      <c r="S92" s="581"/>
+      <c r="T92" s="581"/>
+      <c r="U92" s="581"/>
+      <c r="V92" s="581"/>
+      <c r="W92" s="581"/>
+      <c r="X92" s="581"/>
+      <c r="Y92" s="581"/>
+      <c r="Z92" s="581"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="582"/>
-      <c r="B93" s="582"/>
-      <c r="C93" s="582"/>
-      <c r="D93" s="582"/>
-      <c r="E93" s="582"/>
-      <c r="F93" s="582"/>
-      <c r="G93" s="582"/>
-      <c r="H93" s="582"/>
-      <c r="I93" s="582"/>
-      <c r="J93" s="582"/>
-      <c r="K93" s="582"/>
-      <c r="L93" s="582"/>
-      <c r="M93" s="582"/>
-      <c r="N93" s="582"/>
-      <c r="O93" s="582"/>
-      <c r="P93" s="582"/>
-      <c r="Q93" s="582"/>
-      <c r="R93" s="582"/>
-      <c r="S93" s="582"/>
-      <c r="T93" s="582"/>
-      <c r="U93" s="582"/>
-      <c r="V93" s="582"/>
-      <c r="W93" s="582"/>
-      <c r="X93" s="582"/>
-      <c r="Y93" s="582"/>
-      <c r="Z93" s="582"/>
+      <c r="A93" s="581"/>
+      <c r="B93" s="581"/>
+      <c r="C93" s="581"/>
+      <c r="D93" s="581"/>
+      <c r="E93" s="581"/>
+      <c r="F93" s="581"/>
+      <c r="G93" s="581"/>
+      <c r="H93" s="581"/>
+      <c r="I93" s="581"/>
+      <c r="J93" s="581"/>
+      <c r="K93" s="581"/>
+      <c r="L93" s="581"/>
+      <c r="M93" s="581"/>
+      <c r="N93" s="581"/>
+      <c r="O93" s="581"/>
+      <c r="P93" s="581"/>
+      <c r="Q93" s="581"/>
+      <c r="R93" s="581"/>
+      <c r="S93" s="581"/>
+      <c r="T93" s="581"/>
+      <c r="U93" s="581"/>
+      <c r="V93" s="581"/>
+      <c r="W93" s="581"/>
+      <c r="X93" s="581"/>
+      <c r="Y93" s="581"/>
+      <c r="Z93" s="581"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="582"/>
-      <c r="B94" s="582"/>
-      <c r="C94" s="582"/>
-      <c r="D94" s="582"/>
-      <c r="E94" s="582"/>
-      <c r="F94" s="582"/>
-      <c r="G94" s="582"/>
-      <c r="H94" s="582"/>
-      <c r="I94" s="582"/>
-      <c r="J94" s="582"/>
-      <c r="K94" s="582"/>
-      <c r="L94" s="582"/>
-      <c r="M94" s="582"/>
-      <c r="N94" s="582"/>
-      <c r="O94" s="582"/>
-      <c r="P94" s="582"/>
-      <c r="Q94" s="582"/>
-      <c r="R94" s="582"/>
-      <c r="S94" s="582"/>
-      <c r="T94" s="582"/>
-      <c r="U94" s="582"/>
-      <c r="V94" s="582"/>
-      <c r="W94" s="582"/>
-      <c r="X94" s="582"/>
-      <c r="Y94" s="582"/>
-      <c r="Z94" s="582"/>
+      <c r="A94" s="581"/>
+      <c r="B94" s="581"/>
+      <c r="C94" s="581"/>
+      <c r="D94" s="581"/>
+      <c r="E94" s="581"/>
+      <c r="F94" s="581"/>
+      <c r="G94" s="581"/>
+      <c r="H94" s="581"/>
+      <c r="I94" s="581"/>
+      <c r="J94" s="581"/>
+      <c r="K94" s="581"/>
+      <c r="L94" s="581"/>
+      <c r="M94" s="581"/>
+      <c r="N94" s="581"/>
+      <c r="O94" s="581"/>
+      <c r="P94" s="581"/>
+      <c r="Q94" s="581"/>
+      <c r="R94" s="581"/>
+      <c r="S94" s="581"/>
+      <c r="T94" s="581"/>
+      <c r="U94" s="581"/>
+      <c r="V94" s="581"/>
+      <c r="W94" s="581"/>
+      <c r="X94" s="581"/>
+      <c r="Y94" s="581"/>
+      <c r="Z94" s="581"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="582"/>
-      <c r="B95" s="582"/>
-      <c r="C95" s="582"/>
-      <c r="D95" s="582"/>
-      <c r="E95" s="582"/>
-      <c r="F95" s="582"/>
-      <c r="G95" s="582"/>
-      <c r="H95" s="582"/>
-      <c r="I95" s="582"/>
-      <c r="J95" s="582"/>
-      <c r="K95" s="582"/>
-      <c r="L95" s="582"/>
-      <c r="M95" s="582"/>
-      <c r="N95" s="582"/>
-      <c r="O95" s="582"/>
-      <c r="P95" s="582"/>
-      <c r="Q95" s="582"/>
-      <c r="R95" s="582"/>
-      <c r="S95" s="582"/>
-      <c r="T95" s="582"/>
-      <c r="U95" s="582"/>
-      <c r="V95" s="582"/>
-      <c r="W95" s="582"/>
-      <c r="X95" s="582"/>
-      <c r="Y95" s="582"/>
-      <c r="Z95" s="582"/>
+      <c r="A95" s="581"/>
+      <c r="B95" s="581"/>
+      <c r="C95" s="581"/>
+      <c r="D95" s="581"/>
+      <c r="E95" s="581"/>
+      <c r="F95" s="581"/>
+      <c r="G95" s="581"/>
+      <c r="H95" s="581"/>
+      <c r="I95" s="581"/>
+      <c r="J95" s="581"/>
+      <c r="K95" s="581"/>
+      <c r="L95" s="581"/>
+      <c r="M95" s="581"/>
+      <c r="N95" s="581"/>
+      <c r="O95" s="581"/>
+      <c r="P95" s="581"/>
+      <c r="Q95" s="581"/>
+      <c r="R95" s="581"/>
+      <c r="S95" s="581"/>
+      <c r="T95" s="581"/>
+      <c r="U95" s="581"/>
+      <c r="V95" s="581"/>
+      <c r="W95" s="581"/>
+      <c r="X95" s="581"/>
+      <c r="Y95" s="581"/>
+      <c r="Z95" s="581"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="582"/>
-      <c r="B96" s="582"/>
-      <c r="C96" s="582"/>
-      <c r="D96" s="582"/>
-      <c r="E96" s="582"/>
-      <c r="F96" s="582"/>
-      <c r="G96" s="582"/>
-      <c r="H96" s="582"/>
-      <c r="I96" s="582"/>
-      <c r="J96" s="582"/>
-      <c r="K96" s="582"/>
-      <c r="L96" s="582"/>
-      <c r="M96" s="582"/>
-      <c r="N96" s="582"/>
-      <c r="O96" s="582"/>
-      <c r="P96" s="582"/>
-      <c r="Q96" s="582"/>
-      <c r="R96" s="582"/>
-      <c r="S96" s="582"/>
-      <c r="T96" s="582"/>
-      <c r="U96" s="582"/>
-      <c r="V96" s="582"/>
-      <c r="W96" s="582"/>
-      <c r="X96" s="582"/>
-      <c r="Y96" s="582"/>
-      <c r="Z96" s="582"/>
+      <c r="A96" s="581"/>
+      <c r="B96" s="581"/>
+      <c r="C96" s="581"/>
+      <c r="D96" s="581"/>
+      <c r="E96" s="581"/>
+      <c r="F96" s="581"/>
+      <c r="G96" s="581"/>
+      <c r="H96" s="581"/>
+      <c r="I96" s="581"/>
+      <c r="J96" s="581"/>
+      <c r="K96" s="581"/>
+      <c r="L96" s="581"/>
+      <c r="M96" s="581"/>
+      <c r="N96" s="581"/>
+      <c r="O96" s="581"/>
+      <c r="P96" s="581"/>
+      <c r="Q96" s="581"/>
+      <c r="R96" s="581"/>
+      <c r="S96" s="581"/>
+      <c r="T96" s="581"/>
+      <c r="U96" s="581"/>
+      <c r="V96" s="581"/>
+      <c r="W96" s="581"/>
+      <c r="X96" s="581"/>
+      <c r="Y96" s="581"/>
+      <c r="Z96" s="581"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="582"/>
-      <c r="B97" s="582"/>
-      <c r="C97" s="582"/>
-      <c r="D97" s="582"/>
-      <c r="E97" s="582"/>
-      <c r="F97" s="582"/>
-      <c r="G97" s="582"/>
-      <c r="H97" s="582"/>
-      <c r="I97" s="582"/>
-      <c r="J97" s="582"/>
-      <c r="K97" s="582"/>
-      <c r="L97" s="582"/>
-      <c r="M97" s="582"/>
-      <c r="N97" s="582"/>
-      <c r="O97" s="582"/>
-      <c r="P97" s="582"/>
-      <c r="Q97" s="582"/>
-      <c r="R97" s="582"/>
-      <c r="S97" s="582"/>
-      <c r="T97" s="582"/>
-      <c r="U97" s="582"/>
-      <c r="V97" s="582"/>
-      <c r="W97" s="582"/>
-      <c r="X97" s="582"/>
-      <c r="Y97" s="582"/>
-      <c r="Z97" s="582"/>
+      <c r="A97" s="581"/>
+      <c r="B97" s="581"/>
+      <c r="C97" s="581"/>
+      <c r="D97" s="581"/>
+      <c r="E97" s="581"/>
+      <c r="F97" s="581"/>
+      <c r="G97" s="581"/>
+      <c r="H97" s="581"/>
+      <c r="I97" s="581"/>
+      <c r="J97" s="581"/>
+      <c r="K97" s="581"/>
+      <c r="L97" s="581"/>
+      <c r="M97" s="581"/>
+      <c r="N97" s="581"/>
+      <c r="O97" s="581"/>
+      <c r="P97" s="581"/>
+      <c r="Q97" s="581"/>
+      <c r="R97" s="581"/>
+      <c r="S97" s="581"/>
+      <c r="T97" s="581"/>
+      <c r="U97" s="581"/>
+      <c r="V97" s="581"/>
+      <c r="W97" s="581"/>
+      <c r="X97" s="581"/>
+      <c r="Y97" s="581"/>
+      <c r="Z97" s="581"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="582"/>
-      <c r="B98" s="582"/>
-      <c r="C98" s="582"/>
-      <c r="D98" s="582"/>
-      <c r="E98" s="582"/>
-      <c r="F98" s="582"/>
-      <c r="G98" s="582"/>
-      <c r="H98" s="582"/>
-      <c r="I98" s="582"/>
-      <c r="J98" s="582"/>
-      <c r="K98" s="582"/>
-      <c r="L98" s="582"/>
-      <c r="M98" s="582"/>
-      <c r="N98" s="582"/>
-      <c r="O98" s="582"/>
-      <c r="P98" s="582"/>
-      <c r="Q98" s="582"/>
-      <c r="R98" s="582"/>
-      <c r="S98" s="582"/>
-      <c r="T98" s="582"/>
-      <c r="U98" s="582"/>
-      <c r="V98" s="582"/>
-      <c r="W98" s="582"/>
-      <c r="X98" s="582"/>
-      <c r="Y98" s="582"/>
-      <c r="Z98" s="582"/>
+      <c r="A98" s="581"/>
+      <c r="B98" s="581"/>
+      <c r="C98" s="581"/>
+      <c r="D98" s="581"/>
+      <c r="E98" s="581"/>
+      <c r="F98" s="581"/>
+      <c r="G98" s="581"/>
+      <c r="H98" s="581"/>
+      <c r="I98" s="581"/>
+      <c r="J98" s="581"/>
+      <c r="K98" s="581"/>
+      <c r="L98" s="581"/>
+      <c r="M98" s="581"/>
+      <c r="N98" s="581"/>
+      <c r="O98" s="581"/>
+      <c r="P98" s="581"/>
+      <c r="Q98" s="581"/>
+      <c r="R98" s="581"/>
+      <c r="S98" s="581"/>
+      <c r="T98" s="581"/>
+      <c r="U98" s="581"/>
+      <c r="V98" s="581"/>
+      <c r="W98" s="581"/>
+      <c r="X98" s="581"/>
+      <c r="Y98" s="581"/>
+      <c r="Z98" s="581"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="582"/>
-      <c r="B99" s="582"/>
-      <c r="C99" s="582"/>
-      <c r="D99" s="582"/>
-      <c r="E99" s="582"/>
-      <c r="F99" s="582"/>
-      <c r="G99" s="582"/>
-      <c r="H99" s="582"/>
-      <c r="I99" s="582"/>
-      <c r="J99" s="582"/>
-      <c r="K99" s="582"/>
-      <c r="L99" s="582"/>
-      <c r="M99" s="582"/>
-      <c r="N99" s="582"/>
-      <c r="O99" s="582"/>
-      <c r="P99" s="582"/>
-      <c r="Q99" s="582"/>
-      <c r="R99" s="582"/>
-      <c r="S99" s="582"/>
-      <c r="T99" s="582"/>
-      <c r="U99" s="582"/>
-      <c r="V99" s="582"/>
-      <c r="W99" s="582"/>
-      <c r="X99" s="582"/>
-      <c r="Y99" s="582"/>
-      <c r="Z99" s="582"/>
+      <c r="A99" s="581"/>
+      <c r="B99" s="581"/>
+      <c r="C99" s="581"/>
+      <c r="D99" s="581"/>
+      <c r="E99" s="581"/>
+      <c r="F99" s="581"/>
+      <c r="G99" s="581"/>
+      <c r="H99" s="581"/>
+      <c r="I99" s="581"/>
+      <c r="J99" s="581"/>
+      <c r="K99" s="581"/>
+      <c r="L99" s="581"/>
+      <c r="M99" s="581"/>
+      <c r="N99" s="581"/>
+      <c r="O99" s="581"/>
+      <c r="P99" s="581"/>
+      <c r="Q99" s="581"/>
+      <c r="R99" s="581"/>
+      <c r="S99" s="581"/>
+      <c r="T99" s="581"/>
+      <c r="U99" s="581"/>
+      <c r="V99" s="581"/>
+      <c r="W99" s="581"/>
+      <c r="X99" s="581"/>
+      <c r="Y99" s="581"/>
+      <c r="Z99" s="581"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -30849,10 +30836,10 @@
       <c r="E1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="580" t="s">
+      <c r="F1" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="580" t="s">
+      <c r="G1" s="599" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="41" t="s">
@@ -30933,8 +30920,8 @@
       <c r="C2" s="39"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
-      <c r="F2" s="580"/>
-      <c r="G2" s="580"/>
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
       <c r="H2" s="187" t="s">
         <v>570</v>
       </c>
@@ -38228,28 +38215,28 @@
       <c r="E1" s="398" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="580" t="s">
+      <c r="F1" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="580" t="s">
+      <c r="G1" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="580" t="s">
+      <c r="H1" s="599" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="580" t="s">
+      <c r="I1" s="599" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="580" t="s">
+      <c r="J1" s="599" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="580" t="s">
+      <c r="K1" s="599" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="580" t="s">
+      <c r="L1" s="599" t="s">
         <v>430</v>
       </c>
-      <c r="M1" s="580" t="s">
+      <c r="M1" s="599" t="s">
         <v>431</v>
       </c>
       <c r="N1" s="399" t="s">
@@ -38311,14 +38298,14 @@
       <c r="C2" s="397"/>
       <c r="D2" s="398"/>
       <c r="E2" s="398"/>
-      <c r="F2" s="580"/>
-      <c r="G2" s="580"/>
-      <c r="H2" s="580"/>
-      <c r="I2" s="580"/>
-      <c r="J2" s="580"/>
-      <c r="K2" s="580"/>
-      <c r="L2" s="580"/>
-      <c r="M2" s="580"/>
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="599"/>
+      <c r="J2" s="599"/>
+      <c r="K2" s="599"/>
+      <c r="L2" s="599"/>
+      <c r="M2" s="599"/>
       <c r="N2" s="404" t="s">
         <v>570</v>
       </c>
